--- a/document/Calculation Bulanan.xlsx
+++ b/document/Calculation Bulanan.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\My Drive (christiankencana28@gmail.com)\College\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B809AA-40D6-4B72-8181-62EB08F13943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E6F6D-65CD-4110-9D68-67CF6655953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Model SES" sheetId="16" r:id="rId1"/>
-    <sheet name="Model DES" sheetId="28" r:id="rId2"/>
+    <sheet name="Model DES (Done)" sheetId="28" r:id="rId2"/>
     <sheet name="Model TES" sheetId="43" r:id="rId3"/>
+    <sheet name="Model DES (Done) (2)" sheetId="44" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Model DES (Done) (2)'!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
   <si>
     <t>-</t>
   </si>
@@ -4048,7 +4052,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="O1" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4160,19 +4164,19 @@
       </c>
       <c r="D3" s="32">
         <f t="shared" ref="D3:D36" si="2">($O$1*C3)+(1-$O$1)*D2</f>
-        <v>2835719.4</v>
+        <v>2798093</v>
       </c>
       <c r="E3" s="32">
         <f t="shared" ref="E3:E36" si="3">($O$1*D3)+(1-$O$1)*E2</f>
-        <v>2844185.34</v>
+        <v>2821609.5</v>
       </c>
       <c r="F3" s="32">
         <f t="shared" si="0"/>
-        <v>2827253.46</v>
+        <v>2774576.5</v>
       </c>
       <c r="G3" s="32">
         <f t="shared" si="1"/>
-        <v>-940.65999999999383</v>
+        <v>-23516.5</v>
       </c>
       <c r="H3" s="18">
         <f>F2+G2</f>
@@ -4207,42 +4211,42 @@
       </c>
       <c r="D4" s="28">
         <f t="shared" si="2"/>
-        <v>2927279.96</v>
+        <v>3274709</v>
       </c>
       <c r="E4" s="28">
         <f t="shared" si="3"/>
-        <v>2852494.8019999997</v>
+        <v>3048159.25</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>3002065.1180000002</v>
+        <v>3501258.75</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" si="1"/>
-        <v>8309.4620000000323</v>
+        <v>226549.75</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H12" si="8">F3+G3</f>
-        <v>2826312.8</v>
+        <v>2751060</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="4"/>
-        <v>925012.20000000019</v>
+        <v>1000265</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="5"/>
-        <v>925012.20000000019</v>
+        <v>1000265</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="6"/>
-        <v>855647570148.84033</v>
+        <v>1000530070225</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="7"/>
-        <v>0.24658279407942532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.26664311943113433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4254,42 +4258,42 @@
       </c>
       <c r="D5" s="28">
         <f t="shared" si="2"/>
-        <v>2969586.9640000002</v>
+        <v>3312529.5</v>
       </c>
       <c r="E5" s="28">
         <f t="shared" si="3"/>
-        <v>2864204.0181999998</v>
+        <v>3180344.375</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>3074969.9098000005</v>
+        <v>3444714.625</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="1"/>
-        <v>11709.216200000039</v>
+        <v>132185.125</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="8"/>
-        <v>3010374.58</v>
+        <v>3727808.5</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="4"/>
-        <v>339975.41999999993</v>
+        <v>-377458.5</v>
       </c>
       <c r="J5" s="9">
         <f>ABS(I5)</f>
-        <v>339975.41999999993</v>
+        <v>377458.5</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="6"/>
-        <v>115583286204.17635</v>
+        <v>142474919222.25</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="7"/>
-        <v>0.10147459817630991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.11266240840509201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4301,42 +4305,42 @@
       </c>
       <c r="D6" s="28">
         <f t="shared" si="2"/>
-        <v>2945950.6676000003</v>
+        <v>3022876.75</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="3"/>
-        <v>2872378.6831399999</v>
+        <v>3101610.5625</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3019522.6520600007</v>
+        <v>2944142.9375</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="1"/>
-        <v>8174.664940000047</v>
+        <v>-78733.8125</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="8"/>
-        <v>3086679.1260000006</v>
+        <v>3576899.75</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="4"/>
-        <v>-353455.12600000063</v>
+        <v>-843675.75</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" ref="J6:J12" si="9">ABS(I6)</f>
-        <v>353455.12600000063</v>
+        <v>843675.75</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="6"/>
-        <v>124930526095.67632</v>
+        <v>711788771138.0625</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="7"/>
-        <v>0.12931802369655784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.30867420672436652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4348,42 +4352,42 @@
       </c>
       <c r="D7" s="28">
         <f t="shared" si="2"/>
-        <v>2903575.8008400006</v>
+        <v>2772539.375</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="3"/>
-        <v>2875498.3949100003</v>
+        <v>2937074.96875</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2931653.206770001</v>
+        <v>2608003.78125</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="1"/>
-        <v>3119.7117700000399</v>
+        <v>-164535.59375</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" si="8"/>
-        <v>3027697.3170000007</v>
+        <v>2865409.125</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="4"/>
-        <v>-505495.31700000074</v>
+        <v>-343207.125</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="9"/>
-        <v>505495.31700000074</v>
+        <v>343207.125</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="6"/>
-        <v>255525515508.93124</v>
+        <v>117791130650.76563</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="7"/>
-        <v>0.20041825238422645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.13607440046435615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4395,42 +4399,42 @@
       </c>
       <c r="D8" s="28">
         <f t="shared" si="2"/>
-        <v>2905137.420756001</v>
+        <v>2845865.6875</v>
       </c>
       <c r="E8" s="28">
         <f t="shared" si="3"/>
-        <v>2878462.2974946005</v>
+        <v>2891470.328125</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>2931812.5440174015</v>
+        <v>2800261.046875</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="1"/>
-        <v>2963.9025846000554</v>
+        <v>-45604.640625</v>
       </c>
       <c r="H8" s="18">
         <f t="shared" si="8"/>
-        <v>2934772.9185400009</v>
+        <v>2443468.1875</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="4"/>
-        <v>-15580.918540000916</v>
+        <v>475723.8125</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="9"/>
-        <v>15580.918540000916</v>
+        <v>475723.8125</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="6"/>
-        <v>242765022.55014426</v>
+        <v>226313145779.53516</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="7"/>
-        <v>5.3374079334284679E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.16296420807538525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4442,42 +4446,42 @@
       </c>
       <c r="D9" s="28">
         <f t="shared" si="2"/>
-        <v>2884673.0786804007</v>
+        <v>2773179.84375</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="3"/>
-        <v>2879083.3756131809</v>
+        <v>2832325.0859375</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2890262.7817476206</v>
+        <v>2714034.6015625</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="1"/>
-        <v>621.07811857997956</v>
+        <v>-59145.2421875</v>
       </c>
       <c r="H9" s="18">
         <f t="shared" si="8"/>
-        <v>2934776.4466020018</v>
+        <v>2754656.40625</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="4"/>
-        <v>-234282.44660200179</v>
+        <v>-54162.40625</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="9"/>
-        <v>234282.44660200179</v>
+        <v>54162.40625</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="6"/>
-        <v>54888264785.819817</v>
+        <v>2933566250.7900391</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="7"/>
-        <v>8.6755403493583683E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.0056480869796414E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4489,42 +4493,42 @@
       </c>
       <c r="D10" s="28">
         <f t="shared" si="2"/>
-        <v>2885788.5708123604</v>
+        <v>2834503.921875</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="3"/>
-        <v>2879753.8951330986</v>
+        <v>2833414.50390625</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>2891823.2464916222</v>
+        <v>2835593.33984375</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="1"/>
-        <v>670.51951991797739</v>
+        <v>1089.41796875</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="8"/>
-        <v>2890883.8598662005</v>
+        <v>2654889.359375</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="4"/>
-        <v>4944.1401337995194</v>
+        <v>240938.640625</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="9"/>
-        <v>4944.1401337995194</v>
+        <v>240938.640625</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="6"/>
-        <v>24444521.662647128</v>
+        <v>58051428546.2229</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="7"/>
-        <v>1.7073321115064566E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.3201985969125244E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4536,42 +4540,42 @@
       </c>
       <c r="D11" s="28">
         <f t="shared" si="2"/>
-        <v>2902200.4137311247</v>
+        <v>2942205.4609375</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" si="3"/>
-        <v>2881998.5469929017</v>
+        <v>2887809.982421875</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2922402.2804693477</v>
+        <v>2996600.939453125</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" si="1"/>
-        <v>2244.6518598025564</v>
+        <v>54395.478515625</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="8"/>
-        <v>2892493.7660115403</v>
+        <v>2836682.7578125</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="4"/>
-        <v>157413.23398845969</v>
+        <v>213224.2421875</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="9"/>
-        <v>157413.23398845969</v>
+        <v>213224.2421875</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="6"/>
-        <v>24778926234.705559</v>
+        <v>45464577456.433655</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="7"/>
-        <v>5.1612470146945359E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.9911719336851905E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4583,42 +4587,42 @@
       </c>
       <c r="D12" s="28">
         <f t="shared" si="2"/>
-        <v>2903692.3723580125</v>
+        <v>2929662.73046875</v>
       </c>
       <c r="E12" s="28">
         <f t="shared" si="3"/>
-        <v>2884167.9295294131</v>
+        <v>2908736.3564453125</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>2923216.8151866118</v>
+        <v>2950589.1044921875</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" si="1"/>
-        <v>2169.3825365110406</v>
+        <v>20926.3740234375</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="8"/>
-        <v>2924646.9323291504</v>
+        <v>3050996.41796875</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="4"/>
-        <v>-7526.9323291503824</v>
+        <v>-133876.41796875</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="9"/>
-        <v>7526.9323291503824</v>
+        <v>133876.41796875</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="6"/>
-        <v>56654710.287609205</v>
+        <v>17922895288.143448</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="7"/>
-        <v>2.5802614664979097E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.5893353022415942E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4630,42 +4634,42 @@
       </c>
       <c r="D13" s="28">
         <f t="shared" si="2"/>
-        <v>2869411.3351222114</v>
+        <v>2745272.365234375</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="3"/>
-        <v>2882692.2700886931</v>
+        <v>2827004.3608398438</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>2856130.4001557296</v>
+        <v>2663540.3696289063</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" si="1"/>
-        <v>-1475.6594407201953</v>
+        <v>-81731.99560546875</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" ref="H13:H36" si="10">F12+G12</f>
-        <v>2925386.1977231228</v>
+        <v>2971515.478515625</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="4"/>
-        <v>-364504.19772312278</v>
+        <v>-410633.478515625</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" ref="J13:J36" si="11">ABS(I13)</f>
-        <v>364504.19772312278</v>
+        <v>410633.478515625</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="6"/>
-        <v>132863310157.77739</v>
+        <v>168619853677.84225</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="7"/>
-        <v>0.14233541323775276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.16034845749067117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4677,42 +4681,42 @@
       </c>
       <c r="D14" s="28">
         <f t="shared" si="2"/>
-        <v>2871095.4016099903</v>
+        <v>2815762.1826171875</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" si="3"/>
-        <v>2881532.5832408229</v>
+        <v>2821383.2717285156</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2860658.2199791577</v>
+        <v>2810141.0935058594</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" si="1"/>
-        <v>-1159.68684787029</v>
+        <v>-5621.089111328125</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="10"/>
-        <v>2854654.7407150096</v>
+        <v>2581808.3740234375</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="4"/>
-        <v>31597.259284990374</v>
+        <v>304443.6259765625</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="11"/>
-        <v>31597.259284990374</v>
+        <v>304443.6259765625</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>998386794.32291043</v>
+        <v>92685921397.75708</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="7"/>
-        <v>1.0947505375480164E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.10548061152545325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4724,42 +4728,42 @@
       </c>
       <c r="D15" s="28">
         <f t="shared" si="2"/>
-        <v>2886936.761448991</v>
+        <v>2922635.5913085938</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="3"/>
-        <v>2882073.0010616397</v>
+        <v>2872009.4315185547</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>2891800.5218363423</v>
+        <v>2973261.7510986328</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" si="1"/>
-        <v>540.41782081680788</v>
+        <v>50626.159790039063</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="10"/>
-        <v>2859498.5331312874</v>
+        <v>2804520.0043945313</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="4"/>
-        <v>170010.46686871257</v>
+        <v>224988.99560546875</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="11"/>
-        <v>170010.46686871257</v>
+        <v>224988.99560546875</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>28903558844.917614</v>
+        <v>50620048143.55764</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="7"/>
-        <v>5.6118158707801354E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.4265828424826846E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4771,42 +4775,42 @@
       </c>
       <c r="D16" s="28">
         <f t="shared" si="2"/>
-        <v>2879907.7853040923</v>
+        <v>2869641.2956542969</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="3"/>
-        <v>2881856.4794858848</v>
+        <v>2870825.3635864258</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>2877959.0911222999</v>
+        <v>2868457.227722168</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" si="1"/>
-        <v>-216.52157575471534</v>
+        <v>-1184.0679321289063</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="10"/>
-        <v>2892340.9396571591</v>
+        <v>3023887.9108886719</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="4"/>
-        <v>-75693.93965715915</v>
+        <v>-207240.91088867188</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="11"/>
-        <v>75693.93965715915</v>
+        <v>207240.91088867188</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>5729572500.8216505</v>
+        <v>42948795145.966438</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="7"/>
-        <v>2.687377568334234E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.3577168487450453E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4818,42 +4822,42 @@
       </c>
       <c r="D17" s="28">
         <f t="shared" si="2"/>
-        <v>2877360.9067736831</v>
+        <v>2862040.1478271484</v>
       </c>
       <c r="E17" s="28">
         <f t="shared" si="3"/>
-        <v>2881406.922214665</v>
+        <v>2866432.7557067871</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2873314.8913327013</v>
+        <v>2857647.5399475098</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" si="1"/>
-        <v>-449.55727122020392</v>
+        <v>-4392.6078796386719</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="10"/>
-        <v>2877742.5695465454</v>
+        <v>2867273.1597900391</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="4"/>
-        <v>-23303.56954654539</v>
+        <v>-12834.159790039063</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="11"/>
-        <v>23303.56954654539</v>
+        <v>12834.159790039063</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>543056353.61067772</v>
+        <v>164715657.5162555</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="7"/>
-        <v>8.1639753193343389E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.4962109157137579E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4865,42 +4869,42 @@
       </c>
       <c r="D18" s="28">
         <f t="shared" si="2"/>
-        <v>2876271.4160963148</v>
+        <v>2864253.0739135742</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="3"/>
-        <v>2880893.37160283</v>
+        <v>2865342.9148101807</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>2871649.4605897996</v>
+        <v>2863163.2330169678</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" si="1"/>
-        <v>-513.55061183502482</v>
+        <v>-1089.8408966064453</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="10"/>
-        <v>2872865.3340614811</v>
+        <v>2853254.9320678711</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="4"/>
-        <v>-6399.3340614810586</v>
+        <v>13211.067932128906</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="11"/>
-        <v>6399.3340614810586</v>
+        <v>13211.067932128906</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>40951476.430431664</v>
+        <v>174532315.90732473</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="7"/>
-        <v>2.2324821091480097E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.6088346877754373E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4912,42 +4916,42 @@
       </c>
       <c r="D19" s="28">
         <f t="shared" si="2"/>
-        <v>2767518.4744866835</v>
+        <v>2326497.5369567871</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="3"/>
-        <v>2869555.8818912157</v>
+        <v>2595920.2258834839</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2665481.0670821513</v>
+        <v>2057074.8480300903</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" si="1"/>
-        <v>-11337.489711614689</v>
+        <v>-269422.68892669678</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="10"/>
-        <v>2871135.9099779646</v>
+        <v>2862073.3921203613</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="4"/>
-        <v>-1082393.9099779646</v>
+        <v>-1073331.3921203613</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="11"/>
-        <v>1082393.9099779646</v>
+        <v>1073331.3921203613</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>1171576576357.3862</v>
+        <v>1152040277311.033</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="7"/>
-        <v>0.60511460567145214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.60004818588726672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4959,42 +4963,42 @@
       </c>
       <c r="D20" s="28">
         <f t="shared" si="2"/>
-        <v>2756057.527038015</v>
+        <v>2489703.2684783936</v>
       </c>
       <c r="E20" s="28">
         <f t="shared" si="3"/>
-        <v>2858206.0464058956</v>
+        <v>2542811.7471809387</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>2653909.0076701343</v>
+        <v>2436594.7897758484</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" si="1"/>
-        <v>-11349.835485320073</v>
+        <v>-53108.478702545166</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="10"/>
-        <v>2654143.5773705365</v>
+        <v>1787652.1591033936</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="4"/>
-        <v>-1234.5773705365136</v>
+        <v>865256.84089660645</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="11"/>
-        <v>1234.5773705365136</v>
+        <v>865256.84089660645</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>1524181.2838408521</v>
+        <v>748669400718.37537</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="7"/>
-        <v>4.6536740255188311E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32615398451157068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5006,42 +5010,42 @@
       </c>
       <c r="D21" s="28">
         <f t="shared" si="2"/>
-        <v>2760800.7743342137</v>
+        <v>2646596.6342391968</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="3"/>
-        <v>2848465.5191987273</v>
+        <v>2594704.1907100677</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>2673136.0294697001</v>
+        <v>2698489.0777683258</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" si="1"/>
-        <v>-9740.5272071681811</v>
+        <v>51892.443529129028</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="10"/>
-        <v>2642559.1721848142</v>
+        <v>2383486.3110733032</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="4"/>
-        <v>160930.82781518577</v>
+        <v>420003.68892669678</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="11"/>
-        <v>160930.82781518577</v>
+        <v>420003.68892669678</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>25898731341.280968</v>
+        <v>176403098712.03348</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="7"/>
-        <v>5.7403745979185149E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14981458429553762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5053,42 +5057,42 @@
       </c>
       <c r="D22" s="28">
         <f t="shared" si="2"/>
-        <v>2778264.3969007926</v>
+        <v>2791016.8171195984</v>
       </c>
       <c r="E22" s="28">
         <f t="shared" si="3"/>
-        <v>2841445.4069689335</v>
+        <v>2692860.5039148331</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>2715083.3868326517</v>
+        <v>2889173.1303243637</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" si="1"/>
-        <v>-7020.1122297934362</v>
+        <v>98156.31320476532</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="10"/>
-        <v>2663395.5022625318</v>
+        <v>2750381.5212974548</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="4"/>
-        <v>272041.49773746822</v>
+        <v>185055.47870254517</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="11"/>
-        <v>272041.49773746822</v>
+        <v>185055.47870254517</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>74006576491.244934</v>
+        <v>34245530197.828148</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="7"/>
-        <v>9.2674956995318997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.3041883952047059E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5100,42 +5104,42 @@
       </c>
       <c r="D23" s="28">
         <f t="shared" si="2"/>
-        <v>2778958.7572107133</v>
+        <v>2788112.4085597992</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="3"/>
-        <v>2835196.7419931116</v>
+        <v>2740486.4562373161</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2722720.7724283151</v>
+        <v>2835738.3608822823</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" si="1"/>
-        <v>-6248.6649758220237</v>
+        <v>47625.952322483063</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="10"/>
-        <v>2708063.2746028583</v>
+        <v>2987329.443529129</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="4"/>
-        <v>77144.72539714165</v>
+        <v>-202121.44352912903</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="11"/>
-        <v>77144.72539714165</v>
+        <v>202121.44352912903</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>5951308656.6003923</v>
+        <v>40853077934.298897</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="7"/>
-        <v>2.7698012283873107E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2569604686303149E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5147,42 +5151,42 @@
       </c>
       <c r="D24" s="28">
         <f t="shared" si="2"/>
-        <v>2737541.881489642</v>
+        <v>2576451.2042798996</v>
       </c>
       <c r="E24" s="28">
         <f t="shared" si="3"/>
-        <v>2825431.2559427647</v>
+        <v>2658468.8302586079</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>2649652.5070365192</v>
+        <v>2494433.5783011913</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" si="1"/>
-        <v>-9765.4860503469699</v>
+        <v>-82017.625978708267</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="10"/>
-        <v>2716472.1074524932</v>
+        <v>2883364.3132047653</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="4"/>
-        <v>-351682.10745249316</v>
+        <v>-518574.31320476532</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="11"/>
-        <v>351682.10745249316</v>
+        <v>518574.31320476532</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>123680304702.22694</v>
+        <v>268919318315.79404</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="7"/>
-        <v>0.14871599907496783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.21928979452922473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5194,42 +5198,42 @@
       </c>
       <c r="D25" s="28">
         <f t="shared" si="2"/>
-        <v>2848843.393340678</v>
+        <v>3213504.1021399498</v>
       </c>
       <c r="E25" s="28">
         <f t="shared" si="3"/>
-        <v>2827772.4696825561</v>
+        <v>2935986.4661992788</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>2869914.3169987998</v>
+        <v>3491021.7380806208</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" si="1"/>
-        <v>2341.2137397913161</v>
+        <v>277517.63594067097</v>
       </c>
       <c r="H25" s="18">
         <f t="shared" si="10"/>
-        <v>2639887.0209861724</v>
+        <v>2412415.9523224831</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="4"/>
-        <v>1210669.9790138276</v>
+        <v>1438141.0476775169</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="11"/>
-        <v>1210669.9790138276</v>
+        <v>1438141.0476775169</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>1465721798085.3418</v>
+        <v>2068249673014.9861</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="7"/>
-        <v>0.31441424682554436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.37348909461086199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5241,42 +5245,42 @@
       </c>
       <c r="D26" s="28">
         <f t="shared" si="2"/>
-        <v>3418693.95400661</v>
+        <v>5880426.5510699749</v>
       </c>
       <c r="E26" s="28">
         <f t="shared" si="3"/>
-        <v>2886864.6181149618</v>
+        <v>4408206.5086346269</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>3950523.2898982582</v>
+        <v>7352646.5935053229</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" si="1"/>
-        <v>59092.14843240536</v>
+        <v>1472220.042435348</v>
       </c>
       <c r="H26" s="18">
         <f t="shared" si="10"/>
-        <v>2872255.5307385912</v>
+        <v>3768539.3740212917</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="4"/>
-        <v>5675093.4692614088</v>
+        <v>4778809.6259787083</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="11"/>
-        <v>5675093.4692614088</v>
+        <v>4778809.6259787083</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="6"/>
-        <v>32206685884853.492</v>
+        <v>22837021441346.762</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="7"/>
-        <v>0.66395948840528318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.55909845567072414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5288,42 +5292,42 @@
       </c>
       <c r="D27" s="28">
         <f t="shared" si="2"/>
-        <v>3738980.8586059492</v>
+        <v>6250994.7755349874</v>
       </c>
       <c r="E27" s="28">
         <f t="shared" si="3"/>
-        <v>2972076.2421640609</v>
+        <v>5329600.6420848072</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>4505885.4750478379</v>
+        <v>7172388.9089851677</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" si="1"/>
-        <v>85211.624049098697</v>
+        <v>921394.13345018029</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="10"/>
-        <v>4009615.4383306634</v>
+        <v>8824866.635940671</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="4"/>
-        <v>2611947.5616693366</v>
+        <v>-2203303.635940671</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="11"/>
-        <v>2611947.5616693366</v>
+        <v>2203303.635940671</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="6"/>
-        <v>6822270064910.3936</v>
+        <v>4854546912149.3809</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="7"/>
-        <v>0.39446087905066168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.33274676023480726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5335,42 +5339,42 @@
       </c>
       <c r="D28" s="28">
         <f t="shared" si="2"/>
-        <v>4021649.3727453547</v>
+        <v>6408330.3877674937</v>
       </c>
       <c r="E28" s="28">
         <f t="shared" si="3"/>
-        <v>3077033.5552221905</v>
+        <v>5868965.5149261504</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>4966265.1902685184</v>
+        <v>6947695.260608837</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" si="1"/>
-        <v>104957.31305812937</v>
+        <v>539364.87284134328</v>
       </c>
       <c r="H28" s="18">
         <f t="shared" si="10"/>
-        <v>4591097.0990969371</v>
+        <v>8093783.042435348</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="4"/>
-        <v>1974568.9009030629</v>
+        <v>-1528117.042435348</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="11"/>
-        <v>1974568.9009030629</v>
+        <v>1528117.042435348</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="6"/>
-        <v>3898922344413.5298</v>
+        <v>2335141695381.3555</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="7"/>
-        <v>0.30074160045653597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.232743645874668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5382,42 +5386,42 @@
       </c>
       <c r="D29" s="28">
         <f t="shared" si="2"/>
-        <v>4086022.8354708194</v>
+        <v>5536857.1938837469</v>
       </c>
       <c r="E29" s="28">
         <f t="shared" si="3"/>
-        <v>3177932.4832470533</v>
+        <v>5702911.3544049487</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>4994113.187694585</v>
+        <v>5370803.0333625451</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" si="1"/>
-        <v>100898.92802486289</v>
+        <v>-166054.16052120179</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" si="10"/>
-        <v>5071222.5033266479</v>
+        <v>7487060.1334501803</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="4"/>
-        <v>-405838.50332664791</v>
+        <v>-2821676.1334501803</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="11"/>
-        <v>405838.50332664791</v>
+        <v>2821676.1334501803</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="6"/>
-        <v>164704890782.4136</v>
+        <v>7961856202082.3594</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="7"/>
-        <v>8.6989303201333038E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.60481112239639445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5429,42 +5433,42 @@
       </c>
       <c r="D30" s="28">
         <f t="shared" si="2"/>
-        <v>3774955.5519237374</v>
+        <v>3256103.5969418734</v>
       </c>
       <c r="E30" s="28">
         <f t="shared" si="3"/>
-        <v>3237634.7901147217</v>
+        <v>4479507.475673411</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>4312276.3137327526</v>
+        <v>2032699.7182103358</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" si="1"/>
-        <v>59702.306867668412</v>
+        <v>-1223403.8787315376</v>
       </c>
       <c r="H30" s="18">
         <f t="shared" si="10"/>
-        <v>5095012.1157194478</v>
+        <v>5204748.8728413433</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="4"/>
-        <v>-4119662.1157194478</v>
+        <v>-4229398.8728413433</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="11"/>
-        <v>4119662.1157194478</v>
+        <v>4229398.8728413433</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="6"/>
-        <v>16971615947694.037</v>
+        <v>17887814825591.625</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="7"/>
-        <v>4.2237782495713825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.3362883814439366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5476,42 +5480,42 @@
       </c>
       <c r="D31" s="28">
         <f t="shared" si="2"/>
-        <v>3467846.5967313638</v>
+        <v>1979984.7984709367</v>
       </c>
       <c r="E31" s="28">
         <f t="shared" si="3"/>
-        <v>3260655.9707763856</v>
+        <v>3229746.1370721739</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3675037.222686342</v>
+        <v>730223.45986969955</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" si="1"/>
-        <v>23021.180661664243</v>
+        <v>-1249761.3386012372</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" si="10"/>
-        <v>4371978.620600421</v>
+        <v>809295.83947879821</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="4"/>
-        <v>-3668112.620600421</v>
+        <v>-105429.83947879821</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="11"/>
-        <v>3668112.620600421</v>
+        <v>105429.83947879821</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="6"/>
-        <v>13455050197408.088</v>
+        <v>11115451052.525158</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="7"/>
-        <v>5.211379183822519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14978680527088709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5523,42 +5527,42 @@
       </c>
       <c r="D32" s="28">
         <f t="shared" si="2"/>
-        <v>3191636.9370582276</v>
+        <v>1342867.3992354684</v>
       </c>
       <c r="E32" s="28">
         <f t="shared" si="3"/>
-        <v>3253754.0674045701</v>
+        <v>2286306.7681538211</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3129519.8067118851</v>
+        <v>399428.0303171156</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" si="1"/>
-        <v>-6901.9033718158289</v>
+        <v>-943439.36891835276</v>
       </c>
       <c r="H32" s="18">
         <f t="shared" si="10"/>
-        <v>3698058.4033480063</v>
+        <v>-519537.87873153761</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="4"/>
-        <v>-2992308.4033480063</v>
+        <v>1225287.8787315376</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="11"/>
-        <v>2992308.4033480063</v>
+        <v>1225287.8787315376</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="6"/>
-        <v>8953909580747.0957</v>
+        <v>1501330385766.4312</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="7"/>
-        <v>4.2398985523882482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.7361500229989906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5570,42 +5574,42 @@
       </c>
       <c r="D33" s="28">
         <f t="shared" si="2"/>
-        <v>3165788.8433524049</v>
+        <v>2138011.6996177342</v>
       </c>
       <c r="E33" s="28">
         <f t="shared" si="3"/>
-        <v>3244957.5449993536</v>
+        <v>2212159.2338857776</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>3086620.1417054562</v>
+        <v>2063864.1653496907</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" si="1"/>
-        <v>-8796.5224052165231</v>
+        <v>-74147.53426804347</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" si="10"/>
-        <v>3122617.9033400691</v>
+        <v>-544011.33860123716</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="4"/>
-        <v>-189461.90334006911</v>
+        <v>3477167.3386012372</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="11"/>
-        <v>189461.90334006911</v>
+        <v>3477167.3386012372</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="6"/>
-        <v>35895812817.241692</v>
+        <v>12090692700635.211</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="7"/>
-        <v>6.4593190181520904E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.1854696233685618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5617,42 +5621,42 @@
       </c>
       <c r="D34" s="28">
         <f t="shared" si="2"/>
-        <v>3196851.1590171647</v>
+        <v>2807211.8498088671</v>
       </c>
       <c r="E34" s="28">
         <f t="shared" si="3"/>
-        <v>3240146.906401135</v>
+        <v>2509685.5418473221</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3153555.4116331944</v>
+        <v>3104738.157770412</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>-4810.6385982189231</v>
+        <v>297526.30796154495</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" si="10"/>
-        <v>3077823.6193002397</v>
+        <v>1989716.6310816472</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="4"/>
-        <v>398588.38069976028</v>
+        <v>1486695.3689183528</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" si="11"/>
-        <v>398588.38069976028</v>
+        <v>1486695.3689183528</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="6"/>
-        <v>158872697228.85703</v>
+        <v>2210263119963.2769</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="7"/>
-        <v>0.11465510437190997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.42765223711066258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5664,42 +5668,42 @@
       </c>
       <c r="D35" s="28">
         <f t="shared" si="2"/>
-        <v>3186394.5431154482</v>
+        <v>2949748.4249044335</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" si="3"/>
-        <v>3234771.6700725667</v>
+        <v>2729716.9833758781</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>3138017.4161583297</v>
+        <v>3169779.866432989</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" si="1"/>
-        <v>-5375.2363285687243</v>
+        <v>220031.44152855547</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" si="10"/>
-        <v>3148744.7730349754</v>
+        <v>3402264.465731957</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="4"/>
-        <v>-56459.773034975398</v>
+        <v>-309979.465731957</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="11"/>
-        <v>56459.773034975398</v>
+        <v>309979.465731957</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="6"/>
-        <v>3187705971.1609349</v>
+        <v>96087269175.469498</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="7"/>
-        <v>1.8258269543387946E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.10024285139693043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5711,42 +5715,42 @@
       </c>
       <c r="D36" s="28">
         <f t="shared" si="2"/>
-        <v>3168527.5888039037</v>
+        <v>2978736.712452217</v>
       </c>
       <c r="E36" s="28">
         <f t="shared" si="3"/>
-        <v>3228147.2619457003</v>
+        <v>2854226.8479140475</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" si="0"/>
-        <v>3108907.9156621071</v>
+        <v>3103246.5769903865</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" si="1"/>
-        <v>-6624.4081268662903</v>
+        <v>124509.86453816947</v>
       </c>
       <c r="H36" s="18">
         <f t="shared" si="10"/>
-        <v>3132642.1798297609</v>
+        <v>3389811.3079615445</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="4"/>
-        <v>-124917.17982976092</v>
+        <v>-382086.30796154449</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="11"/>
-        <v>124917.17982976092</v>
+        <v>382086.30796154449</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="6"/>
-        <v>15604301816.620829</v>
+        <v>145989946731.6842</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="7"/>
-        <v>4.1532114747778112E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12703498756087889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5758,42 +5762,42 @@
       </c>
       <c r="D37" s="28">
         <f t="shared" ref="D37:D75" si="12">($O$1*C37)+(1-$O$1)*D36</f>
-        <v>3175160.1299235132</v>
+        <v>3106794.8562261085</v>
       </c>
       <c r="E37" s="28">
         <f t="shared" ref="E37:E75" si="13">($O$1*D37)+(1-$O$1)*E36</f>
-        <v>3222848.5487434817</v>
+        <v>2980510.8520700783</v>
       </c>
       <c r="F37" s="28">
         <f t="shared" ref="F37:F75" si="14">(2*D37)-E37</f>
-        <v>3127471.7111035446</v>
+        <v>3233078.8603821388</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ref="G37:G75" si="15">(($O$1)/(1-$O$1))*(D37-E37)</f>
-        <v>-5298.7132022187325</v>
+        <v>126284.00415603025</v>
       </c>
       <c r="H37" s="18">
         <f t="shared" ref="H37:H75" si="16">F36+G36</f>
-        <v>3102283.5075352406</v>
+        <v>3227756.4415285559</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" ref="I37:I75" si="17">C37-H37</f>
-        <v>132569.49246475939</v>
+        <v>7096.5584714440629</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" ref="J37:J75" si="18">ABS(I37)</f>
-        <v>132569.49246475939</v>
+        <v>7096.5584714440629</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" ref="K37:K75" si="19">(C37-H37)^2</f>
-        <v>17574670332.363895</v>
+        <v>50361142.138624497</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" ref="L37:L75" si="20">J37/C37*100%</f>
-        <v>4.0981612600250891E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.1937808213987045E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5805,42 +5809,42 @@
       </c>
       <c r="D38" s="28">
         <f t="shared" si="12"/>
-        <v>3307209.1169311618</v>
+        <v>3801222.4281130545</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="13"/>
-        <v>3231284.6055622497</v>
+        <v>3390866.6400915664</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="14"/>
-        <v>3383133.628300074</v>
+        <v>4211578.2161345426</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="15"/>
-        <v>8436.0568187680201</v>
+        <v>410355.78802148812</v>
       </c>
       <c r="H38" s="18">
         <f t="shared" si="16"/>
-        <v>3122172.997901326</v>
+        <v>3359362.864538169</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="17"/>
-        <v>1373477.002098674</v>
+        <v>1136287.135461831</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="18"/>
-        <v>1373477.002098674</v>
+        <v>1136287.135461831</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="19"/>
-        <v>1886439075293.9609</v>
+        <v>1291148454216.0535</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="20"/>
-        <v>0.30551244026974383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25275257981867605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5852,42 +5856,42 @@
       </c>
       <c r="D39" s="28">
         <f t="shared" si="12"/>
-        <v>3415208.7052380457</v>
+        <v>4094213.7140565272</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="13"/>
-        <v>3249677.0155298291</v>
+        <v>3742540.1770740468</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="14"/>
-        <v>3580740.3949462622</v>
+        <v>4445887.2510390077</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="15"/>
-        <v>18392.409967579621</v>
+        <v>351673.53698248044</v>
       </c>
       <c r="H39" s="18">
         <f t="shared" si="16"/>
-        <v>3391569.6851188419</v>
+        <v>4621934.0041560307</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="17"/>
-        <v>995635.31488115806</v>
+        <v>-234729.00415603071</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="18"/>
-        <v>995635.31488115806</v>
+        <v>234729.00415603071</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="19"/>
-        <v>991289680238.50281</v>
+        <v>55097705392.081886</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="20"/>
-        <v>0.22694068658317951</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.3503085485184919E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5899,42 +5903,42 @@
       </c>
       <c r="D40" s="28">
         <f t="shared" si="12"/>
-        <v>3562136.8347142413</v>
+        <v>4489351.8570282636</v>
       </c>
       <c r="E40" s="28">
         <f t="shared" si="13"/>
-        <v>3280922.9974482702</v>
+        <v>4115946.0170511552</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" si="14"/>
-        <v>3843350.6719802124</v>
+        <v>4862757.6970053725</v>
       </c>
       <c r="G40" s="28">
         <f t="shared" si="15"/>
-        <v>31245.981918441237</v>
+        <v>373405.83997710841</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" si="16"/>
-        <v>3599132.8049138417</v>
+        <v>4797560.7880214881</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="17"/>
-        <v>1285357.1950861583</v>
+        <v>86929.211978511885</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="18"/>
-        <v>1285357.1950861583</v>
+        <v>86929.211978511885</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="19"/>
-        <v>1652143118959.7566</v>
+        <v>7556687895.2050543</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="20"/>
-        <v>0.26315074758800988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.7796988422232801E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5946,42 +5950,42 @@
       </c>
       <c r="D41" s="28">
         <f t="shared" si="12"/>
-        <v>3696205.2512428174</v>
+        <v>4696086.4285141323</v>
       </c>
       <c r="E41" s="28">
         <f t="shared" si="13"/>
-        <v>3322451.2228277251</v>
+        <v>4406016.2227826435</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" si="14"/>
-        <v>4069959.2796579096</v>
+        <v>4986156.634245621</v>
       </c>
       <c r="G41" s="28">
         <f t="shared" si="15"/>
-        <v>41528.2253794547</v>
+        <v>290070.20573148876</v>
       </c>
       <c r="H41" s="18">
         <f t="shared" si="16"/>
-        <v>3874596.6538986536</v>
+        <v>5236163.5369824804</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="17"/>
-        <v>1028224.3461013464</v>
+        <v>-333342.53698248044</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="18"/>
-        <v>1028224.3461013464</v>
+        <v>333342.53698248044</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="19"/>
-        <v>1057245305915.5414</v>
+        <v>111117246961.91634</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="20"/>
-        <v>0.2097209639310402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7989946396672538E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5993,42 +5997,42 @@
       </c>
       <c r="D42" s="28">
         <f t="shared" si="12"/>
-        <v>3618204.0261185355</v>
+        <v>3806139.7142570661</v>
       </c>
       <c r="E42" s="28">
         <f t="shared" si="13"/>
-        <v>3352026.5031568063</v>
+        <v>4106077.9685198548</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" si="14"/>
-        <v>3884381.5490802648</v>
+        <v>3506201.4599942775</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" si="15"/>
-        <v>29575.280329081026</v>
+        <v>-299938.25426278869</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" si="16"/>
-        <v>4111487.5050373645</v>
+        <v>5276226.8399771098</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="17"/>
-        <v>-1195294.5050373645</v>
+        <v>-2360033.8399771098</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="18"/>
-        <v>1195294.5050373645</v>
+        <v>2360033.8399771098</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="19"/>
-        <v>1428728953772.5183</v>
+        <v>5569759725837.1025</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="20"/>
-        <v>0.40988182367811887</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.80928588744884511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6040,42 +6044,42 @@
       </c>
       <c r="D43" s="28">
         <f t="shared" si="12"/>
-        <v>3661748.3235066822</v>
+        <v>3929893.3571285331</v>
       </c>
       <c r="E43" s="28">
         <f t="shared" si="13"/>
-        <v>3382998.6851917943</v>
+        <v>4017985.6628241939</v>
       </c>
       <c r="F43" s="28">
         <f t="shared" si="14"/>
-        <v>3940497.9618215701</v>
+        <v>3841801.0514328722</v>
       </c>
       <c r="G43" s="28">
         <f t="shared" si="15"/>
-        <v>30972.182034987545</v>
+        <v>-88092.305695660878</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" si="16"/>
-        <v>3913956.829409346</v>
+        <v>3206263.2057314888</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="17"/>
-        <v>139690.17059065402</v>
+        <v>847383.79426851124</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="18"/>
-        <v>139690.17059065402</v>
+        <v>847383.79426851124</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="19"/>
-        <v>19513343759.646019</v>
+        <v>718059294788.89856</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="20"/>
-        <v>3.4460368796457613E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.20904232516262794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6087,42 +6091,42 @@
       </c>
       <c r="D44" s="28">
         <f t="shared" si="12"/>
-        <v>3729949.4911560141</v>
+        <v>4136826.6785642663</v>
       </c>
       <c r="E44" s="28">
         <f t="shared" si="13"/>
-        <v>3417693.7657882161</v>
+        <v>4077406.1706942301</v>
       </c>
       <c r="F44" s="28">
         <f t="shared" si="14"/>
-        <v>4042205.2165238122</v>
+        <v>4196247.1864343025</v>
       </c>
       <c r="G44" s="28">
         <f t="shared" si="15"/>
-        <v>34695.080596422005</v>
+        <v>59420.507870036177</v>
       </c>
       <c r="H44" s="18">
         <f t="shared" si="16"/>
-        <v>3971470.1438565576</v>
+        <v>3753708.7457372113</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="17"/>
-        <v>372289.85614344245</v>
+        <v>590051.25426278869</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="18"/>
-        <v>372289.85614344245</v>
+        <v>590051.25426278869</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="19"/>
-        <v>138599736987.30508</v>
+        <v>348160482657.09009</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="20"/>
-        <v>8.5706819930991232E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1358388249495342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6134,42 +6138,42 @@
       </c>
       <c r="D45" s="28">
         <f t="shared" si="12"/>
-        <v>3778590.4420404127</v>
+        <v>4176592.8392821332</v>
       </c>
       <c r="E45" s="28">
         <f t="shared" si="13"/>
-        <v>3453783.4334134362</v>
+        <v>4126999.5049881814</v>
       </c>
       <c r="F45" s="28">
         <f t="shared" si="14"/>
-        <v>4103397.4506673892</v>
+        <v>4226186.1735760849</v>
       </c>
       <c r="G45" s="28">
         <f t="shared" si="15"/>
-        <v>36089.667625219612</v>
+        <v>49593.334293951746</v>
       </c>
       <c r="H45" s="18">
         <f t="shared" si="16"/>
-        <v>4076900.297120234</v>
+        <v>4255667.6943043387</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="17"/>
-        <v>139458.702879766</v>
+        <v>-39308.694304338656</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="18"/>
-        <v>139458.702879766</v>
+        <v>39308.694304338656</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="19"/>
-        <v>19448729808.906853</v>
+        <v>1545173447.9119463</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="20"/>
-        <v>3.3075623513027709E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.3229002331961432E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6181,42 +6185,42 @@
       </c>
       <c r="D46" s="28">
         <f t="shared" si="12"/>
-        <v>3709770.9978363714</v>
+        <v>3633494.4196410663</v>
       </c>
       <c r="E46" s="28">
         <f t="shared" si="13"/>
-        <v>3479382.1898557297</v>
+        <v>3880246.9623146239</v>
       </c>
       <c r="F46" s="28">
         <f t="shared" si="14"/>
-        <v>3940159.8058170131</v>
+        <v>3386741.8769675088</v>
       </c>
       <c r="G46" s="28">
         <f t="shared" si="15"/>
-        <v>25598.756442293525</v>
+        <v>-246752.54267355753</v>
       </c>
       <c r="H46" s="18">
         <f t="shared" si="16"/>
-        <v>4139487.1182926088</v>
+        <v>4275779.5078700371</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="17"/>
-        <v>-1049091.1182926088</v>
+        <v>-1185383.5078700371</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="18"/>
-        <v>1049091.1182926088</v>
+        <v>1185383.5078700371</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="19"/>
-        <v>1100592174480.4365</v>
+        <v>1405134060730.2744</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="20"/>
-        <v>0.33946818410734703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.38357010165365124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6228,42 +6232,42 @@
       </c>
       <c r="D47" s="28">
         <f t="shared" si="12"/>
-        <v>3642828.2980527342</v>
+        <v>3336919.2098205332</v>
       </c>
       <c r="E47" s="28">
         <f t="shared" si="13"/>
-        <v>3495726.8006754303</v>
+        <v>3608583.0860675788</v>
       </c>
       <c r="F47" s="28">
         <f t="shared" si="14"/>
-        <v>3789929.7954300381</v>
+        <v>3065255.3335734876</v>
       </c>
       <c r="G47" s="28">
         <f t="shared" si="15"/>
-        <v>16344.610819700434</v>
+        <v>-271663.87624704558</v>
       </c>
       <c r="H47" s="18">
         <f t="shared" si="16"/>
-        <v>3965758.5622593067</v>
+        <v>3139989.3342939513</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="17"/>
-        <v>-925414.56225930667</v>
+        <v>-99645.33429395128</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="18"/>
-        <v>925414.56225930667</v>
+        <v>99645.33429395128</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="19"/>
-        <v>856392112041.58423</v>
+        <v>9929192646.5533028</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="20"/>
-        <v>0.30437824215263359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.2774361813647165E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6275,42 +6279,42 @@
       </c>
       <c r="D48" s="28">
         <f t="shared" si="12"/>
-        <v>3561809.4682474607</v>
+        <v>3084779.6049102666</v>
       </c>
       <c r="E48" s="28">
         <f t="shared" si="13"/>
-        <v>3502335.0674326336</v>
+        <v>3346681.3454889227</v>
       </c>
       <c r="F48" s="28">
         <f t="shared" si="14"/>
-        <v>3621283.8690622877</v>
+        <v>2822877.8643316105</v>
       </c>
       <c r="G48" s="28">
         <f t="shared" si="15"/>
-        <v>6608.2667572030077</v>
+        <v>-261901.74057865608</v>
       </c>
       <c r="H48" s="18">
         <f t="shared" si="16"/>
-        <v>3806274.4062497388</v>
+        <v>2793591.457326442</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="17"/>
-        <v>-973634.40624973876</v>
+        <v>39048.542673557997</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="18"/>
-        <v>973634.40624973876</v>
+        <v>39048.542673557997</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="19"/>
-        <v>947963957033.28137</v>
+        <v>1524788684.9286799</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="20"/>
-        <v>0.34371978304681811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.3785211913112149E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6322,42 +6326,42 @@
       </c>
       <c r="D49" s="28">
         <f t="shared" si="12"/>
-        <v>3485062.5214227145</v>
+        <v>2939559.8024551333</v>
       </c>
       <c r="E49" s="28">
         <f t="shared" si="13"/>
-        <v>3500607.8128316416</v>
+        <v>3143120.5739720277</v>
       </c>
       <c r="F49" s="28">
         <f t="shared" si="14"/>
-        <v>3469517.2300137873</v>
+        <v>2735999.0309382388</v>
       </c>
       <c r="G49" s="28">
         <f t="shared" si="15"/>
-        <v>-1727.254600991909</v>
+        <v>-203560.77151689446</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="16"/>
-        <v>3627892.1358194905</v>
+        <v>2560976.1237529544</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="17"/>
-        <v>-833552.13581949053</v>
+        <v>233363.87624704558</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="18"/>
-        <v>833552.13581949053</v>
+        <v>233363.87624704558</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="19"/>
-        <v>694809163129.23438</v>
+        <v>54458698737.04641</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="20"/>
-        <v>0.29830018387865848</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.3513057196706764E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6369,42 +6373,42 @@
       </c>
       <c r="D50" s="28">
         <f t="shared" si="12"/>
-        <v>3424616.8692804431</v>
+        <v>2910082.9012275664</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="13"/>
-        <v>3493008.7184765218</v>
+        <v>3026601.7375997971</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="14"/>
-        <v>3356225.0200843643</v>
+        <v>2793564.0648553357</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="15"/>
-        <v>-7599.0943551198588</v>
+        <v>-116518.83637223067</v>
       </c>
       <c r="H50" s="18">
         <f t="shared" si="16"/>
-        <v>3467789.9754127953</v>
+        <v>2532438.2594213444</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="17"/>
-        <v>-587183.97541279532</v>
+        <v>348167.74057865562</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="18"/>
-        <v>587183.97541279532</v>
+        <v>348167.74057865562</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="19"/>
-        <v>344785020981.57422</v>
+        <v>121220775579.64604</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" si="20"/>
-        <v>0.20384043337158755</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1208661443386064</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6416,42 +6420,42 @@
       </c>
       <c r="D51" s="28">
         <f t="shared" si="12"/>
-        <v>3332007.682352399</v>
+        <v>2704303.9506137832</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="13"/>
-        <v>3476908.61486411</v>
+        <v>2865452.8441067901</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="14"/>
-        <v>3187106.749840688</v>
+        <v>2543155.0571207763</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="15"/>
-        <v>-16100.103612412338</v>
+        <v>-161148.89349300694</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" si="16"/>
-        <v>3348625.9257292445</v>
+        <v>2677045.2284831051</v>
       </c>
       <c r="I51" s="9">
         <f t="shared" si="17"/>
-        <v>-850100.92572924448</v>
+        <v>-178520.22848310508</v>
       </c>
       <c r="J51" s="9">
         <f t="shared" si="18"/>
-        <v>850100.92572924448</v>
+        <v>178520.22848310508</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="19"/>
-        <v>722671583925.71838</v>
+        <v>31869471977.660042</v>
       </c>
       <c r="L51" s="9">
         <f t="shared" si="20"/>
-        <v>0.34024111254810119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.1450247038995038E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6463,42 +6467,42 @@
       </c>
       <c r="D52" s="28">
         <f t="shared" si="12"/>
-        <v>3287925.9141171593</v>
+        <v>2797746.9753068918</v>
       </c>
       <c r="E52" s="28">
         <f t="shared" si="13"/>
-        <v>3458010.3447894151</v>
+        <v>2831599.9097068412</v>
       </c>
       <c r="F52" s="28">
         <f t="shared" si="14"/>
-        <v>3117841.4834449035</v>
+        <v>2763894.0409069424</v>
       </c>
       <c r="G52" s="28">
         <f t="shared" si="15"/>
-        <v>-18898.27007469509</v>
+        <v>-33852.934399949387</v>
       </c>
       <c r="H52" s="18">
         <f t="shared" si="16"/>
-        <v>3171006.6462282757</v>
+        <v>2382006.1636277693</v>
       </c>
       <c r="I52" s="9">
         <f t="shared" si="17"/>
-        <v>-279816.64622827573</v>
+        <v>509183.83637223067</v>
       </c>
       <c r="J52" s="9">
         <f t="shared" si="18"/>
-        <v>279816.64622827573</v>
+        <v>509183.83637223067</v>
       </c>
       <c r="K52" s="9">
         <f t="shared" si="19"/>
-        <v>78297355506.440018</v>
+        <v>259268179222.74258</v>
       </c>
       <c r="L52" s="9">
         <f t="shared" si="20"/>
-        <v>9.6782517312343955E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17611566046238078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6510,42 +6514,42 @@
       </c>
       <c r="D53" s="28">
         <f t="shared" si="12"/>
-        <v>3254463.1227054433</v>
+        <v>2875522.4876534459</v>
       </c>
       <c r="E53" s="28">
         <f t="shared" si="13"/>
-        <v>3437655.6225810181</v>
+        <v>2853561.1986801438</v>
       </c>
       <c r="F53" s="28">
         <f t="shared" si="14"/>
-        <v>3071270.6228298685</v>
+        <v>2897483.776626748</v>
       </c>
       <c r="G53" s="28">
         <f t="shared" si="15"/>
-        <v>-20354.722208397205</v>
+        <v>21961.288973302115</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" si="16"/>
-        <v>3098943.2133702086</v>
+        <v>2730041.1065069931</v>
       </c>
       <c r="I53" s="9">
         <f t="shared" si="17"/>
-        <v>-145645.21337020863</v>
+        <v>223256.89349300694</v>
       </c>
       <c r="J53" s="9">
         <f t="shared" si="18"/>
-        <v>145645.21337020863</v>
+        <v>223256.89349300694</v>
       </c>
       <c r="K53" s="9">
         <f t="shared" si="19"/>
-        <v>21212528177.653599</v>
+        <v>49843640492.147842</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="20"/>
-        <v>4.9316125013530172E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.5595789349062276E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6557,42 +6561,42 @@
       </c>
       <c r="D54" s="28">
         <f t="shared" si="12"/>
-        <v>3178086.8104348988</v>
+        <v>2683111.2438267227</v>
       </c>
       <c r="E54" s="28">
         <f t="shared" si="13"/>
-        <v>3411698.7413664064</v>
+        <v>2768336.2212534333</v>
       </c>
       <c r="F54" s="28">
         <f t="shared" si="14"/>
-        <v>2944474.8795033912</v>
+        <v>2597886.2664000122</v>
       </c>
       <c r="G54" s="28">
         <f t="shared" si="15"/>
-        <v>-25956.88121461196</v>
+        <v>-85224.977426710539</v>
       </c>
       <c r="H54" s="18">
         <f t="shared" si="16"/>
-        <v>3050915.9006214715</v>
+        <v>2919445.0656000501</v>
       </c>
       <c r="I54" s="9">
         <f t="shared" si="17"/>
-        <v>-560215.90062147146</v>
+        <v>-428745.06560005015</v>
       </c>
       <c r="J54" s="9">
         <f t="shared" si="18"/>
-        <v>560215.90062147146</v>
+        <v>428745.06560005015</v>
       </c>
       <c r="K54" s="9">
         <f t="shared" si="19"/>
-        <v>313841855309.1264</v>
+        <v>183822331276.3913</v>
       </c>
       <c r="L54" s="9">
         <f t="shared" si="20"/>
-        <v>0.22492307408418175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17213838101740481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6604,42 +6608,42 @@
       </c>
       <c r="D55" s="28">
         <f t="shared" si="12"/>
-        <v>3130929.129391409</v>
+        <v>2694810.6219133614</v>
       </c>
       <c r="E55" s="28">
         <f t="shared" si="13"/>
-        <v>3383621.7801689068</v>
+        <v>2731573.4215833973</v>
       </c>
       <c r="F55" s="28">
         <f t="shared" si="14"/>
-        <v>2878236.4786139112</v>
+        <v>2658047.8222433254</v>
       </c>
       <c r="G55" s="28">
         <f t="shared" si="15"/>
-        <v>-28076.961197499757</v>
+        <v>-36762.799670035951</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" si="16"/>
-        <v>2918517.9982887791</v>
+        <v>2512661.2889733016</v>
       </c>
       <c r="I55" s="9">
         <f t="shared" si="17"/>
-        <v>-212007.99828877905</v>
+        <v>193848.71102669835</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="18"/>
-        <v>212007.99828877905</v>
+        <v>193848.71102669835</v>
       </c>
       <c r="K55" s="9">
         <f t="shared" si="19"/>
-        <v>44947391338.41494</v>
+        <v>37577322766.712402</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="20"/>
-        <v>7.8332612216019545E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.1623127580056359E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6651,42 +6655,42 @@
       </c>
       <c r="D56" s="28">
         <f t="shared" si="12"/>
-        <v>3102147.4164522681</v>
+        <v>2768961.3109566807</v>
       </c>
       <c r="E56" s="28">
         <f t="shared" si="13"/>
-        <v>3355474.3437972427</v>
+        <v>2750267.3662700392</v>
       </c>
       <c r="F56" s="28">
         <f t="shared" si="14"/>
-        <v>2848820.4891072935</v>
+        <v>2787655.2556433221</v>
       </c>
       <c r="G56" s="28">
         <f t="shared" si="15"/>
-        <v>-28147.436371663847</v>
+        <v>18693.944686641451</v>
       </c>
       <c r="H56" s="18">
         <f t="shared" si="16"/>
-        <v>2850159.5174164115</v>
+        <v>2621285.0225732895</v>
       </c>
       <c r="I56" s="9">
         <f t="shared" si="17"/>
-        <v>-7047.5174164115451</v>
+        <v>221826.97742671054</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="18"/>
-        <v>7047.5174164115451</v>
+        <v>221826.97742671054</v>
       </c>
       <c r="K56" s="9">
         <f t="shared" si="19"/>
-        <v>49667501.734624058</v>
+        <v>49207207914.270348</v>
       </c>
       <c r="L56" s="9">
         <f t="shared" si="20"/>
-        <v>2.4788040064589595E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.8022595461139252E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6698,42 +6702,42 @@
       </c>
       <c r="D57" s="28">
         <f t="shared" si="12"/>
-        <v>3077590.8748070416</v>
+        <v>2812771.6554783406</v>
       </c>
       <c r="E57" s="28">
         <f t="shared" si="13"/>
-        <v>3327685.9968982227</v>
+        <v>2781519.5108741899</v>
       </c>
       <c r="F57" s="28">
         <f t="shared" si="14"/>
-        <v>2827495.7527158605</v>
+        <v>2844023.8000824912</v>
       </c>
       <c r="G57" s="28">
         <f t="shared" si="15"/>
-        <v>-27788.346899020125</v>
+        <v>31252.144604150672</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" si="16"/>
-        <v>2820673.0527356295</v>
+        <v>2806349.2003299636</v>
       </c>
       <c r="I57" s="9">
         <f t="shared" si="17"/>
-        <v>35908.947264370508</v>
+        <v>50232.799670036417</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="18"/>
-        <v>35908.947264370508</v>
+        <v>50232.799670036417</v>
       </c>
       <c r="K57" s="9">
         <f t="shared" si="19"/>
-        <v>1289452493.6353421</v>
+        <v>2523334162.6900105</v>
       </c>
       <c r="L57" s="9">
         <f t="shared" si="20"/>
-        <v>1.2570599151143048E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.7584931806626385E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6745,42 +6749,42 @@
       </c>
       <c r="D58" s="28">
         <f t="shared" si="12"/>
-        <v>3070673.7873263373</v>
+        <v>2910595.8277391703</v>
       </c>
       <c r="E58" s="28">
         <f t="shared" si="13"/>
-        <v>3301984.7759410343</v>
+        <v>2846057.6693066801</v>
       </c>
       <c r="F58" s="28">
         <f t="shared" si="14"/>
-        <v>2839362.7987116403</v>
+        <v>2975133.9861716605</v>
       </c>
       <c r="G58" s="28">
         <f t="shared" si="15"/>
-        <v>-25701.220957188558</v>
+        <v>64538.158432490192</v>
       </c>
       <c r="H58" s="18">
         <f t="shared" si="16"/>
-        <v>2799707.4058168405</v>
+        <v>2875275.9446866419</v>
       </c>
       <c r="I58" s="9">
         <f t="shared" si="17"/>
-        <v>208712.59418315953</v>
+        <v>133144.05531335808</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="18"/>
-        <v>208712.59418315953</v>
+        <v>133144.05531335808</v>
       </c>
       <c r="K58" s="9">
         <f t="shared" si="19"/>
-        <v>43560946970.664238</v>
+        <v>17727339465.286556</v>
       </c>
       <c r="L58" s="9">
         <f t="shared" si="20"/>
-        <v>6.9376149002851842E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.4257136740667224E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6792,42 +6796,42 @@
       </c>
       <c r="D59" s="28">
         <f t="shared" si="12"/>
-        <v>3066386.3085937034</v>
+        <v>2969197.4138695849</v>
       </c>
       <c r="E59" s="28">
         <f t="shared" si="13"/>
-        <v>3278424.9292063015</v>
+        <v>2907627.5415881323</v>
       </c>
       <c r="F59" s="28">
         <f t="shared" si="14"/>
-        <v>2854347.6879811054</v>
+        <v>3030767.2861510376</v>
       </c>
       <c r="G59" s="28">
         <f t="shared" si="15"/>
-        <v>-23559.846734733117</v>
+        <v>61569.872281452641</v>
       </c>
       <c r="H59" s="18">
         <f t="shared" si="16"/>
-        <v>2813661.5777544519</v>
+        <v>3039672.1446041507</v>
       </c>
       <c r="I59" s="9">
         <f t="shared" si="17"/>
-        <v>214137.42224554811</v>
+        <v>-11873.144604150672</v>
       </c>
       <c r="J59" s="9">
         <f t="shared" si="18"/>
-        <v>214137.42224554811</v>
+        <v>11873.144604150672</v>
       </c>
       <c r="K59" s="9">
         <f t="shared" si="19"/>
-        <v>45854835605.968163</v>
+        <v>140971562.79107222</v>
       </c>
       <c r="L59" s="9">
         <f t="shared" si="20"/>
-        <v>7.0723790530860239E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.9213780717117196E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6839,42 +6843,42 @@
       </c>
       <c r="D60" s="28">
         <f t="shared" si="12"/>
-        <v>3022157.6777343331</v>
+        <v>2796648.7069347925</v>
       </c>
       <c r="E60" s="28">
         <f t="shared" si="13"/>
-        <v>3252798.2040591044</v>
+        <v>2852138.1242614621</v>
       </c>
       <c r="F60" s="28">
         <f t="shared" si="14"/>
-        <v>2791517.1514095617</v>
+        <v>2741159.2896081228</v>
       </c>
       <c r="G60" s="28">
         <f t="shared" si="15"/>
-        <v>-25626.725147196819</v>
+        <v>-55489.417326669674</v>
       </c>
       <c r="H60" s="18">
         <f t="shared" si="16"/>
-        <v>2830787.8412463721</v>
+        <v>3092337.1584324902</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="17"/>
-        <v>-206687.84124637209</v>
+        <v>-468237.15843249019</v>
       </c>
       <c r="J60" s="9">
         <f t="shared" si="18"/>
-        <v>206687.84124637209</v>
+        <v>468237.15843249019</v>
       </c>
       <c r="K60" s="9">
         <f t="shared" si="19"/>
-        <v>42719863719.08551</v>
+        <v>219246036536.93292</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="20"/>
-        <v>7.876523045858469E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17843723883712137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6886,42 +6890,42 @@
       </c>
       <c r="D61" s="28">
         <f t="shared" si="12"/>
-        <v>2997287.7099608998</v>
+        <v>2785053.3534673965</v>
       </c>
       <c r="E61" s="28">
         <f t="shared" si="13"/>
-        <v>3227247.1546492842</v>
+        <v>2818595.7388644293</v>
       </c>
       <c r="F61" s="28">
         <f t="shared" si="14"/>
-        <v>2767328.2652725154</v>
+        <v>2751510.9680703636</v>
       </c>
       <c r="G61" s="28">
         <f t="shared" si="15"/>
-        <v>-25551.049409820494</v>
+        <v>-33542.385397032835</v>
       </c>
       <c r="H61" s="18">
         <f t="shared" si="16"/>
-        <v>2765890.4262623647</v>
+        <v>2685669.8722814531</v>
       </c>
       <c r="I61" s="9">
         <f t="shared" si="17"/>
-        <v>7567.5737376352772</v>
+        <v>87788.127718546893</v>
       </c>
       <c r="J61" s="9">
         <f t="shared" si="18"/>
-        <v>7567.5737376352772</v>
+        <v>87788.127718546893</v>
       </c>
       <c r="K61" s="9">
         <f t="shared" si="19"/>
-        <v>57268172.27454716</v>
+        <v>7706755368.3279018</v>
       </c>
       <c r="L61" s="9">
         <f t="shared" si="20"/>
-        <v>2.7285697990145435E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.1652950114458879E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6933,42 +6937,42 @@
       </c>
       <c r="D62" s="28">
         <f t="shared" si="12"/>
-        <v>2982348.5389648098</v>
+        <v>2816474.6767336982</v>
       </c>
       <c r="E62" s="28">
         <f t="shared" si="13"/>
-        <v>3202757.293080837</v>
+        <v>2817535.207799064</v>
       </c>
       <c r="F62" s="28">
         <f t="shared" si="14"/>
-        <v>2761939.7848487827</v>
+        <v>2815414.1456683325</v>
       </c>
       <c r="G62" s="28">
         <f t="shared" si="15"/>
-        <v>-24489.861568447464</v>
+        <v>-1060.5310653657652</v>
       </c>
       <c r="H62" s="18">
         <f t="shared" si="16"/>
-        <v>2741777.2158626947</v>
+        <v>2717968.5826733308</v>
       </c>
       <c r="I62" s="9">
         <f t="shared" si="17"/>
-        <v>106118.78413730534</v>
+        <v>129927.41732666921</v>
       </c>
       <c r="J62" s="9">
         <f t="shared" si="18"/>
-        <v>106118.78413730534</v>
+        <v>129927.41732666921</v>
       </c>
       <c r="K62" s="9">
         <f t="shared" si="19"/>
-        <v>11261196346.780006</v>
+        <v>16881133773.178463</v>
       </c>
       <c r="L62" s="9">
         <f t="shared" si="20"/>
-        <v>3.7262169734184586E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.562224790746193E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6980,42 +6984,42 @@
       </c>
       <c r="D63" s="28">
         <f t="shared" si="12"/>
-        <v>2957196.5850683288</v>
+        <v>2773651.8383668493</v>
       </c>
       <c r="E63" s="28">
         <f t="shared" si="13"/>
-        <v>3178201.2222795864</v>
+        <v>2795593.5230829567</v>
       </c>
       <c r="F63" s="28">
         <f t="shared" si="14"/>
-        <v>2736191.9478570712</v>
+        <v>2751710.153650742</v>
       </c>
       <c r="G63" s="28">
         <f t="shared" si="15"/>
-        <v>-24556.070801250844</v>
+        <v>-21941.684716107324</v>
       </c>
       <c r="H63" s="18">
         <f t="shared" si="16"/>
-        <v>2737449.923280335</v>
+        <v>2814353.6146029667</v>
       </c>
       <c r="I63" s="9">
         <f t="shared" si="17"/>
-        <v>-6620.9232803350314</v>
+        <v>-83524.6146029667</v>
       </c>
       <c r="J63" s="9">
         <f t="shared" si="18"/>
-        <v>6620.9232803350314</v>
+        <v>83524.6146029667</v>
       </c>
       <c r="K63" s="9">
         <f t="shared" si="19"/>
-        <v>43836625.084082395</v>
+        <v>6976361244.5741177</v>
       </c>
       <c r="L63" s="9">
         <f t="shared" si="20"/>
-        <v>2.424510388726292E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.0585809145489043E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -7027,42 +7031,42 @@
       </c>
       <c r="D64" s="28">
         <f t="shared" si="12"/>
-        <v>2938052.8265614957</v>
+        <v>2769705.4191834247</v>
       </c>
       <c r="E64" s="28">
         <f t="shared" si="13"/>
-        <v>3154186.3827077774</v>
+        <v>2782649.4711331907</v>
       </c>
       <c r="F64" s="28">
         <f t="shared" si="14"/>
-        <v>2721919.2704152139</v>
+        <v>2756761.3672336587</v>
       </c>
       <c r="G64" s="28">
         <f t="shared" si="15"/>
-        <v>-24014.839571809087</v>
+        <v>-12944.051949765999</v>
       </c>
       <c r="H64" s="18">
         <f t="shared" si="16"/>
-        <v>2711635.8770558205</v>
+        <v>2729768.4689346347</v>
       </c>
       <c r="I64" s="9">
         <f t="shared" si="17"/>
-        <v>54123.122944179457</v>
+        <v>35990.5310653653</v>
       </c>
       <c r="J64" s="9">
         <f t="shared" si="18"/>
-        <v>54123.122944179457</v>
+        <v>35990.5310653653</v>
       </c>
       <c r="K64" s="9">
         <f t="shared" si="19"/>
-        <v>2929312437.2307649</v>
+        <v>1295318326.3670247</v>
       </c>
       <c r="L64" s="9">
         <f t="shared" si="20"/>
-        <v>1.9568994602993051E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.3012894856480734E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -7074,42 +7078,42 @@
       </c>
       <c r="D65" s="28">
         <f t="shared" si="12"/>
-        <v>2846331.9439053461</v>
+        <v>2395274.7095917123</v>
       </c>
       <c r="E65" s="28">
         <f t="shared" si="13"/>
-        <v>3123400.9388275342</v>
+        <v>2588962.0903624515</v>
       </c>
       <c r="F65" s="28">
         <f t="shared" si="14"/>
-        <v>2569262.948983158</v>
+        <v>2201587.3288209732</v>
       </c>
       <c r="G65" s="28">
         <f t="shared" si="15"/>
-        <v>-30785.443880243125</v>
+        <v>-193687.38077073917</v>
       </c>
       <c r="H65" s="18">
         <f t="shared" si="16"/>
-        <v>2697904.430843405</v>
+        <v>2743817.3152838927</v>
       </c>
       <c r="I65" s="9">
         <f t="shared" si="17"/>
-        <v>-677060.43084340496</v>
+        <v>-722973.31528389268</v>
       </c>
       <c r="J65" s="9">
         <f t="shared" si="18"/>
-        <v>677060.43084340496</v>
+        <v>722973.31528389268</v>
       </c>
       <c r="K65" s="9">
         <f t="shared" si="19"/>
-        <v>458410827013.85718</v>
+        <v>522690414612.58289</v>
       </c>
       <c r="L65" s="9">
         <f t="shared" si="20"/>
-        <v>0.33503844475051264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.35775810269565222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -7121,42 +7125,42 @@
       </c>
       <c r="D66" s="28">
         <f t="shared" si="12"/>
-        <v>2829979.1495148116</v>
+        <v>2539039.3547958564</v>
       </c>
       <c r="E66" s="28">
         <f t="shared" si="13"/>
-        <v>3094058.7598962616</v>
+        <v>2564000.7225791542</v>
       </c>
       <c r="F66" s="28">
         <f t="shared" si="14"/>
-        <v>2565899.5391333615</v>
+        <v>2514077.9870125586</v>
       </c>
       <c r="G66" s="28">
         <f t="shared" si="15"/>
-        <v>-29342.178931272229</v>
+        <v>-24961.367783297785</v>
       </c>
       <c r="H66" s="18">
         <f t="shared" si="16"/>
-        <v>2538477.5051029148</v>
+        <v>2007899.948050234</v>
       </c>
       <c r="I66" s="9">
         <f t="shared" si="17"/>
-        <v>144326.49489708524</v>
+        <v>674904.051949766</v>
       </c>
       <c r="J66" s="9">
         <f t="shared" si="18"/>
-        <v>144326.49489708524</v>
+        <v>674904.051949766</v>
       </c>
       <c r="K66" s="9">
         <f t="shared" si="19"/>
-        <v>20830137129.278374</v>
+        <v>455495479338.21246</v>
       </c>
       <c r="L66" s="9">
         <f t="shared" si="20"/>
-        <v>5.3796883744427565E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25156666381508525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -7168,42 +7172,42 @@
       </c>
       <c r="D67" s="28">
         <f t="shared" si="12"/>
-        <v>2816697.7345633307</v>
+        <v>2618102.1773979282</v>
       </c>
       <c r="E67" s="28">
         <f t="shared" si="13"/>
-        <v>3066322.6573629687</v>
+        <v>2591051.4499885412</v>
       </c>
       <c r="F67" s="28">
         <f t="shared" si="14"/>
-        <v>2567072.8117636926</v>
+        <v>2645152.9048073152</v>
       </c>
       <c r="G67" s="28">
         <f t="shared" si="15"/>
-        <v>-27736.102533293113</v>
+        <v>27050.727409387007</v>
       </c>
       <c r="H67" s="18">
         <f t="shared" si="16"/>
-        <v>2536557.3602020894</v>
+        <v>2489116.6192292608</v>
       </c>
       <c r="I67" s="9">
         <f t="shared" si="17"/>
-        <v>160607.63979791058</v>
+        <v>208048.38077073917</v>
       </c>
       <c r="J67" s="9">
         <f t="shared" si="18"/>
-        <v>160607.63979791058</v>
+        <v>208048.38077073917</v>
       </c>
       <c r="K67" s="9">
         <f t="shared" si="19"/>
-        <v>25794813961.455391</v>
+        <v>43284128741.326469</v>
       </c>
       <c r="L67" s="9">
         <f t="shared" si="20"/>
-        <v>5.954683521323708E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7135948587030892E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -7215,42 +7219,42 @@
       </c>
       <c r="D68" s="28">
         <f t="shared" si="12"/>
-        <v>2801620.4611069974</v>
+        <v>2642013.5886989641</v>
       </c>
       <c r="E68" s="28">
         <f t="shared" si="13"/>
-        <v>3039852.4377373718</v>
+        <v>2616532.5193437524</v>
       </c>
       <c r="F68" s="28">
         <f t="shared" si="14"/>
-        <v>2563388.4844766231</v>
+        <v>2667494.6580541758</v>
       </c>
       <c r="G68" s="28">
         <f t="shared" si="15"/>
-        <v>-26470.21962559715</v>
+        <v>25481.069355211686</v>
       </c>
       <c r="H68" s="18">
         <f t="shared" si="16"/>
-        <v>2539336.7092303997</v>
+        <v>2672203.6322167022</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="17"/>
-        <v>126588.29076960031</v>
+        <v>-6278.6322167022154</v>
       </c>
       <c r="J68" s="9">
         <f t="shared" si="18"/>
-        <v>126588.29076960031</v>
+        <v>6278.6322167022154</v>
       </c>
       <c r="K68" s="9">
         <f t="shared" si="19"/>
-        <v>16024595359.968874</v>
+        <v>39421222.512610972</v>
       </c>
       <c r="L68" s="9">
         <f t="shared" si="20"/>
-        <v>4.7483815474779041E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.3551421051613286E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -7262,42 +7266,42 @@
       </c>
       <c r="D69" s="28">
         <f t="shared" si="12"/>
-        <v>2794235.1149962978</v>
+        <v>2684890.2943494823</v>
       </c>
       <c r="E69" s="28">
         <f t="shared" si="13"/>
-        <v>3015290.7054632646</v>
+        <v>2650711.4068466173</v>
       </c>
       <c r="F69" s="28">
         <f t="shared" si="14"/>
-        <v>2573179.5245293309</v>
+        <v>2719069.1818523472</v>
       </c>
       <c r="G69" s="28">
         <f t="shared" si="15"/>
-        <v>-24561.732274107431</v>
+        <v>34178.887502864935</v>
       </c>
       <c r="H69" s="18">
         <f t="shared" si="16"/>
-        <v>2536918.2648510258</v>
+        <v>2692975.7274093875</v>
       </c>
       <c r="I69" s="9">
         <f t="shared" si="17"/>
-        <v>190848.73514897423</v>
+        <v>34791.272590612527</v>
       </c>
       <c r="J69" s="9">
         <f t="shared" si="18"/>
-        <v>190848.73514897423</v>
+        <v>34791.272590612527</v>
       </c>
       <c r="K69" s="9">
         <f t="shared" si="19"/>
-        <v>36423239707.96331</v>
+        <v>1210432648.4743066</v>
       </c>
       <c r="L69" s="9">
         <f t="shared" si="20"/>
-        <v>6.9965189530108038E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.2754488411441493E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -7309,42 +7313,42 @@
       </c>
       <c r="D70" s="28">
         <f t="shared" si="12"/>
-        <v>2779006.203496668</v>
+        <v>2663418.1471747411</v>
       </c>
       <c r="E70" s="28">
         <f t="shared" si="13"/>
-        <v>2991662.2552666049</v>
+        <v>2657064.7770106792</v>
       </c>
       <c r="F70" s="28">
         <f t="shared" si="14"/>
-        <v>2566350.1517267311</v>
+        <v>2669771.517338803</v>
       </c>
       <c r="G70" s="28">
         <f t="shared" si="15"/>
-        <v>-23628.450196659658</v>
+        <v>6353.3701640618965</v>
       </c>
       <c r="H70" s="18">
         <f t="shared" si="16"/>
-        <v>2548617.7922552233</v>
+        <v>2753248.0693552122</v>
       </c>
       <c r="I70" s="9">
         <f t="shared" si="17"/>
-        <v>93328.207744776737</v>
+        <v>-111302.06935521215</v>
       </c>
       <c r="J70" s="9">
         <f t="shared" si="18"/>
-        <v>93328.207744776737</v>
+        <v>111302.06935521215</v>
       </c>
       <c r="K70" s="9">
         <f t="shared" si="19"/>
-        <v>8710154360.8522053</v>
+        <v>12388150642.752457</v>
       </c>
       <c r="L70" s="9">
         <f t="shared" si="20"/>
-        <v>3.5325554627072896E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.2128820708376383E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -7356,42 +7360,42 @@
       </c>
       <c r="D71" s="28">
         <f t="shared" si="12"/>
-        <v>2772847.9831470014</v>
+        <v>2690421.0735873706</v>
       </c>
       <c r="E71" s="28">
         <f t="shared" si="13"/>
-        <v>2969780.8280546451</v>
+        <v>2673742.9252990251</v>
       </c>
       <c r="F71" s="28">
         <f t="shared" si="14"/>
-        <v>2575915.1382393576</v>
+        <v>2707099.221875716</v>
       </c>
       <c r="G71" s="28">
         <f t="shared" si="15"/>
-        <v>-21881.427211960417</v>
+        <v>16678.14828834543</v>
       </c>
       <c r="H71" s="18">
         <f t="shared" si="16"/>
-        <v>2542721.7015300714</v>
+        <v>2676124.8875028649</v>
       </c>
       <c r="I71" s="9">
         <f t="shared" si="17"/>
-        <v>174702.29846992856</v>
+        <v>41299.112497135065</v>
       </c>
       <c r="J71" s="9">
         <f t="shared" si="18"/>
-        <v>174702.29846992856</v>
+        <v>41299.112497135065</v>
       </c>
       <c r="K71" s="9">
         <f t="shared" si="19"/>
-        <v>30520893090.676003</v>
+        <v>1705616693.0510178</v>
       </c>
       <c r="L71" s="9">
         <f t="shared" si="20"/>
-        <v>6.4289672303596557E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.5197890537926752E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -7403,42 +7407,42 @@
       </c>
       <c r="D72" s="28">
         <f t="shared" si="12"/>
-        <v>2757022.4848323013</v>
+        <v>2652507.0367936855</v>
       </c>
       <c r="E72" s="28">
         <f t="shared" si="13"/>
-        <v>2948504.9937324105</v>
+        <v>2663124.9810463553</v>
       </c>
       <c r="F72" s="28">
         <f t="shared" si="14"/>
-        <v>2565539.9759321921</v>
+        <v>2641889.0925410157</v>
       </c>
       <c r="G72" s="28">
         <f t="shared" si="15"/>
-        <v>-21275.834322234357</v>
+        <v>-10617.944252669811</v>
       </c>
       <c r="H72" s="18">
         <f t="shared" si="16"/>
-        <v>2554033.7110273973</v>
+        <v>2723777.3701640614</v>
       </c>
       <c r="I72" s="9">
         <f t="shared" si="17"/>
-        <v>60559.288972602692</v>
+        <v>-109184.37016406143</v>
       </c>
       <c r="J72" s="9">
         <f t="shared" si="18"/>
-        <v>60559.288972602692</v>
+        <v>109184.37016406143</v>
       </c>
       <c r="K72" s="9">
         <f t="shared" si="19"/>
-        <v>3667427480.867198</v>
+        <v>11921226688.122787</v>
       </c>
       <c r="L72" s="9">
         <f t="shared" si="20"/>
-        <v>2.316203285658712E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.1759604712496907E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -7450,42 +7454,42 @@
       </c>
       <c r="D73" s="28">
         <f t="shared" si="12"/>
-        <v>2683595.7363490714</v>
+        <v>2337631.0183968428</v>
       </c>
       <c r="E73" s="28">
         <f t="shared" si="13"/>
-        <v>2922014.0679940768</v>
+        <v>2500377.9997215988</v>
       </c>
       <c r="F73" s="28">
         <f t="shared" si="14"/>
-        <v>2445177.404704066</v>
+        <v>2174884.0370720867</v>
       </c>
       <c r="G73" s="28">
         <f t="shared" si="15"/>
-        <v>-26490.925738333932</v>
+        <v>-162746.98132475605</v>
       </c>
       <c r="H73" s="18">
         <f t="shared" si="16"/>
-        <v>2544264.1416099579</v>
+        <v>2631271.1482883459</v>
       </c>
       <c r="I73" s="9">
         <f t="shared" si="17"/>
-        <v>-521509.14160995791</v>
+        <v>-608516.1482883459</v>
       </c>
       <c r="J73" s="9">
         <f t="shared" si="18"/>
-        <v>521509.14160995791</v>
+        <v>608516.1482883459</v>
       </c>
       <c r="K73" s="9">
         <f t="shared" si="19"/>
-        <v>271971784782.75513</v>
+        <v>370291902727.68414</v>
       </c>
       <c r="L73" s="9">
         <f t="shared" si="20"/>
-        <v>0.25782120998833663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.30083532028760079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7497,42 +7501,42 @@
       </c>
       <c r="D74" s="28">
         <f t="shared" si="12"/>
-        <v>2700025.7627141643</v>
+        <v>2592763.5091984216</v>
       </c>
       <c r="E74" s="28">
         <f t="shared" si="13"/>
-        <v>2899815.2374660857</v>
+        <v>2546570.7544600102</v>
       </c>
       <c r="F74" s="28">
         <f t="shared" si="14"/>
-        <v>2500236.287962243</v>
+        <v>2638956.263936833</v>
       </c>
       <c r="G74" s="28">
         <f t="shared" si="15"/>
-        <v>-22198.830527991264</v>
+        <v>46192.7547384114</v>
       </c>
       <c r="H74" s="18">
         <f t="shared" si="16"/>
-        <v>2418686.4789657323</v>
+        <v>2012137.0557473307</v>
       </c>
       <c r="I74" s="9">
         <f t="shared" si="17"/>
-        <v>429209.52103426773</v>
+        <v>835758.94425266935</v>
       </c>
       <c r="J74" s="9">
         <f t="shared" si="18"/>
-        <v>429209.52103426773</v>
+        <v>835758.94425266935</v>
       </c>
       <c r="K74" s="9">
         <f t="shared" si="19"/>
-        <v>184220812946.46552</v>
+        <v>698493012898.33643</v>
       </c>
       <c r="L74" s="9">
         <f t="shared" si="20"/>
-        <v>0.15071109374579258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.2934654019151926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7544,42 +7548,42 @@
       </c>
       <c r="D75" s="28">
         <f t="shared" si="12"/>
-        <v>2703106.0864427481</v>
+        <v>2661796.2545992108</v>
       </c>
       <c r="E75" s="28">
         <f t="shared" si="13"/>
-        <v>2880144.3223637524</v>
+        <v>2604183.5045296103</v>
       </c>
       <c r="F75" s="28">
         <f t="shared" si="14"/>
-        <v>2526067.8505217438</v>
+        <v>2719409.0046688113</v>
       </c>
       <c r="G75" s="28">
         <f t="shared" si="15"/>
-        <v>-19670.915102333816</v>
+        <v>57612.75006960053</v>
       </c>
       <c r="H75" s="18">
         <f t="shared" si="16"/>
-        <v>2478037.4574342519</v>
+        <v>2685149.0186752444</v>
       </c>
       <c r="I75" s="9">
         <f t="shared" si="17"/>
-        <v>252791.5425657481</v>
+        <v>45679.981324755587</v>
       </c>
       <c r="J75" s="9">
         <f t="shared" si="18"/>
-        <v>252791.5425657481</v>
+        <v>45679.981324755587</v>
       </c>
       <c r="K75" s="9">
         <f t="shared" si="19"/>
-        <v>63903563992.770432</v>
+        <v>2086660693.8300192</v>
       </c>
       <c r="L75" s="9">
         <f t="shared" si="20"/>
-        <v>9.2569524699550251E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.6727514364596095E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7591,42 +7595,42 @@
       </c>
       <c r="D76" s="28">
         <f t="shared" ref="D76:D89" si="21">($O$1*C76)+(1-$O$1)*D75</f>
-        <v>2709371.3777984735</v>
+        <v>2713777.6272996054</v>
       </c>
       <c r="E76" s="28">
         <f t="shared" ref="E76:E89" si="22">($O$1*D76)+(1-$O$1)*E75</f>
-        <v>2863067.0279072244</v>
+        <v>2658980.5659146076</v>
       </c>
       <c r="F76" s="28">
         <f t="shared" ref="F76:F89" si="23">(2*D76)-E76</f>
-        <v>2555675.7276897226</v>
+        <v>2768574.6886846032</v>
       </c>
       <c r="G76" s="28">
         <f t="shared" ref="G76:G89" si="24">(($O$1)/(1-$O$1))*(D76-E76)</f>
-        <v>-17077.294456527881</v>
+        <v>54797.061384997796</v>
       </c>
       <c r="H76" s="18">
         <f t="shared" ref="H76:H89" si="25">F75+G75</f>
-        <v>2506396.93541941</v>
+        <v>2777021.7547384119</v>
       </c>
       <c r="I76" s="9">
         <f t="shared" ref="I76:I89" si="26">C76-H76</f>
-        <v>259362.06458059</v>
+        <v>-11262.754738411866</v>
       </c>
       <c r="J76" s="9">
         <f t="shared" ref="J76:J89" si="27">ABS(I76)</f>
-        <v>259362.06458059</v>
+        <v>11262.754738411866</v>
       </c>
       <c r="K76" s="9">
         <f t="shared" ref="K76:K89" si="28">(C76-H76)^2</f>
-        <v>67268680543.506134</v>
+        <v>126849644.29761894</v>
       </c>
       <c r="L76" s="9">
         <f t="shared" ref="L76:L89" si="29">J76/C76*100%</f>
-        <v>9.3776089883677499E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.0722111863007102E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7638,39 +7642,39 @@
       </c>
       <c r="D77" s="28">
         <f t="shared" si="21"/>
-        <v>2640518.6400186261</v>
+        <v>2367310.8136498025</v>
       </c>
       <c r="E77" s="28">
         <f t="shared" si="22"/>
-        <v>2840812.1891183648</v>
+        <v>2513145.689782205</v>
       </c>
       <c r="F77" s="28">
         <f t="shared" si="23"/>
-        <v>2440225.0909188874</v>
+        <v>2221475.9375173999</v>
       </c>
       <c r="G77" s="28">
         <f t="shared" si="24"/>
-        <v>-22254.838788859859</v>
+        <v>-145834.87613240257</v>
       </c>
       <c r="H77" s="18">
         <f t="shared" si="25"/>
-        <v>2538598.4332331945</v>
+        <v>2823371.750069601</v>
       </c>
       <c r="I77" s="9">
         <f t="shared" si="26"/>
-        <v>-517754.43323319452</v>
+        <v>-802527.750069601</v>
       </c>
       <c r="J77" s="9">
         <f t="shared" si="27"/>
-        <v>517754.43323319452</v>
+        <v>802527.750069601</v>
       </c>
       <c r="K77" s="9">
         <f t="shared" si="28"/>
-        <v>268069653132.6265</v>
+        <v>644050789631.776</v>
       </c>
       <c r="L77" s="9">
         <f t="shared" si="29"/>
-        <v>0.25620702698139713</v>
+        <v>0.39712503788991182</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -7683,35 +7687,35 @@
       <c r="C78" s="34"/>
       <c r="D78" s="27">
         <f t="shared" si="21"/>
-        <v>2376466.7760167634</v>
+        <v>1183655.4068249012</v>
       </c>
       <c r="E78" s="27">
         <f t="shared" si="22"/>
-        <v>2794377.6478082049</v>
+        <v>1848400.5483035531</v>
       </c>
       <c r="F78" s="27">
         <f t="shared" si="23"/>
-        <v>1958555.904225322</v>
+        <v>518910.26534624933</v>
       </c>
       <c r="G78" s="27">
         <f t="shared" si="24"/>
-        <v>-46434.541310160166</v>
+        <v>-664745.1414786519</v>
       </c>
       <c r="H78" s="25">
         <f t="shared" si="25"/>
-        <v>2417970.2521300274</v>
+        <v>2075641.0613849973</v>
       </c>
       <c r="I78" s="25">
         <f t="shared" si="26"/>
-        <v>-2417970.2521300274</v>
+        <v>-2075641.0613849973</v>
       </c>
       <c r="J78" s="25">
         <f t="shared" si="27"/>
-        <v>2417970.2521300274</v>
+        <v>2075641.0613849973</v>
       </c>
       <c r="K78" s="25">
         <f t="shared" si="28"/>
-        <v>5846580140185.748</v>
+        <v>4308285815707.4385</v>
       </c>
       <c r="L78" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7728,35 +7732,35 @@
       <c r="C79" s="34"/>
       <c r="D79" s="27">
         <f t="shared" si="21"/>
-        <v>2138820.098415087</v>
+        <v>591827.70341245062</v>
       </c>
       <c r="E79" s="27">
         <f t="shared" si="22"/>
-        <v>2728821.8928688932</v>
+        <v>1220114.1258580019</v>
       </c>
       <c r="F79" s="27">
         <f t="shared" si="23"/>
-        <v>1548818.3039612807</v>
+        <v>-36458.719033100642</v>
       </c>
       <c r="G79" s="27">
         <f t="shared" si="24"/>
-        <v>-65555.75493931181</v>
+        <v>-628286.42244555126</v>
       </c>
       <c r="H79" s="25">
         <f t="shared" si="25"/>
-        <v>1912121.3629151618</v>
+        <v>-145834.87613240257</v>
       </c>
       <c r="I79" s="25">
         <f t="shared" si="26"/>
-        <v>-1912121.3629151618</v>
+        <v>145834.87613240257</v>
       </c>
       <c r="J79" s="25">
         <f t="shared" si="27"/>
-        <v>1912121.3629151618</v>
+        <v>145834.87613240257</v>
       </c>
       <c r="K79" s="25">
         <f t="shared" si="28"/>
-        <v>3656208106516.5356</v>
+        <v>21267811096.5532</v>
       </c>
       <c r="L79" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7773,35 +7777,35 @@
       <c r="C80" s="34"/>
       <c r="D80" s="27">
         <f t="shared" si="21"/>
-        <v>1924938.0885735783</v>
+        <v>295913.85170622531</v>
       </c>
       <c r="E80" s="27">
         <f t="shared" si="22"/>
-        <v>2648433.5124393618</v>
+        <v>758013.98878211365</v>
       </c>
       <c r="F80" s="27">
         <f t="shared" si="23"/>
-        <v>1201442.6647077948</v>
+        <v>-166186.28536966303</v>
       </c>
       <c r="G80" s="27">
         <f t="shared" si="24"/>
-        <v>-80388.380429531506</v>
+        <v>-462100.13707588834</v>
       </c>
       <c r="H80" s="25">
         <f t="shared" si="25"/>
-        <v>1483262.5490219689</v>
+        <v>-664745.1414786519</v>
       </c>
       <c r="I80" s="25">
         <f t="shared" si="26"/>
-        <v>-1483262.5490219689</v>
+        <v>664745.1414786519</v>
       </c>
       <c r="J80" s="25">
         <f t="shared" si="27"/>
-        <v>1483262.5490219689</v>
+        <v>664745.1414786519</v>
       </c>
       <c r="K80" s="25">
         <f t="shared" si="28"/>
-        <v>2200067789331.1484</v>
+        <v>441886103119.47296</v>
       </c>
       <c r="L80" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7818,35 +7822,35 @@
       <c r="C81" s="34"/>
       <c r="D81" s="27">
         <f t="shared" si="21"/>
-        <v>1732444.2797162205</v>
+        <v>147956.92585311265</v>
       </c>
       <c r="E81" s="27">
         <f t="shared" si="22"/>
-        <v>2556834.5891670478</v>
+        <v>452985.45731761318</v>
       </c>
       <c r="F81" s="27">
         <f t="shared" si="23"/>
-        <v>908053.97026539315</v>
+        <v>-157071.60561138787</v>
       </c>
       <c r="G81" s="27">
         <f t="shared" si="24"/>
-        <v>-91598.923272314147</v>
+        <v>-305028.53146450053</v>
       </c>
       <c r="H81" s="25">
         <f t="shared" si="25"/>
-        <v>1121054.2842782633</v>
+        <v>-628286.42244555138</v>
       </c>
       <c r="I81" s="25">
         <f t="shared" si="26"/>
-        <v>-1121054.2842782633</v>
+        <v>628286.42244555138</v>
       </c>
       <c r="J81" s="25">
         <f t="shared" si="27"/>
-        <v>1121054.2842782633</v>
+        <v>628286.42244555138</v>
       </c>
       <c r="K81" s="25">
         <f t="shared" si="28"/>
-        <v>1256762708298.6492</v>
+        <v>394743828629.42987</v>
       </c>
       <c r="L81" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7863,35 +7867,35 @@
       <c r="C82" s="34"/>
       <c r="D82" s="27">
         <f t="shared" si="21"/>
-        <v>1559199.8517445985</v>
+        <v>73978.462926556327</v>
       </c>
       <c r="E82" s="27">
         <f t="shared" si="22"/>
-        <v>2457071.115424803</v>
+        <v>263481.96012208477</v>
       </c>
       <c r="F82" s="27">
         <f t="shared" si="23"/>
-        <v>661328.58806439396</v>
+        <v>-115525.03426897211</v>
       </c>
       <c r="G82" s="27">
         <f t="shared" si="24"/>
-        <v>-99763.473742244954</v>
+        <v>-189503.49719552844</v>
       </c>
       <c r="H82" s="25">
         <f t="shared" si="25"/>
-        <v>816455.04699307901</v>
+        <v>-462100.1370758884</v>
       </c>
       <c r="I82" s="25">
         <f t="shared" si="26"/>
-        <v>-816455.04699307901</v>
+        <v>462100.1370758884</v>
       </c>
       <c r="J82" s="25">
         <f t="shared" si="27"/>
-        <v>816455.04699307901</v>
+        <v>462100.1370758884</v>
       </c>
       <c r="K82" s="25">
         <f t="shared" si="28"/>
-        <v>666598843760.47083</v>
+        <v>213536536685.55484</v>
       </c>
       <c r="L82" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7908,35 +7912,35 @@
       <c r="C83" s="34"/>
       <c r="D83" s="27">
         <f t="shared" si="21"/>
-        <v>1403279.8665701386</v>
+        <v>36989.231463278164</v>
       </c>
       <c r="E83" s="27">
         <f t="shared" si="22"/>
-        <v>2351691.9905393366</v>
+        <v>150235.59579268147</v>
       </c>
       <c r="F83" s="27">
         <f t="shared" si="23"/>
-        <v>454867.74260094063</v>
+        <v>-76257.132866125146</v>
       </c>
       <c r="G83" s="27">
         <f t="shared" si="24"/>
-        <v>-105379.12488546644</v>
+        <v>-113246.36432940331</v>
       </c>
       <c r="H83" s="25">
         <f t="shared" si="25"/>
-        <v>561565.11432214896</v>
+        <v>-305028.53146450059</v>
       </c>
       <c r="I83" s="25">
         <f t="shared" si="26"/>
-        <v>-561565.11432214896</v>
+        <v>305028.53146450059</v>
       </c>
       <c r="J83" s="25">
         <f t="shared" si="27"/>
-        <v>561565.11432214896</v>
+        <v>305028.53146450059</v>
       </c>
       <c r="K83" s="25">
         <f t="shared" si="28"/>
-        <v>315355377623.64825</v>
+        <v>93042405007.389816</v>
       </c>
       <c r="L83" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7953,35 +7957,35 @@
       <c r="C84" s="34"/>
       <c r="D84" s="27">
         <f t="shared" si="21"/>
-        <v>1262951.8799131247</v>
+        <v>18494.615731639082</v>
       </c>
       <c r="E84" s="27">
         <f t="shared" si="22"/>
-        <v>2242817.9794767154</v>
+        <v>84365.105762160281</v>
       </c>
       <c r="F84" s="27">
         <f t="shared" si="23"/>
-        <v>283085.780349534</v>
+        <v>-47375.874298882118</v>
       </c>
       <c r="G84" s="27">
         <f t="shared" si="24"/>
-        <v>-108874.0110626212</v>
+        <v>-65870.490030521207</v>
       </c>
       <c r="H84" s="25">
         <f t="shared" si="25"/>
-        <v>349488.61771547422</v>
+        <v>-189503.49719552847</v>
       </c>
       <c r="I84" s="25">
         <f t="shared" si="26"/>
-        <v>-349488.61771547422</v>
+        <v>189503.49719552847</v>
       </c>
       <c r="J84" s="25">
         <f t="shared" si="27"/>
-        <v>349488.61771547422</v>
+        <v>189503.49719552847</v>
       </c>
       <c r="K84" s="25">
         <f t="shared" si="28"/>
-        <v>122142293912.67288</v>
+        <v>35911575449.33567</v>
       </c>
       <c r="L84" s="26" t="e">
         <f t="shared" si="29"/>
@@ -7998,35 +8002,35 @@
       <c r="C85" s="34"/>
       <c r="D85" s="27">
         <f t="shared" si="21"/>
-        <v>1136656.6919218122</v>
+        <v>9247.3078658195409</v>
       </c>
       <c r="E85" s="27">
         <f t="shared" si="22"/>
-        <v>2132201.8507212251</v>
+        <v>46806.206813989913</v>
       </c>
       <c r="F85" s="27">
         <f t="shared" si="23"/>
-        <v>141111.53312239936</v>
+        <v>-28311.591082350831</v>
       </c>
       <c r="G85" s="27">
         <f t="shared" si="24"/>
-        <v>-110616.12875549032</v>
+        <v>-37558.898948170376</v>
       </c>
       <c r="H85" s="25">
         <f t="shared" si="25"/>
-        <v>174211.76928691281</v>
+        <v>-113246.36432940332</v>
       </c>
       <c r="I85" s="25">
         <f t="shared" si="26"/>
-        <v>-174211.76928691281</v>
+        <v>113246.36432940332</v>
       </c>
       <c r="J85" s="25">
         <f t="shared" si="27"/>
-        <v>174211.76928691281</v>
+        <v>113246.36432940332</v>
       </c>
       <c r="K85" s="25">
         <f t="shared" si="28"/>
-        <v>30349740558.076538</v>
+        <v>12824739033.827953</v>
       </c>
       <c r="L85" s="26" t="e">
         <f t="shared" si="29"/>
@@ -8043,35 +8047,35 @@
       <c r="C86" s="34"/>
       <c r="D86" s="27">
         <f t="shared" si="21"/>
-        <v>1022991.022729631</v>
+        <v>4623.6539329097704</v>
       </c>
       <c r="E86" s="27">
         <f t="shared" si="22"/>
-        <v>2021280.7679220659</v>
+        <v>25714.930373449843</v>
       </c>
       <c r="F86" s="27">
         <f t="shared" si="23"/>
-        <v>24701.277537196176</v>
+        <v>-16467.622507630302</v>
       </c>
       <c r="G86" s="27">
         <f t="shared" si="24"/>
-        <v>-110921.08279915944</v>
+        <v>-21091.276440540074</v>
       </c>
       <c r="H86" s="25">
         <f t="shared" si="25"/>
-        <v>30495.404366909032</v>
+        <v>-65870.490030521207</v>
       </c>
       <c r="I86" s="25">
         <f t="shared" si="26"/>
-        <v>-30495.404366909032</v>
+        <v>65870.490030521207</v>
       </c>
       <c r="J86" s="25">
         <f t="shared" si="27"/>
-        <v>30495.404366909032</v>
+        <v>65870.490030521207</v>
       </c>
       <c r="K86" s="25">
         <f t="shared" si="28"/>
-        <v>929969687.50129437</v>
+        <v>4338921456.8609934</v>
       </c>
       <c r="L86" s="26" t="e">
         <f t="shared" si="29"/>
@@ -8088,35 +8092,35 @@
       <c r="C87" s="34"/>
       <c r="D87" s="27">
         <f t="shared" si="21"/>
-        <v>920691.92045666801</v>
+        <v>2311.8269664548852</v>
       </c>
       <c r="E87" s="27">
         <f t="shared" si="22"/>
-        <v>1911221.883175526</v>
+        <v>14013.378669952364</v>
       </c>
       <c r="F87" s="27">
         <f t="shared" si="23"/>
-        <v>-69838.042262190022</v>
+        <v>-9389.7247370425939</v>
       </c>
       <c r="G87" s="27">
         <f t="shared" si="24"/>
-        <v>-110058.88474653978</v>
+        <v>-11701.55170349748</v>
       </c>
       <c r="H87" s="25">
         <f t="shared" si="25"/>
-        <v>-86219.805261963265</v>
+        <v>-37558.898948170376</v>
       </c>
       <c r="I87" s="25">
         <f t="shared" si="26"/>
-        <v>86219.805261963265</v>
+        <v>37558.898948170376</v>
       </c>
       <c r="J87" s="25">
         <f t="shared" si="27"/>
-        <v>86219.805261963265</v>
+        <v>37558.898948170376</v>
       </c>
       <c r="K87" s="25">
         <f t="shared" si="28"/>
-        <v>7433854819.4108686</v>
+        <v>1410670890.1988738</v>
       </c>
       <c r="L87" s="26" t="e">
         <f t="shared" si="29"/>
@@ -8133,35 +8137,35 @@
       <c r="C88" s="34"/>
       <c r="D88" s="27">
         <f t="shared" si="21"/>
-        <v>828622.72841100127</v>
+        <v>1155.9134832274426</v>
       </c>
       <c r="E88" s="27">
         <f t="shared" si="22"/>
-        <v>1802961.9676990735</v>
+        <v>7584.6460765899037</v>
       </c>
       <c r="F88" s="27">
         <f t="shared" si="23"/>
-        <v>-145716.51087707095</v>
+        <v>-5272.8191101350185</v>
       </c>
       <c r="G88" s="27">
         <f t="shared" si="24"/>
-        <v>-108259.91547645247</v>
+        <v>-6428.7325933624616</v>
       </c>
       <c r="H88" s="25">
         <f t="shared" si="25"/>
-        <v>-179896.92700872981</v>
+        <v>-21091.276440540074</v>
       </c>
       <c r="I88" s="25">
         <f t="shared" si="26"/>
-        <v>179896.92700872981</v>
+        <v>21091.276440540074</v>
       </c>
       <c r="J88" s="25">
         <f t="shared" si="27"/>
-        <v>179896.92700872981</v>
+        <v>21091.276440540074</v>
       </c>
       <c r="K88" s="25">
         <f t="shared" si="28"/>
-        <v>32362904347.184261</v>
+        <v>444841941.89128077</v>
       </c>
       <c r="L88" s="26" t="e">
         <f t="shared" si="29"/>
@@ -8178,35 +8182,35 @@
       <c r="C89" s="34"/>
       <c r="D89" s="27">
         <f t="shared" si="21"/>
-        <v>745760.45556990115</v>
+        <v>577.95674161372131</v>
       </c>
       <c r="E89" s="27">
         <f t="shared" si="22"/>
-        <v>1697241.8164861563</v>
+        <v>4081.3014091018126</v>
       </c>
       <c r="F89" s="27">
         <f t="shared" si="23"/>
-        <v>-205720.905346354</v>
+        <v>-2925.38792587437</v>
       </c>
       <c r="G89" s="27">
         <f t="shared" si="24"/>
-        <v>-105720.15121291725</v>
+        <v>-3503.3446674880915</v>
       </c>
       <c r="H89" s="25">
         <f t="shared" si="25"/>
-        <v>-253976.42635352342</v>
+        <v>-11701.55170349748</v>
       </c>
       <c r="I89" s="25">
         <f t="shared" si="26"/>
-        <v>253976.42635352342</v>
+        <v>11701.55170349748</v>
       </c>
       <c r="J89" s="25">
         <f t="shared" si="27"/>
-        <v>253976.42635352342</v>
+        <v>11701.55170349748</v>
       </c>
       <c r="K89" s="25">
         <f t="shared" si="28"/>
-        <v>64504025143.306709</v>
+        <v>136926312.26962477</v>
       </c>
       <c r="L89" s="26" t="e">
         <f t="shared" si="29"/>
@@ -8226,23 +8230,23 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11">
         <f t="shared" ref="H90:K90" si="30">SUM(H2:H77)</f>
-        <v>233554052.87888601</v>
+        <v>231911908.50452968</v>
       </c>
       <c r="I90" s="11">
         <f t="shared" si="30"/>
-        <v>-2225483.87888595</v>
+        <v>-583339.50452961447</v>
       </c>
       <c r="J90" s="11">
         <f t="shared" si="30"/>
-        <v>46216549.221911557</v>
+        <v>46709783.224530645</v>
       </c>
       <c r="K90" s="11">
         <f t="shared" si="30"/>
-        <v>101103240170542.31</v>
+        <v>92451205248322.063</v>
       </c>
       <c r="L90" s="23">
         <f>SUM(L2:L77)</f>
-        <v>23.437708908464629</v>
+        <v>18.274621389364487</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -8258,23 +8262,23 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13">
         <f t="shared" ref="H91:K91" si="31">AVERAGE(H2:H77)</f>
-        <v>3114054.0383851468</v>
+        <v>3092158.7800603956</v>
       </c>
       <c r="I91" s="13">
         <f t="shared" si="31"/>
-        <v>-29673.118385146001</v>
+        <v>-7777.8600603948598</v>
       </c>
       <c r="J91" s="13">
         <f t="shared" si="31"/>
-        <v>616220.6562921541</v>
+        <v>622797.10966040858</v>
       </c>
       <c r="K91" s="13">
         <f t="shared" si="31"/>
-        <v>1348043202273.8975</v>
+        <v>1232682736644.2942</v>
       </c>
       <c r="L91" s="14">
         <f>AVERAGE(L2:L77)</f>
-        <v>0.31250278544619503</v>
+        <v>0.24366161852485982</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -8781,7 +8785,7 @@
   </sheetPr>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
@@ -14221,4 +14225,3893 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572A8C30-01E8-4A21-A370-EDCF44CC1EC5}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:O113"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C2" s="38">
+        <v>8547349</v>
+      </c>
+      <c r="D2" s="28">
+        <v>5880426.5510699749</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4408206.5086346269</v>
+      </c>
+      <c r="F2" s="28">
+        <v>7352646.5935053229</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1472220.042435348</v>
+      </c>
+      <c r="H2" s="18">
+        <v>3768539.3740212917</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4778809.6259787083</v>
+      </c>
+      <c r="J2" s="9">
+        <v>4778809.6259787083</v>
+      </c>
+      <c r="K2" s="9">
+        <v>22837021441346.762</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.55909845567072414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43952</v>
+      </c>
+      <c r="C3" s="38">
+        <v>975350</v>
+      </c>
+      <c r="D3" s="28">
+        <v>3256103.5969418734</v>
+      </c>
+      <c r="E3" s="28">
+        <v>4479507.475673411</v>
+      </c>
+      <c r="F3" s="28">
+        <v>2032699.7182103358</v>
+      </c>
+      <c r="G3" s="28">
+        <v>-1223403.8787315376</v>
+      </c>
+      <c r="H3" s="18">
+        <v>5204748.8728413433</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-4229398.8728413433</v>
+      </c>
+      <c r="J3" s="9">
+        <v>4229398.8728413433</v>
+      </c>
+      <c r="K3" s="9">
+        <v>17887814825591.625</v>
+      </c>
+      <c r="L3" s="9">
+        <v>4.3362883814439366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44044</v>
+      </c>
+      <c r="C4" s="38">
+        <v>2933156</v>
+      </c>
+      <c r="D4" s="28">
+        <v>2138011.6996177342</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2212159.2338857776</v>
+      </c>
+      <c r="F4" s="28">
+        <v>2063864.1653496907</v>
+      </c>
+      <c r="G4" s="28">
+        <v>-74147.53426804347</v>
+      </c>
+      <c r="H4" s="18">
+        <v>-544011.33860123716</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3477167.3386012372</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3477167.3386012372</v>
+      </c>
+      <c r="K4" s="9">
+        <v>12090692700635.211</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.1854696233685618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
+        <v>43922</v>
+      </c>
+      <c r="C5" s="38">
+        <v>4665384</v>
+      </c>
+      <c r="D5" s="28">
+        <v>5536857.1938837469</v>
+      </c>
+      <c r="E5" s="28">
+        <v>5702911.3544049487</v>
+      </c>
+      <c r="F5" s="28">
+        <v>5370803.0333625451</v>
+      </c>
+      <c r="G5" s="28">
+        <v>-166054.16052120179</v>
+      </c>
+      <c r="H5" s="18">
+        <v>7487060.1334501803</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-2821676.1334501803</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2821676.1334501803</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7961856202082.3594</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.60481112239639445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44317</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2916193</v>
+      </c>
+      <c r="D6" s="28">
+        <v>3806139.7142570661</v>
+      </c>
+      <c r="E6" s="28">
+        <v>4106077.9685198548</v>
+      </c>
+      <c r="F6" s="28">
+        <v>3506201.4599942775</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-299938.25426278869</v>
+      </c>
+      <c r="H6" s="18">
+        <v>5276226.8399771098</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-2360033.8399771098</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2360033.8399771098</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5569759725837.1025</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.80928588744884511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43862</v>
+      </c>
+      <c r="C7" s="38">
+        <v>6621563</v>
+      </c>
+      <c r="D7" s="28">
+        <v>6250994.7755349874</v>
+      </c>
+      <c r="E7" s="28">
+        <v>5329600.6420848072</v>
+      </c>
+      <c r="F7" s="28">
+        <v>7172388.9089851677</v>
+      </c>
+      <c r="G7" s="28">
+        <v>921394.13345018029</v>
+      </c>
+      <c r="H7" s="18">
+        <v>8824866.635940671</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-2203303.635940671</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2203303.635940671</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4854546912149.3809</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.33274676023480726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45413</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="27">
+        <v>1183655.4068249012</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1848400.5483035531</v>
+      </c>
+      <c r="F8" s="27">
+        <v>518910.26534624933</v>
+      </c>
+      <c r="G8" s="27">
+        <v>-664745.1414786519</v>
+      </c>
+      <c r="H8" s="25">
+        <v>2075641.0613849973</v>
+      </c>
+      <c r="I8" s="25">
+        <v>-2075641.0613849973</v>
+      </c>
+      <c r="J8" s="25">
+        <v>2075641.0613849973</v>
+      </c>
+      <c r="K8" s="25">
+        <v>4308285815707.4385</v>
+      </c>
+      <c r="L8" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6">
+        <v>43891</v>
+      </c>
+      <c r="C9" s="38">
+        <v>6565666</v>
+      </c>
+      <c r="D9" s="28">
+        <v>6408330.3877674937</v>
+      </c>
+      <c r="E9" s="28">
+        <v>5868965.5149261504</v>
+      </c>
+      <c r="F9" s="28">
+        <v>6947695.260608837</v>
+      </c>
+      <c r="G9" s="28">
+        <v>539364.87284134328</v>
+      </c>
+      <c r="H9" s="18">
+        <v>8093783.042435348</v>
+      </c>
+      <c r="I9" s="9">
+        <v>-1528117.042435348</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1528117.042435348</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2335141695381.3555</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.232743645874668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44075</v>
+      </c>
+      <c r="C10" s="38">
+        <v>3476412</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2807211.8498088671</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2509685.5418473221</v>
+      </c>
+      <c r="F10" s="28">
+        <v>3104738.157770412</v>
+      </c>
+      <c r="G10" s="28">
+        <v>297526.30796154495</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1989716.6310816472</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1486695.3689183528</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1486695.3689183528</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2210263119963.2769</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.42765223711066258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43800</v>
+      </c>
+      <c r="C11" s="38">
+        <v>3850557</v>
+      </c>
+      <c r="D11" s="28">
+        <v>3213504.1021399498</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2935986.4661992788</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3491021.7380806208</v>
+      </c>
+      <c r="G11" s="28">
+        <v>277517.63594067097</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2412415.9523224831</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1438141.0476775169</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1438141.0476775169</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2068249673014.9861</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.37348909461086199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44013</v>
+      </c>
+      <c r="C12" s="38">
+        <v>705750</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1342867.3992354684</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2286306.7681538211</v>
+      </c>
+      <c r="F12" s="28">
+        <v>399428.0303171156</v>
+      </c>
+      <c r="G12" s="28">
+        <v>-943439.36891835276</v>
+      </c>
+      <c r="H12" s="18">
+        <v>-519537.87873153761</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1225287.8787315376</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1225287.8787315376</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1501330385766.4312</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1.7361500229989906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44440</v>
+      </c>
+      <c r="C13" s="38">
+        <v>3090396</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3633494.4196410663</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3880246.9623146239</v>
+      </c>
+      <c r="F13" s="28">
+        <v>3386741.8769675088</v>
+      </c>
+      <c r="G13" s="28">
+        <v>-246752.54267355753</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4275779.5078700371</v>
+      </c>
+      <c r="I13" s="9">
+        <v>-1185383.5078700371</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1185383.5078700371</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1405134060730.2744</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.38357010165365124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="38">
+        <v>4495650</v>
+      </c>
+      <c r="D14" s="28">
+        <v>3801222.4281130545</v>
+      </c>
+      <c r="E14" s="28">
+        <v>3390866.6400915664</v>
+      </c>
+      <c r="F14" s="28">
+        <v>4211578.2161345426</v>
+      </c>
+      <c r="G14" s="28">
+        <v>410355.78802148812</v>
+      </c>
+      <c r="H14" s="18">
+        <v>3359362.864538169</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1136287.135461831</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1136287.135461831</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1291148454216.0535</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.25275257981867605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43617</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1788742</v>
+      </c>
+      <c r="D15" s="28">
+        <v>2326497.5369567871</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2595920.2258834839</v>
+      </c>
+      <c r="F15" s="28">
+        <v>2057074.8480300903</v>
+      </c>
+      <c r="G15" s="28">
+        <v>-269422.68892669678</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2862073.3921203613</v>
+      </c>
+      <c r="I15" s="9">
+        <v>-1073331.3921203613</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1073331.3921203613</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1152040277311.033</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.60004818588726672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43160</v>
+      </c>
+      <c r="C16" s="38">
+        <v>3751325</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3274709</v>
+      </c>
+      <c r="E16" s="28">
+        <v>3048159.25</v>
+      </c>
+      <c r="F16" s="28">
+        <v>3501258.75</v>
+      </c>
+      <c r="G16" s="28">
+        <v>226549.75</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2751060</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1000265</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1000265</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1000530070225</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.26664311943113433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43647</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2652909</v>
+      </c>
+      <c r="D17" s="28">
+        <v>2489703.2684783936</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2542811.7471809387</v>
+      </c>
+      <c r="F17" s="28">
+        <v>2436594.7897758484</v>
+      </c>
+      <c r="G17" s="28">
+        <v>-53108.478702545166</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1787652.1591033936</v>
+      </c>
+      <c r="I17" s="9">
+        <v>865256.84089660645</v>
+      </c>
+      <c r="J17" s="9">
+        <v>865256.84089660645</v>
+      </c>
+      <c r="K17" s="9">
+        <v>748669400718.37537</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.32615398451157068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44348</v>
+      </c>
+      <c r="C18" s="38">
+        <v>4053647</v>
+      </c>
+      <c r="D18" s="28">
+        <v>3929893.3571285331</v>
+      </c>
+      <c r="E18" s="28">
+        <v>4017985.6628241939</v>
+      </c>
+      <c r="F18" s="28">
+        <v>3841801.0514328722</v>
+      </c>
+      <c r="G18" s="28">
+        <v>-88092.305695660878</v>
+      </c>
+      <c r="H18" s="18">
+        <v>3206263.2057314888</v>
+      </c>
+      <c r="I18" s="9">
+        <v>847383.79426851124</v>
+      </c>
+      <c r="J18" s="9">
+        <v>847383.79426851124</v>
+      </c>
+      <c r="K18" s="9">
+        <v>718059294788.89856</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.20904232516262794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6">
+        <v>43221</v>
+      </c>
+      <c r="C19" s="38">
+        <v>2733224</v>
+      </c>
+      <c r="D19" s="28">
+        <v>3022876.75</v>
+      </c>
+      <c r="E19" s="28">
+        <v>3101610.5625</v>
+      </c>
+      <c r="F19" s="28">
+        <v>2944142.9375</v>
+      </c>
+      <c r="G19" s="28">
+        <v>-78733.8125</v>
+      </c>
+      <c r="H19" s="18">
+        <v>3576899.75</v>
+      </c>
+      <c r="I19" s="9">
+        <v>-843675.75</v>
+      </c>
+      <c r="J19" s="9">
+        <v>843675.75</v>
+      </c>
+      <c r="K19" s="9">
+        <v>711788771138.0625</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.30867420672436652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45292</v>
+      </c>
+      <c r="C20" s="38">
+        <v>2847896</v>
+      </c>
+      <c r="D20" s="28">
+        <v>2592763.5091984216</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2546570.7544600102</v>
+      </c>
+      <c r="F20" s="28">
+        <v>2638956.263936833</v>
+      </c>
+      <c r="G20" s="28">
+        <v>46192.7547384114</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2012137.0557473307</v>
+      </c>
+      <c r="I20" s="9">
+        <v>835758.94425266935</v>
+      </c>
+      <c r="J20" s="9">
+        <v>835758.94425266935</v>
+      </c>
+      <c r="K20" s="9">
+        <v>698493012898.33643</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.2934654019151926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45383</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2020844</v>
+      </c>
+      <c r="D21" s="28">
+        <v>2367310.8136498025</v>
+      </c>
+      <c r="E21" s="28">
+        <v>2513145.689782205</v>
+      </c>
+      <c r="F21" s="28">
+        <v>2221475.9375173999</v>
+      </c>
+      <c r="G21" s="28">
+        <v>-145834.87613240257</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2823371.750069601</v>
+      </c>
+      <c r="I21" s="9">
+        <v>-802527.750069601</v>
+      </c>
+      <c r="J21" s="9">
+        <v>802527.750069601</v>
+      </c>
+      <c r="K21" s="9">
+        <v>644050789631.776</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.39712503788991182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>64</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C22" s="38">
+        <v>2020844</v>
+      </c>
+      <c r="D22" s="28">
+        <v>2395274.7095917123</v>
+      </c>
+      <c r="E22" s="28">
+        <v>2588962.0903624515</v>
+      </c>
+      <c r="F22" s="28">
+        <v>2201587.3288209732</v>
+      </c>
+      <c r="G22" s="28">
+        <v>-193687.38077073917</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2743817.3152838927</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-722973.31528389268</v>
+      </c>
+      <c r="J22" s="9">
+        <v>722973.31528389268</v>
+      </c>
+      <c r="K22" s="9">
+        <v>522690414612.58289</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.35775810269565222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45047</v>
+      </c>
+      <c r="C23" s="38">
+        <v>2682804</v>
+      </c>
+      <c r="D23" s="28">
+        <v>2539039.3547958564</v>
+      </c>
+      <c r="E23" s="28">
+        <v>2564000.7225791542</v>
+      </c>
+      <c r="F23" s="28">
+        <v>2514077.9870125586</v>
+      </c>
+      <c r="G23" s="28">
+        <v>-24961.367783297785</v>
+      </c>
+      <c r="H23" s="18">
+        <v>2007899.948050234</v>
+      </c>
+      <c r="I23" s="9">
+        <v>674904.051949766</v>
+      </c>
+      <c r="J23" s="9">
+        <v>674904.051949766</v>
+      </c>
+      <c r="K23" s="9">
+        <v>455495479338.21246</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.25156666381508525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>79</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45474</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="27">
+        <v>295913.85170622531</v>
+      </c>
+      <c r="E24" s="27">
+        <v>758013.98878211365</v>
+      </c>
+      <c r="F24" s="27">
+        <v>-166186.28536966303</v>
+      </c>
+      <c r="G24" s="27">
+        <v>-462100.13707588834</v>
+      </c>
+      <c r="H24" s="25">
+        <v>-664745.1414786519</v>
+      </c>
+      <c r="I24" s="25">
+        <v>664745.1414786519</v>
+      </c>
+      <c r="J24" s="25">
+        <v>664745.1414786519</v>
+      </c>
+      <c r="K24" s="25">
+        <v>441886103119.47296</v>
+      </c>
+      <c r="L24" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>80</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45505</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="27">
+        <v>147956.92585311265</v>
+      </c>
+      <c r="E25" s="27">
+        <v>452985.45731761318</v>
+      </c>
+      <c r="F25" s="27">
+        <v>-157071.60561138787</v>
+      </c>
+      <c r="G25" s="27">
+        <v>-305028.53146450053</v>
+      </c>
+      <c r="H25" s="25">
+        <v>-628286.42244555138</v>
+      </c>
+      <c r="I25" s="25">
+        <v>628286.42244555138</v>
+      </c>
+      <c r="J25" s="25">
+        <v>628286.42244555138</v>
+      </c>
+      <c r="K25" s="25">
+        <v>394743828629.42987</v>
+      </c>
+      <c r="L25" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45261</v>
+      </c>
+      <c r="C26" s="38">
+        <v>2022755</v>
+      </c>
+      <c r="D26" s="28">
+        <v>2337631.0183968428</v>
+      </c>
+      <c r="E26" s="28">
+        <v>2500377.9997215988</v>
+      </c>
+      <c r="F26" s="28">
+        <v>2174884.0370720867</v>
+      </c>
+      <c r="G26" s="28">
+        <v>-162746.98132475605</v>
+      </c>
+      <c r="H26" s="18">
+        <v>2631271.1482883459</v>
+      </c>
+      <c r="I26" s="9">
+        <v>-608516.1482883459</v>
+      </c>
+      <c r="J26" s="9">
+        <v>608516.1482883459</v>
+      </c>
+      <c r="K26" s="9">
+        <v>370291902727.68414</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.30083532028760079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C27" s="38">
+        <v>4343760</v>
+      </c>
+      <c r="D27" s="28">
+        <v>4136826.6785642663</v>
+      </c>
+      <c r="E27" s="28">
+        <v>4077406.1706942301</v>
+      </c>
+      <c r="F27" s="28">
+        <v>4196247.1864343025</v>
+      </c>
+      <c r="G27" s="28">
+        <v>59420.507870036177</v>
+      </c>
+      <c r="H27" s="18">
+        <v>3753708.7457372113</v>
+      </c>
+      <c r="I27" s="9">
+        <v>590051.25426278869</v>
+      </c>
+      <c r="J27" s="9">
+        <v>590051.25426278869</v>
+      </c>
+      <c r="K27" s="9">
+        <v>348160482657.09009</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.1358388249495342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>43770</v>
+      </c>
+      <c r="C28" s="38">
+        <v>2364790</v>
+      </c>
+      <c r="D28" s="28">
+        <v>2576451.2042798996</v>
+      </c>
+      <c r="E28" s="28">
+        <v>2658468.8302586079</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2494433.5783011913</v>
+      </c>
+      <c r="G28" s="28">
+        <v>-82017.625978708267</v>
+      </c>
+      <c r="H28" s="18">
+        <v>2883364.3132047653</v>
+      </c>
+      <c r="I28" s="9">
+        <v>-518574.31320476532</v>
+      </c>
+      <c r="J28" s="9">
+        <v>518574.31320476532</v>
+      </c>
+      <c r="K28" s="9">
+        <v>268919318315.79404</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.21928979452922473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>51</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44621</v>
+      </c>
+      <c r="C29" s="38">
+        <v>2891190</v>
+      </c>
+      <c r="D29" s="28">
+        <v>2797746.9753068918</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2831599.9097068412</v>
+      </c>
+      <c r="F29" s="28">
+        <v>2763894.0409069424</v>
+      </c>
+      <c r="G29" s="28">
+        <v>-33852.934399949387</v>
+      </c>
+      <c r="H29" s="18">
+        <v>2382006.1636277693</v>
+      </c>
+      <c r="I29" s="9">
+        <v>509183.83637223067</v>
+      </c>
+      <c r="J29" s="9">
+        <v>509183.83637223067</v>
+      </c>
+      <c r="K29" s="9">
+        <v>259268179222.74258</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.17611566046238078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6">
+        <v>43282</v>
+      </c>
+      <c r="C30" s="38">
+        <v>2919192</v>
+      </c>
+      <c r="D30" s="28">
+        <v>2845865.6875</v>
+      </c>
+      <c r="E30" s="28">
+        <v>2891470.328125</v>
+      </c>
+      <c r="F30" s="28">
+        <v>2800261.046875</v>
+      </c>
+      <c r="G30" s="28">
+        <v>-45604.640625</v>
+      </c>
+      <c r="H30" s="18">
+        <v>2443468.1875</v>
+      </c>
+      <c r="I30" s="9">
+        <v>475723.8125</v>
+      </c>
+      <c r="J30" s="9">
+        <v>475723.8125</v>
+      </c>
+      <c r="K30" s="9">
+        <v>226313145779.53516</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.16296420807538525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>59</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44866</v>
+      </c>
+      <c r="C31" s="38">
+        <v>2624100</v>
+      </c>
+      <c r="D31" s="28">
+        <v>2796648.7069347925</v>
+      </c>
+      <c r="E31" s="28">
+        <v>2852138.1242614621</v>
+      </c>
+      <c r="F31" s="28">
+        <v>2741159.2896081228</v>
+      </c>
+      <c r="G31" s="28">
+        <v>-55489.417326669674</v>
+      </c>
+      <c r="H31" s="18">
+        <v>3092337.1584324902</v>
+      </c>
+      <c r="I31" s="9">
+        <v>-468237.15843249019</v>
+      </c>
+      <c r="J31" s="9">
+        <v>468237.15843249019</v>
+      </c>
+      <c r="K31" s="9">
+        <v>219246036536.93292</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.17843723883712137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>81</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45536</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="27">
+        <v>73978.462926556327</v>
+      </c>
+      <c r="E32" s="27">
+        <v>263481.96012208477</v>
+      </c>
+      <c r="F32" s="27">
+        <v>-115525.03426897211</v>
+      </c>
+      <c r="G32" s="27">
+        <v>-189503.49719552844</v>
+      </c>
+      <c r="H32" s="25">
+        <v>-462100.1370758884</v>
+      </c>
+      <c r="I32" s="25">
+        <v>462100.1370758884</v>
+      </c>
+      <c r="J32" s="25">
+        <v>462100.1370758884</v>
+      </c>
+      <c r="K32" s="25">
+        <v>213536536685.55484</v>
+      </c>
+      <c r="L32" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>53</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44682</v>
+      </c>
+      <c r="C33" s="38">
+        <v>2490700</v>
+      </c>
+      <c r="D33" s="28">
+        <v>2683111.2438267227</v>
+      </c>
+      <c r="E33" s="28">
+        <v>2768336.2212534333</v>
+      </c>
+      <c r="F33" s="28">
+        <v>2597886.2664000122</v>
+      </c>
+      <c r="G33" s="28">
+        <v>-85224.977426710539</v>
+      </c>
+      <c r="H33" s="18">
+        <v>2919445.0656000501</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-428745.06560005015</v>
+      </c>
+      <c r="J33" s="9">
+        <v>428745.06560005015</v>
+      </c>
+      <c r="K33" s="9">
+        <v>183822331276.3913</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.17213838101740481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>20</v>
+      </c>
+      <c r="B34" s="6">
+        <v>43678</v>
+      </c>
+      <c r="C34" s="38">
+        <v>2803490</v>
+      </c>
+      <c r="D34" s="28">
+        <v>2646596.6342391968</v>
+      </c>
+      <c r="E34" s="28">
+        <v>2594704.1907100677</v>
+      </c>
+      <c r="F34" s="28">
+        <v>2698489.0777683258</v>
+      </c>
+      <c r="G34" s="28">
+        <v>51892.443529129028</v>
+      </c>
+      <c r="H34" s="18">
+        <v>2383486.3110733032</v>
+      </c>
+      <c r="I34" s="9">
+        <v>420003.68892669678</v>
+      </c>
+      <c r="J34" s="9">
+        <v>420003.68892669678</v>
+      </c>
+      <c r="K34" s="9">
+        <v>176403098712.03348</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.14981458429553762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6">
+        <v>43435</v>
+      </c>
+      <c r="C35" s="38">
+        <v>2560882</v>
+      </c>
+      <c r="D35" s="28">
+        <v>2745272.365234375</v>
+      </c>
+      <c r="E35" s="28">
+        <v>2827004.3608398438</v>
+      </c>
+      <c r="F35" s="28">
+        <v>2663540.3696289063</v>
+      </c>
+      <c r="G35" s="28">
+        <v>-81731.99560546875</v>
+      </c>
+      <c r="H35" s="18">
+        <v>2971515.478515625</v>
+      </c>
+      <c r="I35" s="9">
+        <v>-410633.478515625</v>
+      </c>
+      <c r="J35" s="9">
+        <v>410633.478515625</v>
+      </c>
+      <c r="K35" s="9">
+        <v>168619853677.84225</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.16034845749067117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44136</v>
+      </c>
+      <c r="C36" s="38">
+        <v>3007725</v>
+      </c>
+      <c r="D36" s="28">
+        <v>2978736.712452217</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2854226.8479140475</v>
+      </c>
+      <c r="F36" s="28">
+        <v>3103246.5769903865</v>
+      </c>
+      <c r="G36" s="28">
+        <v>124509.86453816947</v>
+      </c>
+      <c r="H36" s="18">
+        <v>3389811.3079615445</v>
+      </c>
+      <c r="I36" s="9">
+        <v>-382086.30796154449</v>
+      </c>
+      <c r="J36" s="9">
+        <v>382086.30796154449</v>
+      </c>
+      <c r="K36" s="9">
+        <v>145989946731.6842</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.12703498756087889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6">
+        <v>43191</v>
+      </c>
+      <c r="C37" s="38">
+        <v>3350350</v>
+      </c>
+      <c r="D37" s="28">
+        <v>3312529.5</v>
+      </c>
+      <c r="E37" s="28">
+        <v>3180344.375</v>
+      </c>
+      <c r="F37" s="28">
+        <v>3444714.625</v>
+      </c>
+      <c r="G37" s="28">
+        <v>132185.125</v>
+      </c>
+      <c r="H37" s="18">
+        <v>3727808.5</v>
+      </c>
+      <c r="I37" s="9">
+        <v>-377458.5</v>
+      </c>
+      <c r="J37" s="9">
+        <v>377458.5</v>
+      </c>
+      <c r="K37" s="9">
+        <v>142474919222.25</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.11266240840509201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>49</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44562</v>
+      </c>
+      <c r="C38" s="38">
+        <v>2880606</v>
+      </c>
+      <c r="D38" s="28">
+        <v>2910082.9012275664</v>
+      </c>
+      <c r="E38" s="28">
+        <v>3026601.7375997971</v>
+      </c>
+      <c r="F38" s="28">
+        <v>2793564.0648553357</v>
+      </c>
+      <c r="G38" s="28">
+        <v>-116518.83637223067</v>
+      </c>
+      <c r="H38" s="18">
+        <v>2532438.2594213444</v>
+      </c>
+      <c r="I38" s="9">
+        <v>348167.74057865562</v>
+      </c>
+      <c r="J38" s="9">
+        <v>348167.74057865562</v>
+      </c>
+      <c r="K38" s="9">
+        <v>121220775579.64604</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.1208661443386064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>6</v>
+      </c>
+      <c r="B39" s="6">
+        <v>43252</v>
+      </c>
+      <c r="C39" s="38">
+        <v>2522202</v>
+      </c>
+      <c r="D39" s="28">
+        <v>2772539.375</v>
+      </c>
+      <c r="E39" s="28">
+        <v>2937074.96875</v>
+      </c>
+      <c r="F39" s="28">
+        <v>2608003.78125</v>
+      </c>
+      <c r="G39" s="28">
+        <v>-164535.59375</v>
+      </c>
+      <c r="H39" s="18">
+        <v>2865409.125</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-343207.125</v>
+      </c>
+      <c r="J39" s="9">
+        <v>343207.125</v>
+      </c>
+      <c r="K39" s="9">
+        <v>117791130650.76563</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.13607440046435615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>40</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C40" s="38">
+        <v>4902821</v>
+      </c>
+      <c r="D40" s="28">
+        <v>4696086.4285141323</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4406016.2227826435</v>
+      </c>
+      <c r="F40" s="28">
+        <v>4986156.634245621</v>
+      </c>
+      <c r="G40" s="28">
+        <v>290070.20573148876</v>
+      </c>
+      <c r="H40" s="18">
+        <v>5236163.5369824804</v>
+      </c>
+      <c r="I40" s="9">
+        <v>-333342.53698248044</v>
+      </c>
+      <c r="J40" s="9">
+        <v>333342.53698248044</v>
+      </c>
+      <c r="K40" s="9">
+        <v>111117246961.91634</v>
+      </c>
+      <c r="L40" s="9">
+        <v>6.7989946396672538E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>34</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C41" s="38">
+        <v>3092285</v>
+      </c>
+      <c r="D41" s="28">
+        <v>2949748.4249044335</v>
+      </c>
+      <c r="E41" s="28">
+        <v>2729716.9833758781</v>
+      </c>
+      <c r="F41" s="28">
+        <v>3169779.866432989</v>
+      </c>
+      <c r="G41" s="28">
+        <v>220031.44152855547</v>
+      </c>
+      <c r="H41" s="18">
+        <v>3402264.465731957</v>
+      </c>
+      <c r="I41" s="9">
+        <v>-309979.465731957</v>
+      </c>
+      <c r="J41" s="9">
+        <v>309979.465731957</v>
+      </c>
+      <c r="K41" s="9">
+        <v>96087269175.469498</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0.10024285139693043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>82</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45566</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="27">
+        <v>36989.231463278164</v>
+      </c>
+      <c r="E42" s="27">
+        <v>150235.59579268147</v>
+      </c>
+      <c r="F42" s="27">
+        <v>-76257.132866125146</v>
+      </c>
+      <c r="G42" s="27">
+        <v>-113246.36432940331</v>
+      </c>
+      <c r="H42" s="25">
+        <v>-305028.53146450059</v>
+      </c>
+      <c r="I42" s="25">
+        <v>305028.53146450059</v>
+      </c>
+      <c r="J42" s="25">
+        <v>305028.53146450059</v>
+      </c>
+      <c r="K42" s="25">
+        <v>93042405007.389816</v>
+      </c>
+      <c r="L42" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>13</v>
+      </c>
+      <c r="B43" s="6">
+        <v>43466</v>
+      </c>
+      <c r="C43" s="38">
+        <v>2886252</v>
+      </c>
+      <c r="D43" s="28">
+        <v>2815762.1826171875</v>
+      </c>
+      <c r="E43" s="28">
+        <v>2821383.2717285156</v>
+      </c>
+      <c r="F43" s="28">
+        <v>2810141.0935058594</v>
+      </c>
+      <c r="G43" s="28">
+        <v>-5621.089111328125</v>
+      </c>
+      <c r="H43" s="18">
+        <v>2581808.3740234375</v>
+      </c>
+      <c r="I43" s="9">
+        <v>304443.6259765625</v>
+      </c>
+      <c r="J43" s="9">
+        <v>304443.6259765625</v>
+      </c>
+      <c r="K43" s="9">
+        <v>92685921397.75708</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.10548061152545325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43344</v>
+      </c>
+      <c r="C44" s="38">
+        <v>2895828</v>
+      </c>
+      <c r="D44" s="28">
+        <v>2834503.921875</v>
+      </c>
+      <c r="E44" s="28">
+        <v>2833414.50390625</v>
+      </c>
+      <c r="F44" s="28">
+        <v>2835593.33984375</v>
+      </c>
+      <c r="G44" s="28">
+        <v>1089.41796875</v>
+      </c>
+      <c r="H44" s="18">
+        <v>2654889.359375</v>
+      </c>
+      <c r="I44" s="9">
+        <v>240938.640625</v>
+      </c>
+      <c r="J44" s="9">
+        <v>240938.640625</v>
+      </c>
+      <c r="K44" s="9">
+        <v>58051428546.2229</v>
+      </c>
+      <c r="L44" s="9">
+        <v>8.3201985969125244E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>38</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44228</v>
+      </c>
+      <c r="C45" s="38">
+        <v>4387205</v>
+      </c>
+      <c r="D45" s="28">
+        <v>4094213.7140565272</v>
+      </c>
+      <c r="E45" s="28">
+        <v>3742540.1770740468</v>
+      </c>
+      <c r="F45" s="28">
+        <v>4445887.2510390077</v>
+      </c>
+      <c r="G45" s="28">
+        <v>351673.53698248044</v>
+      </c>
+      <c r="H45" s="18">
+        <v>4621934.0041560307</v>
+      </c>
+      <c r="I45" s="9">
+        <v>-234729.00415603071</v>
+      </c>
+      <c r="J45" s="9">
+        <v>234729.00415603071</v>
+      </c>
+      <c r="K45" s="9">
+        <v>55097705392.081886</v>
+      </c>
+      <c r="L45" s="9">
+        <v>5.3503085485184919E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>48</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44531</v>
+      </c>
+      <c r="C46" s="38">
+        <v>2794340</v>
+      </c>
+      <c r="D46" s="28">
+        <v>2939559.8024551333</v>
+      </c>
+      <c r="E46" s="28">
+        <v>3143120.5739720277</v>
+      </c>
+      <c r="F46" s="28">
+        <v>2735999.0309382388</v>
+      </c>
+      <c r="G46" s="28">
+        <v>-203560.77151689446</v>
+      </c>
+      <c r="H46" s="18">
+        <v>2560976.1237529544</v>
+      </c>
+      <c r="I46" s="9">
+        <v>233363.87624704558</v>
+      </c>
+      <c r="J46" s="9">
+        <v>233363.87624704558</v>
+      </c>
+      <c r="K46" s="9">
+        <v>54458698737.04641</v>
+      </c>
+      <c r="L46" s="9">
+        <v>8.3513057196706764E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>14</v>
+      </c>
+      <c r="B47" s="6">
+        <v>43497</v>
+      </c>
+      <c r="C47" s="38">
+        <v>3029509</v>
+      </c>
+      <c r="D47" s="28">
+        <v>2922635.5913085938</v>
+      </c>
+      <c r="E47" s="28">
+        <v>2872009.4315185547</v>
+      </c>
+      <c r="F47" s="28">
+        <v>2973261.7510986328</v>
+      </c>
+      <c r="G47" s="28">
+        <v>50626.159790039063</v>
+      </c>
+      <c r="H47" s="18">
+        <v>2804520.0043945313</v>
+      </c>
+      <c r="I47" s="9">
+        <v>224988.99560546875</v>
+      </c>
+      <c r="J47" s="9">
+        <v>224988.99560546875</v>
+      </c>
+      <c r="K47" s="9">
+        <v>50620048143.55764</v>
+      </c>
+      <c r="L47" s="9">
+        <v>7.4265828424826846E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44652</v>
+      </c>
+      <c r="C48" s="38">
+        <v>2953298</v>
+      </c>
+      <c r="D48" s="28">
+        <v>2875522.4876534459</v>
+      </c>
+      <c r="E48" s="28">
+        <v>2853561.1986801438</v>
+      </c>
+      <c r="F48" s="28">
+        <v>2897483.776626748</v>
+      </c>
+      <c r="G48" s="28">
+        <v>21961.288973302115</v>
+      </c>
+      <c r="H48" s="18">
+        <v>2730041.1065069931</v>
+      </c>
+      <c r="I48" s="9">
+        <v>223256.89349300694</v>
+      </c>
+      <c r="J48" s="9">
+        <v>223256.89349300694</v>
+      </c>
+      <c r="K48" s="9">
+        <v>49843640492.147842</v>
+      </c>
+      <c r="L48" s="9">
+        <v>7.5595789349062276E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44743</v>
+      </c>
+      <c r="C49" s="38">
+        <v>2843112</v>
+      </c>
+      <c r="D49" s="28">
+        <v>2768961.3109566807</v>
+      </c>
+      <c r="E49" s="28">
+        <v>2750267.3662700392</v>
+      </c>
+      <c r="F49" s="28">
+        <v>2787655.2556433221</v>
+      </c>
+      <c r="G49" s="28">
+        <v>18693.944686641451</v>
+      </c>
+      <c r="H49" s="18">
+        <v>2621285.0225732895</v>
+      </c>
+      <c r="I49" s="9">
+        <v>221826.97742671054</v>
+      </c>
+      <c r="J49" s="9">
+        <v>221826.97742671054</v>
+      </c>
+      <c r="K49" s="9">
+        <v>49207207914.270348</v>
+      </c>
+      <c r="L49" s="9">
+        <v>7.8022595461139252E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>10</v>
+      </c>
+      <c r="B50" s="6">
+        <v>43374</v>
+      </c>
+      <c r="C50" s="38">
+        <v>3049907</v>
+      </c>
+      <c r="D50" s="28">
+        <v>2942205.4609375</v>
+      </c>
+      <c r="E50" s="28">
+        <v>2887809.982421875</v>
+      </c>
+      <c r="F50" s="28">
+        <v>2996600.939453125</v>
+      </c>
+      <c r="G50" s="28">
+        <v>54395.478515625</v>
+      </c>
+      <c r="H50" s="18">
+        <v>2836682.7578125</v>
+      </c>
+      <c r="I50" s="9">
+        <v>213224.2421875</v>
+      </c>
+      <c r="J50" s="9">
+        <v>213224.2421875</v>
+      </c>
+      <c r="K50" s="9">
+        <v>45464577456.433655</v>
+      </c>
+      <c r="L50" s="9">
+        <v>6.9911719336851905E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>66</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45078</v>
+      </c>
+      <c r="C51" s="38">
+        <v>2697165</v>
+      </c>
+      <c r="D51" s="28">
+        <v>2618102.1773979282</v>
+      </c>
+      <c r="E51" s="28">
+        <v>2591051.4499885412</v>
+      </c>
+      <c r="F51" s="28">
+        <v>2645152.9048073152</v>
+      </c>
+      <c r="G51" s="28">
+        <v>27050.727409387007</v>
+      </c>
+      <c r="H51" s="18">
+        <v>2489116.6192292608</v>
+      </c>
+      <c r="I51" s="9">
+        <v>208048.38077073917</v>
+      </c>
+      <c r="J51" s="9">
+        <v>208048.38077073917</v>
+      </c>
+      <c r="K51" s="9">
+        <v>43284128741.326469</v>
+      </c>
+      <c r="L51" s="9">
+        <v>7.7135948587030892E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>15</v>
+      </c>
+      <c r="B52" s="6">
+        <v>43525</v>
+      </c>
+      <c r="C52" s="38">
+        <v>2816647</v>
+      </c>
+      <c r="D52" s="28">
+        <v>2869641.2956542969</v>
+      </c>
+      <c r="E52" s="28">
+        <v>2870825.3635864258</v>
+      </c>
+      <c r="F52" s="28">
+        <v>2868457.227722168</v>
+      </c>
+      <c r="G52" s="28">
+        <v>-1184.0679321289063</v>
+      </c>
+      <c r="H52" s="18">
+        <v>3023887.9108886719</v>
+      </c>
+      <c r="I52" s="9">
+        <v>-207240.91088867188</v>
+      </c>
+      <c r="J52" s="9">
+        <v>207240.91088867188</v>
+      </c>
+      <c r="K52" s="9">
+        <v>42948795145.966438</v>
+      </c>
+      <c r="L52" s="9">
+        <v>7.3577168487450453E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>22</v>
+      </c>
+      <c r="B53" s="6">
+        <v>43739</v>
+      </c>
+      <c r="C53" s="38">
+        <v>2785208</v>
+      </c>
+      <c r="D53" s="28">
+        <v>2788112.4085597992</v>
+      </c>
+      <c r="E53" s="28">
+        <v>2740486.4562373161</v>
+      </c>
+      <c r="F53" s="28">
+        <v>2835738.3608822823</v>
+      </c>
+      <c r="G53" s="28">
+        <v>47625.952322483063</v>
+      </c>
+      <c r="H53" s="18">
+        <v>2987329.443529129</v>
+      </c>
+      <c r="I53" s="9">
+        <v>-202121.44352912903</v>
+      </c>
+      <c r="J53" s="9">
+        <v>202121.44352912903</v>
+      </c>
+      <c r="K53" s="9">
+        <v>40853077934.298897</v>
+      </c>
+      <c r="L53" s="9">
+        <v>7.2569604686303149E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>54</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44713</v>
+      </c>
+      <c r="C54" s="38">
+        <v>2706510</v>
+      </c>
+      <c r="D54" s="28">
+        <v>2694810.6219133614</v>
+      </c>
+      <c r="E54" s="28">
+        <v>2731573.4215833973</v>
+      </c>
+      <c r="F54" s="28">
+        <v>2658047.8222433254</v>
+      </c>
+      <c r="G54" s="28">
+        <v>-36762.799670035951</v>
+      </c>
+      <c r="H54" s="18">
+        <v>2512661.2889733016</v>
+      </c>
+      <c r="I54" s="9">
+        <v>193848.71102669835</v>
+      </c>
+      <c r="J54" s="9">
+        <v>193848.71102669835</v>
+      </c>
+      <c r="K54" s="9">
+        <v>37577322766.712402</v>
+      </c>
+      <c r="L54" s="9">
+        <v>7.1623127580056359E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>83</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45597</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="27">
+        <v>18494.615731639082</v>
+      </c>
+      <c r="E55" s="27">
+        <v>84365.105762160281</v>
+      </c>
+      <c r="F55" s="27">
+        <v>-47375.874298882118</v>
+      </c>
+      <c r="G55" s="27">
+        <v>-65870.490030521207</v>
+      </c>
+      <c r="H55" s="25">
+        <v>-189503.49719552847</v>
+      </c>
+      <c r="I55" s="25">
+        <v>189503.49719552847</v>
+      </c>
+      <c r="J55" s="25">
+        <v>189503.49719552847</v>
+      </c>
+      <c r="K55" s="25">
+        <v>35911575449.33567</v>
+      </c>
+      <c r="L55" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>21</v>
+      </c>
+      <c r="B56" s="6">
+        <v>43709</v>
+      </c>
+      <c r="C56" s="38">
+        <v>2935437</v>
+      </c>
+      <c r="D56" s="28">
+        <v>2791016.8171195984</v>
+      </c>
+      <c r="E56" s="28">
+        <v>2692860.5039148331</v>
+      </c>
+      <c r="F56" s="28">
+        <v>2889173.1303243637</v>
+      </c>
+      <c r="G56" s="28">
+        <v>98156.31320476532</v>
+      </c>
+      <c r="H56" s="18">
+        <v>2750381.5212974548</v>
+      </c>
+      <c r="I56" s="9">
+        <v>185055.47870254517</v>
+      </c>
+      <c r="J56" s="9">
+        <v>185055.47870254517</v>
+      </c>
+      <c r="K56" s="9">
+        <v>34245530197.828148</v>
+      </c>
+      <c r="L56" s="9">
+        <v>6.3041883952047059E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>50</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44593</v>
+      </c>
+      <c r="C57" s="38">
+        <v>2498525</v>
+      </c>
+      <c r="D57" s="28">
+        <v>2704303.9506137832</v>
+      </c>
+      <c r="E57" s="28">
+        <v>2865452.8441067901</v>
+      </c>
+      <c r="F57" s="28">
+        <v>2543155.0571207763</v>
+      </c>
+      <c r="G57" s="28">
+        <v>-161148.89349300694</v>
+      </c>
+      <c r="H57" s="18">
+        <v>2677045.2284831051</v>
+      </c>
+      <c r="I57" s="9">
+        <v>-178520.22848310508</v>
+      </c>
+      <c r="J57" s="9">
+        <v>178520.22848310508</v>
+      </c>
+      <c r="K57" s="9">
+        <v>31869471977.660042</v>
+      </c>
+      <c r="L57" s="9">
+        <v>7.1450247038995038E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>78</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45444</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="27">
+        <v>591827.70341245062</v>
+      </c>
+      <c r="E58" s="27">
+        <v>1220114.1258580019</v>
+      </c>
+      <c r="F58" s="27">
+        <v>-36458.719033100642</v>
+      </c>
+      <c r="G58" s="27">
+        <v>-628286.42244555126</v>
+      </c>
+      <c r="H58" s="25">
+        <v>-145834.87613240257</v>
+      </c>
+      <c r="I58" s="25">
+        <v>145834.87613240257</v>
+      </c>
+      <c r="J58" s="25">
+        <v>145834.87613240257</v>
+      </c>
+      <c r="K58" s="25">
+        <v>21267811096.5532</v>
+      </c>
+      <c r="L58" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6">
+        <v>43405</v>
+      </c>
+      <c r="C59" s="38">
+        <v>2917120</v>
+      </c>
+      <c r="D59" s="28">
+        <v>2929662.73046875</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2908736.3564453125</v>
+      </c>
+      <c r="F59" s="28">
+        <v>2950589.1044921875</v>
+      </c>
+      <c r="G59" s="28">
+        <v>20926.3740234375</v>
+      </c>
+      <c r="H59" s="18">
+        <v>3050996.41796875</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-133876.41796875</v>
+      </c>
+      <c r="J59" s="9">
+        <v>133876.41796875</v>
+      </c>
+      <c r="K59" s="9">
+        <v>17922895288.143448</v>
+      </c>
+      <c r="L59" s="9">
+        <v>4.5893353022415942E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44805</v>
+      </c>
+      <c r="C60" s="38">
+        <v>3008420</v>
+      </c>
+      <c r="D60" s="28">
+        <v>2910595.8277391703</v>
+      </c>
+      <c r="E60" s="28">
+        <v>2846057.6693066801</v>
+      </c>
+      <c r="F60" s="28">
+        <v>2975133.9861716605</v>
+      </c>
+      <c r="G60" s="28">
+        <v>64538.158432490192</v>
+      </c>
+      <c r="H60" s="18">
+        <v>2875275.9446866419</v>
+      </c>
+      <c r="I60" s="9">
+        <v>133144.05531335808</v>
+      </c>
+      <c r="J60" s="9">
+        <v>133144.05531335808</v>
+      </c>
+      <c r="K60" s="9">
+        <v>17727339465.286556</v>
+      </c>
+      <c r="L60" s="9">
+        <v>4.4257136740667224E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>61</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C61" s="38">
+        <v>2847896</v>
+      </c>
+      <c r="D61" s="28">
+        <v>2816474.6767336982</v>
+      </c>
+      <c r="E61" s="28">
+        <v>2817535.207799064</v>
+      </c>
+      <c r="F61" s="28">
+        <v>2815414.1456683325</v>
+      </c>
+      <c r="G61" s="28">
+        <v>-1060.5310653657652</v>
+      </c>
+      <c r="H61" s="18">
+        <v>2717968.5826733308</v>
+      </c>
+      <c r="I61" s="9">
+        <v>129927.41732666921</v>
+      </c>
+      <c r="J61" s="9">
+        <v>129927.41732666921</v>
+      </c>
+      <c r="K61" s="9">
+        <v>16881133773.178463</v>
+      </c>
+      <c r="L61" s="9">
+        <v>4.562224790746193E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>84</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45627</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="27">
+        <v>9247.3078658195409</v>
+      </c>
+      <c r="E62" s="27">
+        <v>46806.206813989913</v>
+      </c>
+      <c r="F62" s="27">
+        <v>-28311.591082350831</v>
+      </c>
+      <c r="G62" s="27">
+        <v>-37558.898948170376</v>
+      </c>
+      <c r="H62" s="25">
+        <v>-113246.36432940332</v>
+      </c>
+      <c r="I62" s="25">
+        <v>113246.36432940332</v>
+      </c>
+      <c r="J62" s="25">
+        <v>113246.36432940332</v>
+      </c>
+      <c r="K62" s="25">
+        <v>12824739033.827953</v>
+      </c>
+      <c r="L62" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>69</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45170</v>
+      </c>
+      <c r="C63" s="38">
+        <v>2641946</v>
+      </c>
+      <c r="D63" s="28">
+        <v>2663418.1471747411</v>
+      </c>
+      <c r="E63" s="28">
+        <v>2657064.7770106792</v>
+      </c>
+      <c r="F63" s="28">
+        <v>2669771.517338803</v>
+      </c>
+      <c r="G63" s="28">
+        <v>6353.3701640618965</v>
+      </c>
+      <c r="H63" s="18">
+        <v>2753248.0693552122</v>
+      </c>
+      <c r="I63" s="9">
+        <v>-111302.06935521215</v>
+      </c>
+      <c r="J63" s="9">
+        <v>111302.06935521215</v>
+      </c>
+      <c r="K63" s="9">
+        <v>12388150642.752457</v>
+      </c>
+      <c r="L63" s="9">
+        <v>4.2128820708376383E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>71</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45231</v>
+      </c>
+      <c r="C64" s="38">
+        <v>2614593</v>
+      </c>
+      <c r="D64" s="28">
+        <v>2652507.0367936855</v>
+      </c>
+      <c r="E64" s="28">
+        <v>2663124.9810463553</v>
+      </c>
+      <c r="F64" s="28">
+        <v>2641889.0925410157</v>
+      </c>
+      <c r="G64" s="28">
+        <v>-10617.944252669811</v>
+      </c>
+      <c r="H64" s="18">
+        <v>2723777.3701640614</v>
+      </c>
+      <c r="I64" s="9">
+        <v>-109184.37016406143</v>
+      </c>
+      <c r="J64" s="9">
+        <v>109184.37016406143</v>
+      </c>
+      <c r="K64" s="9">
+        <v>11921226688.122787</v>
+      </c>
+      <c r="L64" s="9">
+        <v>4.1759604712496907E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>30</v>
+      </c>
+      <c r="B65" s="6">
+        <v>43983</v>
+      </c>
+      <c r="C65" s="38">
+        <v>703866</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1979984.7984709367</v>
+      </c>
+      <c r="E65" s="28">
+        <v>3229746.1370721739</v>
+      </c>
+      <c r="F65" s="28">
+        <v>730223.45986969955</v>
+      </c>
+      <c r="G65" s="28">
+        <v>-1249761.3386012372</v>
+      </c>
+      <c r="H65" s="18">
+        <v>809295.83947879821</v>
+      </c>
+      <c r="I65" s="9">
+        <v>-105429.83947879821</v>
+      </c>
+      <c r="J65" s="9">
+        <v>105429.83947879821</v>
+      </c>
+      <c r="K65" s="9">
+        <v>11115451052.525158</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0.14978680527088709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>46</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44470</v>
+      </c>
+      <c r="C66" s="38">
+        <v>3040344</v>
+      </c>
+      <c r="D66" s="28">
+        <v>3336919.2098205332</v>
+      </c>
+      <c r="E66" s="28">
+        <v>3608583.0860675788</v>
+      </c>
+      <c r="F66" s="28">
+        <v>3065255.3335734876</v>
+      </c>
+      <c r="G66" s="28">
+        <v>-271663.87624704558</v>
+      </c>
+      <c r="H66" s="18">
+        <v>3139989.3342939513</v>
+      </c>
+      <c r="I66" s="9">
+        <v>-99645.33429395128</v>
+      </c>
+      <c r="J66" s="9">
+        <v>99645.33429395128</v>
+      </c>
+      <c r="K66" s="9">
+        <v>9929192646.5533028</v>
+      </c>
+      <c r="L66" s="9">
+        <v>3.2774361813647165E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>2</v>
+      </c>
+      <c r="B67" s="6">
+        <v>43132</v>
+      </c>
+      <c r="C67" s="38">
+        <v>2751060</v>
+      </c>
+      <c r="D67" s="32">
+        <v>2798093</v>
+      </c>
+      <c r="E67" s="32">
+        <v>2821609.5</v>
+      </c>
+      <c r="F67" s="32">
+        <v>2774576.5</v>
+      </c>
+      <c r="G67" s="32">
+        <v>-23516.5</v>
+      </c>
+      <c r="H67" s="18">
+        <v>2845126</v>
+      </c>
+      <c r="I67" s="9">
+        <v>-94066</v>
+      </c>
+      <c r="J67" s="9">
+        <v>94066</v>
+      </c>
+      <c r="K67" s="9">
+        <v>8848412356</v>
+      </c>
+      <c r="L67" s="9">
+        <v>3.4192638473897335E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>60</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44896</v>
+      </c>
+      <c r="C68" s="38">
+        <v>2773458</v>
+      </c>
+      <c r="D68" s="28">
+        <v>2785053.3534673965</v>
+      </c>
+      <c r="E68" s="28">
+        <v>2818595.7388644293</v>
+      </c>
+      <c r="F68" s="28">
+        <v>2751510.9680703636</v>
+      </c>
+      <c r="G68" s="28">
+        <v>-33542.385397032835</v>
+      </c>
+      <c r="H68" s="18">
+        <v>2685669.8722814531</v>
+      </c>
+      <c r="I68" s="9">
+        <v>87788.127718546893</v>
+      </c>
+      <c r="J68" s="9">
+        <v>87788.127718546893</v>
+      </c>
+      <c r="K68" s="9">
+        <v>7706755368.3279018</v>
+      </c>
+      <c r="L68" s="9">
+        <v>3.1652950114458879E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>39</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44256</v>
+      </c>
+      <c r="C69" s="38">
+        <v>4884490</v>
+      </c>
+      <c r="D69" s="28">
+        <v>4489351.8570282636</v>
+      </c>
+      <c r="E69" s="28">
+        <v>4115946.0170511552</v>
+      </c>
+      <c r="F69" s="28">
+        <v>4862757.6970053725</v>
+      </c>
+      <c r="G69" s="28">
+        <v>373405.83997710841</v>
+      </c>
+      <c r="H69" s="18">
+        <v>4797560.7880214881</v>
+      </c>
+      <c r="I69" s="9">
+        <v>86929.211978511885</v>
+      </c>
+      <c r="J69" s="9">
+        <v>86929.211978511885</v>
+      </c>
+      <c r="K69" s="9">
+        <v>7556687895.2050543</v>
+      </c>
+      <c r="L69" s="9">
+        <v>1.7796988422232801E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>62</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44958</v>
+      </c>
+      <c r="C70" s="38">
+        <v>2730829</v>
+      </c>
+      <c r="D70" s="28">
+        <v>2773651.8383668493</v>
+      </c>
+      <c r="E70" s="28">
+        <v>2795593.5230829567</v>
+      </c>
+      <c r="F70" s="28">
+        <v>2751710.153650742</v>
+      </c>
+      <c r="G70" s="28">
+        <v>-21941.684716107324</v>
+      </c>
+      <c r="H70" s="18">
+        <v>2814353.6146029667</v>
+      </c>
+      <c r="I70" s="9">
+        <v>-83524.6146029667</v>
+      </c>
+      <c r="J70" s="9">
+        <v>83524.6146029667</v>
+      </c>
+      <c r="K70" s="9">
+        <v>6976361244.5741177</v>
+      </c>
+      <c r="L70" s="9">
+        <v>3.0585809145489043E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6">
+        <v>45658</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="27">
+        <v>4623.6539329097704</v>
+      </c>
+      <c r="E71" s="27">
+        <v>25714.930373449843</v>
+      </c>
+      <c r="F71" s="27">
+        <v>-16467.622507630302</v>
+      </c>
+      <c r="G71" s="27">
+        <v>-21091.276440540074</v>
+      </c>
+      <c r="H71" s="25">
+        <v>-65870.490030521207</v>
+      </c>
+      <c r="I71" s="25">
+        <v>65870.490030521207</v>
+      </c>
+      <c r="J71" s="25">
+        <v>65870.490030521207</v>
+      </c>
+      <c r="K71" s="25">
+        <v>4338921456.8609934</v>
+      </c>
+      <c r="L71" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>8</v>
+      </c>
+      <c r="B72" s="6">
+        <v>43313</v>
+      </c>
+      <c r="C72" s="38">
+        <v>2700494</v>
+      </c>
+      <c r="D72" s="28">
+        <v>2773179.84375</v>
+      </c>
+      <c r="E72" s="28">
+        <v>2832325.0859375</v>
+      </c>
+      <c r="F72" s="28">
+        <v>2714034.6015625</v>
+      </c>
+      <c r="G72" s="28">
+        <v>-59145.2421875</v>
+      </c>
+      <c r="H72" s="18">
+        <v>2754656.40625</v>
+      </c>
+      <c r="I72" s="9">
+        <v>-54162.40625</v>
+      </c>
+      <c r="J72" s="9">
+        <v>54162.40625</v>
+      </c>
+      <c r="K72" s="9">
+        <v>2933566250.7900391</v>
+      </c>
+      <c r="L72" s="9">
+        <v>2.0056480869796414E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>56</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44774</v>
+      </c>
+      <c r="C73" s="38">
+        <v>2856582</v>
+      </c>
+      <c r="D73" s="28">
+        <v>2812771.6554783406</v>
+      </c>
+      <c r="E73" s="28">
+        <v>2781519.5108741899</v>
+      </c>
+      <c r="F73" s="28">
+        <v>2844023.8000824912</v>
+      </c>
+      <c r="G73" s="28">
+        <v>31252.144604150672</v>
+      </c>
+      <c r="H73" s="18">
+        <v>2806349.2003299636</v>
+      </c>
+      <c r="I73" s="9">
+        <v>50232.799670036417</v>
+      </c>
+      <c r="J73" s="9">
+        <v>50232.799670036417</v>
+      </c>
+      <c r="K73" s="9">
+        <v>2523334162.6900105</v>
+      </c>
+      <c r="L73" s="9">
+        <v>1.7584931806626385E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <v>74</v>
+      </c>
+      <c r="B74" s="6">
+        <v>45323</v>
+      </c>
+      <c r="C74" s="38">
+        <v>2730829</v>
+      </c>
+      <c r="D74" s="28">
+        <v>2661796.2545992108</v>
+      </c>
+      <c r="E74" s="28">
+        <v>2604183.5045296103</v>
+      </c>
+      <c r="F74" s="28">
+        <v>2719409.0046688113</v>
+      </c>
+      <c r="G74" s="28">
+        <v>57612.75006960053</v>
+      </c>
+      <c r="H74" s="18">
+        <v>2685149.0186752444</v>
+      </c>
+      <c r="I74" s="9">
+        <v>45679.981324755587</v>
+      </c>
+      <c r="J74" s="9">
+        <v>45679.981324755587</v>
+      </c>
+      <c r="K74" s="9">
+        <v>2086660693.8300192</v>
+      </c>
+      <c r="L74" s="9">
+        <v>1.6727514364596095E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>70</v>
+      </c>
+      <c r="B75" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C75" s="38">
+        <v>2717424</v>
+      </c>
+      <c r="D75" s="28">
+        <v>2690421.0735873706</v>
+      </c>
+      <c r="E75" s="28">
+        <v>2673742.9252990251</v>
+      </c>
+      <c r="F75" s="28">
+        <v>2707099.221875716</v>
+      </c>
+      <c r="G75" s="28">
+        <v>16678.14828834543</v>
+      </c>
+      <c r="H75" s="18">
+        <v>2676124.8875028649</v>
+      </c>
+      <c r="I75" s="9">
+        <v>41299.112497135065</v>
+      </c>
+      <c r="J75" s="9">
+        <v>41299.112497135065</v>
+      </c>
+      <c r="K75" s="9">
+        <v>1705616693.0510178</v>
+      </c>
+      <c r="L75" s="9">
+        <v>1.5197890537926752E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <v>44</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44409</v>
+      </c>
+      <c r="C76" s="38">
+        <v>4216359</v>
+      </c>
+      <c r="D76" s="28">
+        <v>4176592.8392821332</v>
+      </c>
+      <c r="E76" s="28">
+        <v>4126999.5049881814</v>
+      </c>
+      <c r="F76" s="28">
+        <v>4226186.1735760849</v>
+      </c>
+      <c r="G76" s="28">
+        <v>49593.334293951746</v>
+      </c>
+      <c r="H76" s="18">
+        <v>4255667.6943043387</v>
+      </c>
+      <c r="I76" s="9">
+        <v>-39308.694304338656</v>
+      </c>
+      <c r="J76" s="9">
+        <v>39308.694304338656</v>
+      </c>
+      <c r="K76" s="9">
+        <v>1545173447.9119463</v>
+      </c>
+      <c r="L76" s="9">
+        <v>9.3229002331961432E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
+        <v>47</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44501</v>
+      </c>
+      <c r="C77" s="38">
+        <v>2832640</v>
+      </c>
+      <c r="D77" s="28">
+        <v>3084779.6049102666</v>
+      </c>
+      <c r="E77" s="28">
+        <v>3346681.3454889227</v>
+      </c>
+      <c r="F77" s="28">
+        <v>2822877.8643316105</v>
+      </c>
+      <c r="G77" s="28">
+        <v>-261901.74057865608</v>
+      </c>
+      <c r="H77" s="18">
+        <v>2793591.457326442</v>
+      </c>
+      <c r="I77" s="9">
+        <v>39048.542673557997</v>
+      </c>
+      <c r="J77" s="9">
+        <v>39048.542673557997</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1524788684.9286799</v>
+      </c>
+      <c r="L77" s="9">
+        <v>1.3785211913112149E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <v>86</v>
+      </c>
+      <c r="B78" s="6">
+        <v>45689</v>
+      </c>
+      <c r="C78" s="34"/>
+      <c r="D78" s="27">
+        <v>2311.8269664548852</v>
+      </c>
+      <c r="E78" s="27">
+        <v>14013.378669952364</v>
+      </c>
+      <c r="F78" s="27">
+        <v>-9389.7247370425939</v>
+      </c>
+      <c r="G78" s="27">
+        <v>-11701.55170349748</v>
+      </c>
+      <c r="H78" s="25">
+        <v>-37558.898948170376</v>
+      </c>
+      <c r="I78" s="25">
+        <v>37558.898948170376</v>
+      </c>
+      <c r="J78" s="25">
+        <v>37558.898948170376</v>
+      </c>
+      <c r="K78" s="25">
+        <v>1410670890.1988738</v>
+      </c>
+      <c r="L78" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>63</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44986</v>
+      </c>
+      <c r="C79" s="38">
+        <v>2765759</v>
+      </c>
+      <c r="D79" s="28">
+        <v>2769705.4191834247</v>
+      </c>
+      <c r="E79" s="28">
+        <v>2782649.4711331907</v>
+      </c>
+      <c r="F79" s="28">
+        <v>2756761.3672336587</v>
+      </c>
+      <c r="G79" s="28">
+        <v>-12944.051949765999</v>
+      </c>
+      <c r="H79" s="18">
+        <v>2729768.4689346347</v>
+      </c>
+      <c r="I79" s="9">
+        <v>35990.5310653653</v>
+      </c>
+      <c r="J79" s="9">
+        <v>35990.5310653653</v>
+      </c>
+      <c r="K79" s="9">
+        <v>1295318326.3670247</v>
+      </c>
+      <c r="L79" s="9">
+        <v>1.3012894856480734E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>68</v>
+      </c>
+      <c r="B80" s="6">
+        <v>45139</v>
+      </c>
+      <c r="C80" s="38">
+        <v>2727767</v>
+      </c>
+      <c r="D80" s="28">
+        <v>2684890.2943494823</v>
+      </c>
+      <c r="E80" s="28">
+        <v>2650711.4068466173</v>
+      </c>
+      <c r="F80" s="28">
+        <v>2719069.1818523472</v>
+      </c>
+      <c r="G80" s="28">
+        <v>34178.887502864935</v>
+      </c>
+      <c r="H80" s="18">
+        <v>2692975.7274093875</v>
+      </c>
+      <c r="I80" s="9">
+        <v>34791.272590612527</v>
+      </c>
+      <c r="J80" s="9">
+        <v>34791.272590612527</v>
+      </c>
+      <c r="K80" s="9">
+        <v>1210432648.4743066</v>
+      </c>
+      <c r="L80" s="9">
+        <v>1.2754488411441493E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>87</v>
+      </c>
+      <c r="B81" s="6">
+        <v>45717</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="27">
+        <v>1155.9134832274426</v>
+      </c>
+      <c r="E81" s="27">
+        <v>7584.6460765899037</v>
+      </c>
+      <c r="F81" s="27">
+        <v>-5272.8191101350185</v>
+      </c>
+      <c r="G81" s="27">
+        <v>-6428.7325933624616</v>
+      </c>
+      <c r="H81" s="25">
+        <v>-21091.276440540074</v>
+      </c>
+      <c r="I81" s="25">
+        <v>21091.276440540074</v>
+      </c>
+      <c r="J81" s="25">
+        <v>21091.276440540074</v>
+      </c>
+      <c r="K81" s="25">
+        <v>444841941.89128077</v>
+      </c>
+      <c r="L81" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <v>17</v>
+      </c>
+      <c r="B82" s="6">
+        <v>43586</v>
+      </c>
+      <c r="C82" s="38">
+        <v>2866466</v>
+      </c>
+      <c r="D82" s="28">
+        <v>2864253.0739135742</v>
+      </c>
+      <c r="E82" s="28">
+        <v>2865342.9148101807</v>
+      </c>
+      <c r="F82" s="28">
+        <v>2863163.2330169678</v>
+      </c>
+      <c r="G82" s="28">
+        <v>-1089.8408966064453</v>
+      </c>
+      <c r="H82" s="18">
+        <v>2853254.9320678711</v>
+      </c>
+      <c r="I82" s="9">
+        <v>13211.067932128906</v>
+      </c>
+      <c r="J82" s="9">
+        <v>13211.067932128906</v>
+      </c>
+      <c r="K82" s="9">
+        <v>174532315.90732473</v>
+      </c>
+      <c r="L82" s="9">
+        <v>4.6088346877754373E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
+        <v>16</v>
+      </c>
+      <c r="B83" s="6">
+        <v>43556</v>
+      </c>
+      <c r="C83" s="38">
+        <v>2854439</v>
+      </c>
+      <c r="D83" s="28">
+        <v>2862040.1478271484</v>
+      </c>
+      <c r="E83" s="28">
+        <v>2866432.7557067871</v>
+      </c>
+      <c r="F83" s="28">
+        <v>2857647.5399475098</v>
+      </c>
+      <c r="G83" s="28">
+        <v>-4392.6078796386719</v>
+      </c>
+      <c r="H83" s="18">
+        <v>2867273.1597900391</v>
+      </c>
+      <c r="I83" s="9">
+        <v>-12834.159790039063</v>
+      </c>
+      <c r="J83" s="9">
+        <v>12834.159790039063</v>
+      </c>
+      <c r="K83" s="9">
+        <v>164715657.5162555</v>
+      </c>
+      <c r="L83" s="9">
+        <v>4.4962109157137579E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="15">
+        <v>58</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44835</v>
+      </c>
+      <c r="C84" s="38">
+        <v>3027799</v>
+      </c>
+      <c r="D84" s="28">
+        <v>2969197.4138695849</v>
+      </c>
+      <c r="E84" s="28">
+        <v>2907627.5415881323</v>
+      </c>
+      <c r="F84" s="28">
+        <v>3030767.2861510376</v>
+      </c>
+      <c r="G84" s="28">
+        <v>61569.872281452641</v>
+      </c>
+      <c r="H84" s="18">
+        <v>3039672.1446041507</v>
+      </c>
+      <c r="I84" s="9">
+        <v>-11873.144604150672</v>
+      </c>
+      <c r="J84" s="9">
+        <v>11873.144604150672</v>
+      </c>
+      <c r="K84" s="9">
+        <v>140971562.79107222</v>
+      </c>
+      <c r="L84" s="9">
+        <v>3.9213780717117196E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <v>88</v>
+      </c>
+      <c r="B85" s="6">
+        <v>45748</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="D85" s="27">
+        <v>577.95674161372131</v>
+      </c>
+      <c r="E85" s="27">
+        <v>4081.3014091018126</v>
+      </c>
+      <c r="F85" s="27">
+        <v>-2925.38792587437</v>
+      </c>
+      <c r="G85" s="27">
+        <v>-3503.3446674880915</v>
+      </c>
+      <c r="H85" s="25">
+        <v>-11701.55170349748</v>
+      </c>
+      <c r="I85" s="25">
+        <v>11701.55170349748</v>
+      </c>
+      <c r="J85" s="25">
+        <v>11701.55170349748</v>
+      </c>
+      <c r="K85" s="25">
+        <v>136926312.26962477</v>
+      </c>
+      <c r="L85" s="26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <v>75</v>
+      </c>
+      <c r="B86" s="6">
+        <v>45352</v>
+      </c>
+      <c r="C86" s="38">
+        <v>2765759</v>
+      </c>
+      <c r="D86" s="28">
+        <v>2713777.6272996054</v>
+      </c>
+      <c r="E86" s="28">
+        <v>2658980.5659146076</v>
+      </c>
+      <c r="F86" s="28">
+        <v>2768574.6886846032</v>
+      </c>
+      <c r="G86" s="28">
+        <v>54797.061384997796</v>
+      </c>
+      <c r="H86" s="18">
+        <v>2777021.7547384119</v>
+      </c>
+      <c r="I86" s="9">
+        <v>-11262.754738411866</v>
+      </c>
+      <c r="J86" s="9">
+        <v>11262.754738411866</v>
+      </c>
+      <c r="K86" s="9">
+        <v>126849644.29761894</v>
+      </c>
+      <c r="L86" s="9">
+        <v>4.0722111863007102E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <v>36</v>
+      </c>
+      <c r="B87" s="6">
+        <v>44166</v>
+      </c>
+      <c r="C87" s="38">
+        <v>3234853</v>
+      </c>
+      <c r="D87" s="28">
+        <v>3106794.8562261085</v>
+      </c>
+      <c r="E87" s="28">
+        <v>2980510.8520700783</v>
+      </c>
+      <c r="F87" s="28">
+        <v>3233078.8603821388</v>
+      </c>
+      <c r="G87" s="28">
+        <v>126284.00415603025</v>
+      </c>
+      <c r="H87" s="18">
+        <v>3227756.4415285559</v>
+      </c>
+      <c r="I87" s="9">
+        <v>7096.5584714440629</v>
+      </c>
+      <c r="J87" s="9">
+        <v>7096.5584714440629</v>
+      </c>
+      <c r="K87" s="9">
+        <v>50361142.138624497</v>
+      </c>
+      <c r="L87" s="9">
+        <v>2.1937808213987045E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>67</v>
+      </c>
+      <c r="B88" s="6">
+        <v>45108</v>
+      </c>
+      <c r="C88" s="38">
+        <v>2665925</v>
+      </c>
+      <c r="D88" s="28">
+        <v>2642013.5886989641</v>
+      </c>
+      <c r="E88" s="28">
+        <v>2616532.5193437524</v>
+      </c>
+      <c r="F88" s="28">
+        <v>2667494.6580541758</v>
+      </c>
+      <c r="G88" s="28">
+        <v>25481.069355211686</v>
+      </c>
+      <c r="H88" s="18">
+        <v>2672203.6322167022</v>
+      </c>
+      <c r="I88" s="9">
+        <v>-6278.6322167022154</v>
+      </c>
+      <c r="J88" s="9">
+        <v>6278.6322167022154</v>
+      </c>
+      <c r="K88" s="9">
+        <v>39421222.512610972</v>
+      </c>
+      <c r="L88" s="9">
+        <v>2.3551421051613286E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>1</v>
+      </c>
+      <c r="B89" s="6">
+        <v>43101</v>
+      </c>
+      <c r="C89" s="38">
+        <v>2845126</v>
+      </c>
+      <c r="D89" s="11">
+        <v>2845126</v>
+      </c>
+      <c r="E89" s="11">
+        <v>2845126</v>
+      </c>
+      <c r="F89" s="11">
+        <v>2845126</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="31"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F93" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G93" s="46">
+        <v>234173695</v>
+      </c>
+      <c r="H93" s="46">
+        <v>233554052.87888601</v>
+      </c>
+      <c r="I93" s="46">
+        <v>-2225483.87888595</v>
+      </c>
+      <c r="J93" s="46">
+        <v>46216549.221911557</v>
+      </c>
+      <c r="K93" s="46">
+        <v>101103240170542.31</v>
+      </c>
+      <c r="L93" s="43">
+        <v>23.437708908464629</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F94" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H94" s="47">
+        <v>231956186.47359115</v>
+      </c>
+      <c r="I94" s="47">
+        <v>-627617.47359111952</v>
+      </c>
+      <c r="J94" s="47">
+        <v>47612614.936109833</v>
+      </c>
+      <c r="K94" s="47">
+        <v>102297308967305.44</v>
+      </c>
+      <c r="L94" s="42">
+        <v>24.130256357379171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F95" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G95" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H95" s="47">
+        <v>231831239.22523117</v>
+      </c>
+      <c r="I95" s="47">
+        <v>-502670.22523114504</v>
+      </c>
+      <c r="J95" s="47">
+        <v>45613221.980450429</v>
+      </c>
+      <c r="K95" s="47">
+        <v>99259483026370.063</v>
+      </c>
+      <c r="L95" s="42">
+        <v>21.422132711337188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F96" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G96" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H96" s="47">
+        <v>231856642.24401185</v>
+      </c>
+      <c r="I96" s="47">
+        <v>-528073.24401188991</v>
+      </c>
+      <c r="J96" s="47">
+        <v>45399930.591654703</v>
+      </c>
+      <c r="K96" s="47">
+        <v>95303388336921.344</v>
+      </c>
+      <c r="L96" s="42">
+        <v>18.954786162613686</v>
+      </c>
+    </row>
+    <row r="97" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H97" s="47">
+        <v>231911908.50452968</v>
+      </c>
+      <c r="I97" s="47">
+        <v>-583339.50452961447</v>
+      </c>
+      <c r="J97" s="47">
+        <v>46709783.224530645</v>
+      </c>
+      <c r="K97" s="47">
+        <v>92451205248322.063</v>
+      </c>
+      <c r="L97" s="42">
+        <v>18.274621389364487</v>
+      </c>
+    </row>
+    <row r="98" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G98" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H98" s="47">
+        <v>231971060.0800865</v>
+      </c>
+      <c r="I98" s="47">
+        <v>-642491.08008653461</v>
+      </c>
+      <c r="J98" s="47">
+        <v>49551004.092338897</v>
+      </c>
+      <c r="K98" s="47">
+        <v>91661551502995.406</v>
+      </c>
+      <c r="L98" s="42">
+        <v>20.009509845734204</v>
+      </c>
+    </row>
+    <row r="99" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F99" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G99" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H99" s="47">
+        <v>232020212.32580766</v>
+      </c>
+      <c r="I99" s="47">
+        <v>-691643.3258077458</v>
+      </c>
+      <c r="J99" s="47">
+        <v>51061974.280647486</v>
+      </c>
+      <c r="K99" s="47">
+        <v>93702304076370.109</v>
+      </c>
+      <c r="L99" s="42">
+        <v>21.010917156706959</v>
+      </c>
+    </row>
+    <row r="100" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F100" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G100" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H100" s="47">
+        <v>232052061.23720196</v>
+      </c>
+      <c r="I100" s="47">
+        <v>-723492.23720192676</v>
+      </c>
+      <c r="J100" s="47">
+        <v>53240489.030860931</v>
+      </c>
+      <c r="K100" s="47">
+        <v>99554642807666.453</v>
+      </c>
+      <c r="L100" s="42">
+        <v>21.843774302726533</v>
+      </c>
+    </row>
+    <row r="101" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F101" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G101" s="47">
+        <v>234173695</v>
+      </c>
+      <c r="H101" s="47">
+        <v>232067011.06983179</v>
+      </c>
+      <c r="I101" s="47">
+        <v>-738442.06983183837</v>
+      </c>
+      <c r="J101" s="47">
+        <v>56526043.806480713</v>
+      </c>
+      <c r="K101" s="47">
+        <v>110596342313258.27</v>
+      </c>
+      <c r="L101" s="42">
+        <v>22.522497445676596</v>
+      </c>
+    </row>
+    <row r="102" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+    </row>
+    <row r="103" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+    </row>
+    <row r="104" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F105" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G105" s="46">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H105" s="46">
+        <v>3114054.0383851468</v>
+      </c>
+      <c r="I105" s="46">
+        <v>-29673.118385146001</v>
+      </c>
+      <c r="J105" s="46">
+        <v>616220.6562921541</v>
+      </c>
+      <c r="K105" s="46">
+        <v>1348043202273.8975</v>
+      </c>
+      <c r="L105" s="44">
+        <v>0.31250278544619503</v>
+      </c>
+    </row>
+    <row r="106" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F106" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G106" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H106" s="47">
+        <v>3092749.1529812152</v>
+      </c>
+      <c r="I106" s="47">
+        <v>-8368.2329812149273</v>
+      </c>
+      <c r="J106" s="47">
+        <v>634834.86581479781</v>
+      </c>
+      <c r="K106" s="47">
+        <v>1363964119564.0725</v>
+      </c>
+      <c r="L106" s="45">
+        <v>0.32173675143172226</v>
+      </c>
+    </row>
+    <row r="107" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F107" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G107" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H107" s="47">
+        <v>3091083.1896697488</v>
+      </c>
+      <c r="I107" s="47">
+        <v>-6702.2696697486008</v>
+      </c>
+      <c r="J107" s="47">
+        <v>608176.29307267244</v>
+      </c>
+      <c r="K107" s="47">
+        <v>1323459773684.9341</v>
+      </c>
+      <c r="L107" s="45">
+        <v>0.28562843615116251</v>
+      </c>
+    </row>
+    <row r="108" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F108" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G108" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H108" s="47">
+        <v>3091421.8965868247</v>
+      </c>
+      <c r="I108" s="47">
+        <v>-7040.9765868251989</v>
+      </c>
+      <c r="J108" s="47">
+        <v>605332.40788872936</v>
+      </c>
+      <c r="K108" s="47">
+        <v>1270711844492.2847</v>
+      </c>
+      <c r="L108" s="45">
+        <v>0.2527304821681825</v>
+      </c>
+    </row>
+    <row r="109" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F109" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G109" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H109" s="47">
+        <v>3092158.7800603956</v>
+      </c>
+      <c r="I109" s="47">
+        <v>-7777.8600603948598</v>
+      </c>
+      <c r="J109" s="47">
+        <v>622797.10966040858</v>
+      </c>
+      <c r="K109" s="47">
+        <v>1232682736644.2942</v>
+      </c>
+      <c r="L109" s="45">
+        <v>0.24366161852485982</v>
+      </c>
+    </row>
+    <row r="110" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F110" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G110" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H110" s="47">
+        <v>3092947.4677344868</v>
+      </c>
+      <c r="I110" s="47">
+        <v>-8566.5477344871288</v>
+      </c>
+      <c r="J110" s="47">
+        <v>660680.05456451862</v>
+      </c>
+      <c r="K110" s="47">
+        <v>1222154020039.9387</v>
+      </c>
+      <c r="L110" s="45">
+        <v>0.26679346460978937</v>
+      </c>
+    </row>
+    <row r="111" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F111" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G111" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H111" s="47">
+        <v>3093602.8310107687</v>
+      </c>
+      <c r="I111" s="47">
+        <v>-9221.9110107699435</v>
+      </c>
+      <c r="J111" s="47">
+        <v>680826.32374196651</v>
+      </c>
+      <c r="K111" s="47">
+        <v>1249364054351.6016</v>
+      </c>
+      <c r="L111" s="45">
+        <v>0.28014556208942615</v>
+      </c>
+    </row>
+    <row r="112" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G112" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H112" s="47">
+        <v>3094027.4831626927</v>
+      </c>
+      <c r="I112" s="47">
+        <v>-9646.5631626923569</v>
+      </c>
+      <c r="J112" s="47">
+        <v>709873.1870781458</v>
+      </c>
+      <c r="K112" s="47">
+        <v>1327395237435.5527</v>
+      </c>
+      <c r="L112" s="45">
+        <v>0.29125032403635376</v>
+      </c>
+    </row>
+    <row r="113" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G113" s="47">
+        <v>3081232.8289473685</v>
+      </c>
+      <c r="H113" s="47">
+        <v>3094226.8142644237</v>
+      </c>
+      <c r="I113" s="47">
+        <v>-9845.8942644245108</v>
+      </c>
+      <c r="J113" s="47">
+        <v>753680.58408640954</v>
+      </c>
+      <c r="K113" s="47">
+        <v>1474617897510.1101</v>
+      </c>
+      <c r="L113" s="45">
+        <v>0.30029996594235459</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{572A8C30-01E8-4A21-A370-EDCF44CC1EC5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L89">
+      <sortCondition descending="1" ref="K1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/Calculation Bulanan.xlsx
+++ b/document/Calculation Bulanan.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\My Drive (christiankencana28@gmail.com)\College\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E6F6D-65CD-4110-9D68-67CF6655953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C166913-E190-4484-B962-7097F4BAC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
+    <workbookView xWindow="14685" yWindow="45" windowWidth="14070" windowHeight="15585" activeTab="1" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Model SES" sheetId="16" r:id="rId1"/>
     <sheet name="Model DES (Done)" sheetId="28" r:id="rId2"/>
     <sheet name="Model TES" sheetId="43" r:id="rId3"/>
-    <sheet name="Model DES (Done) (2)" sheetId="44" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Model DES (Done) (2)'!$A$1:$L$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
   <si>
     <t>-</t>
   </si>
@@ -4050,9 +4046,9 @@
   </sheetPr>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91:L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14225,3893 +14221,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572A8C30-01E8-4A21-A370-EDCF44CC1EC5}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:O113"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C2" s="38">
-        <v>8547349</v>
-      </c>
-      <c r="D2" s="28">
-        <v>5880426.5510699749</v>
-      </c>
-      <c r="E2" s="28">
-        <v>4408206.5086346269</v>
-      </c>
-      <c r="F2" s="28">
-        <v>7352646.5935053229</v>
-      </c>
-      <c r="G2" s="28">
-        <v>1472220.042435348</v>
-      </c>
-      <c r="H2" s="18">
-        <v>3768539.3740212917</v>
-      </c>
-      <c r="I2" s="9">
-        <v>4778809.6259787083</v>
-      </c>
-      <c r="J2" s="9">
-        <v>4778809.6259787083</v>
-      </c>
-      <c r="K2" s="9">
-        <v>22837021441346.762</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.55909845567072414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43952</v>
-      </c>
-      <c r="C3" s="38">
-        <v>975350</v>
-      </c>
-      <c r="D3" s="28">
-        <v>3256103.5969418734</v>
-      </c>
-      <c r="E3" s="28">
-        <v>4479507.475673411</v>
-      </c>
-      <c r="F3" s="28">
-        <v>2032699.7182103358</v>
-      </c>
-      <c r="G3" s="28">
-        <v>-1223403.8787315376</v>
-      </c>
-      <c r="H3" s="18">
-        <v>5204748.8728413433</v>
-      </c>
-      <c r="I3" s="9">
-        <v>-4229398.8728413433</v>
-      </c>
-      <c r="J3" s="9">
-        <v>4229398.8728413433</v>
-      </c>
-      <c r="K3" s="9">
-        <v>17887814825591.625</v>
-      </c>
-      <c r="L3" s="9">
-        <v>4.3362883814439366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6">
-        <v>44044</v>
-      </c>
-      <c r="C4" s="38">
-        <v>2933156</v>
-      </c>
-      <c r="D4" s="28">
-        <v>2138011.6996177342</v>
-      </c>
-      <c r="E4" s="28">
-        <v>2212159.2338857776</v>
-      </c>
-      <c r="F4" s="28">
-        <v>2063864.1653496907</v>
-      </c>
-      <c r="G4" s="28">
-        <v>-74147.53426804347</v>
-      </c>
-      <c r="H4" s="18">
-        <v>-544011.33860123716</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3477167.3386012372</v>
-      </c>
-      <c r="J4" s="9">
-        <v>3477167.3386012372</v>
-      </c>
-      <c r="K4" s="9">
-        <v>12090692700635.211</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1.1854696233685618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
-        <v>43922</v>
-      </c>
-      <c r="C5" s="38">
-        <v>4665384</v>
-      </c>
-      <c r="D5" s="28">
-        <v>5536857.1938837469</v>
-      </c>
-      <c r="E5" s="28">
-        <v>5702911.3544049487</v>
-      </c>
-      <c r="F5" s="28">
-        <v>5370803.0333625451</v>
-      </c>
-      <c r="G5" s="28">
-        <v>-166054.16052120179</v>
-      </c>
-      <c r="H5" s="18">
-        <v>7487060.1334501803</v>
-      </c>
-      <c r="I5" s="9">
-        <v>-2821676.1334501803</v>
-      </c>
-      <c r="J5" s="9">
-        <v>2821676.1334501803</v>
-      </c>
-      <c r="K5" s="9">
-        <v>7961856202082.3594</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.60481112239639445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>41</v>
-      </c>
-      <c r="B6" s="6">
-        <v>44317</v>
-      </c>
-      <c r="C6" s="38">
-        <v>2916193</v>
-      </c>
-      <c r="D6" s="28">
-        <v>3806139.7142570661</v>
-      </c>
-      <c r="E6" s="28">
-        <v>4106077.9685198548</v>
-      </c>
-      <c r="F6" s="28">
-        <v>3506201.4599942775</v>
-      </c>
-      <c r="G6" s="28">
-        <v>-299938.25426278869</v>
-      </c>
-      <c r="H6" s="18">
-        <v>5276226.8399771098</v>
-      </c>
-      <c r="I6" s="9">
-        <v>-2360033.8399771098</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2360033.8399771098</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5569759725837.1025</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.80928588744884511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6">
-        <v>43862</v>
-      </c>
-      <c r="C7" s="38">
-        <v>6621563</v>
-      </c>
-      <c r="D7" s="28">
-        <v>6250994.7755349874</v>
-      </c>
-      <c r="E7" s="28">
-        <v>5329600.6420848072</v>
-      </c>
-      <c r="F7" s="28">
-        <v>7172388.9089851677</v>
-      </c>
-      <c r="G7" s="28">
-        <v>921394.13345018029</v>
-      </c>
-      <c r="H7" s="18">
-        <v>8824866.635940671</v>
-      </c>
-      <c r="I7" s="9">
-        <v>-2203303.635940671</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2203303.635940671</v>
-      </c>
-      <c r="K7" s="9">
-        <v>4854546912149.3809</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.33274676023480726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45413</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="27">
-        <v>1183655.4068249012</v>
-      </c>
-      <c r="E8" s="27">
-        <v>1848400.5483035531</v>
-      </c>
-      <c r="F8" s="27">
-        <v>518910.26534624933</v>
-      </c>
-      <c r="G8" s="27">
-        <v>-664745.1414786519</v>
-      </c>
-      <c r="H8" s="25">
-        <v>2075641.0613849973</v>
-      </c>
-      <c r="I8" s="25">
-        <v>-2075641.0613849973</v>
-      </c>
-      <c r="J8" s="25">
-        <v>2075641.0613849973</v>
-      </c>
-      <c r="K8" s="25">
-        <v>4308285815707.4385</v>
-      </c>
-      <c r="L8" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
-        <v>43891</v>
-      </c>
-      <c r="C9" s="38">
-        <v>6565666</v>
-      </c>
-      <c r="D9" s="28">
-        <v>6408330.3877674937</v>
-      </c>
-      <c r="E9" s="28">
-        <v>5868965.5149261504</v>
-      </c>
-      <c r="F9" s="28">
-        <v>6947695.260608837</v>
-      </c>
-      <c r="G9" s="28">
-        <v>539364.87284134328</v>
-      </c>
-      <c r="H9" s="18">
-        <v>8093783.042435348</v>
-      </c>
-      <c r="I9" s="9">
-        <v>-1528117.042435348</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1528117.042435348</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2335141695381.3555</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.232743645874668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6">
-        <v>44075</v>
-      </c>
-      <c r="C10" s="38">
-        <v>3476412</v>
-      </c>
-      <c r="D10" s="28">
-        <v>2807211.8498088671</v>
-      </c>
-      <c r="E10" s="28">
-        <v>2509685.5418473221</v>
-      </c>
-      <c r="F10" s="28">
-        <v>3104738.157770412</v>
-      </c>
-      <c r="G10" s="28">
-        <v>297526.30796154495</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1989716.6310816472</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1486695.3689183528</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1486695.3689183528</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2210263119963.2769</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.42765223711066258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
-        <v>43800</v>
-      </c>
-      <c r="C11" s="38">
-        <v>3850557</v>
-      </c>
-      <c r="D11" s="28">
-        <v>3213504.1021399498</v>
-      </c>
-      <c r="E11" s="28">
-        <v>2935986.4661992788</v>
-      </c>
-      <c r="F11" s="28">
-        <v>3491021.7380806208</v>
-      </c>
-      <c r="G11" s="28">
-        <v>277517.63594067097</v>
-      </c>
-      <c r="H11" s="18">
-        <v>2412415.9523224831</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1438141.0476775169</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1438141.0476775169</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2068249673014.9861</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.37348909461086199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44013</v>
-      </c>
-      <c r="C12" s="38">
-        <v>705750</v>
-      </c>
-      <c r="D12" s="28">
-        <v>1342867.3992354684</v>
-      </c>
-      <c r="E12" s="28">
-        <v>2286306.7681538211</v>
-      </c>
-      <c r="F12" s="28">
-        <v>399428.0303171156</v>
-      </c>
-      <c r="G12" s="28">
-        <v>-943439.36891835276</v>
-      </c>
-      <c r="H12" s="18">
-        <v>-519537.87873153761</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1225287.8787315376</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1225287.8787315376</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1501330385766.4312</v>
-      </c>
-      <c r="L12" s="9">
-        <v>1.7361500229989906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6">
-        <v>44440</v>
-      </c>
-      <c r="C13" s="38">
-        <v>3090396</v>
-      </c>
-      <c r="D13" s="28">
-        <v>3633494.4196410663</v>
-      </c>
-      <c r="E13" s="28">
-        <v>3880246.9623146239</v>
-      </c>
-      <c r="F13" s="28">
-        <v>3386741.8769675088</v>
-      </c>
-      <c r="G13" s="28">
-        <v>-246752.54267355753</v>
-      </c>
-      <c r="H13" s="18">
-        <v>4275779.5078700371</v>
-      </c>
-      <c r="I13" s="9">
-        <v>-1185383.5078700371</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1185383.5078700371</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1405134060730.2744</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0.38357010165365124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44197</v>
-      </c>
-      <c r="C14" s="38">
-        <v>4495650</v>
-      </c>
-      <c r="D14" s="28">
-        <v>3801222.4281130545</v>
-      </c>
-      <c r="E14" s="28">
-        <v>3390866.6400915664</v>
-      </c>
-      <c r="F14" s="28">
-        <v>4211578.2161345426</v>
-      </c>
-      <c r="G14" s="28">
-        <v>410355.78802148812</v>
-      </c>
-      <c r="H14" s="18">
-        <v>3359362.864538169</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1136287.135461831</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1136287.135461831</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1291148454216.0535</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0.25275257981867605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6">
-        <v>43617</v>
-      </c>
-      <c r="C15" s="38">
-        <v>1788742</v>
-      </c>
-      <c r="D15" s="28">
-        <v>2326497.5369567871</v>
-      </c>
-      <c r="E15" s="28">
-        <v>2595920.2258834839</v>
-      </c>
-      <c r="F15" s="28">
-        <v>2057074.8480300903</v>
-      </c>
-      <c r="G15" s="28">
-        <v>-269422.68892669678</v>
-      </c>
-      <c r="H15" s="18">
-        <v>2862073.3921203613</v>
-      </c>
-      <c r="I15" s="9">
-        <v>-1073331.3921203613</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1073331.3921203613</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1152040277311.033</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.60004818588726672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6">
-        <v>43160</v>
-      </c>
-      <c r="C16" s="38">
-        <v>3751325</v>
-      </c>
-      <c r="D16" s="28">
-        <v>3274709</v>
-      </c>
-      <c r="E16" s="28">
-        <v>3048159.25</v>
-      </c>
-      <c r="F16" s="28">
-        <v>3501258.75</v>
-      </c>
-      <c r="G16" s="28">
-        <v>226549.75</v>
-      </c>
-      <c r="H16" s="18">
-        <v>2751060</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1000265</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1000265</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1000530070225</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0.26664311943113433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6">
-        <v>43647</v>
-      </c>
-      <c r="C17" s="38">
-        <v>2652909</v>
-      </c>
-      <c r="D17" s="28">
-        <v>2489703.2684783936</v>
-      </c>
-      <c r="E17" s="28">
-        <v>2542811.7471809387</v>
-      </c>
-      <c r="F17" s="28">
-        <v>2436594.7897758484</v>
-      </c>
-      <c r="G17" s="28">
-        <v>-53108.478702545166</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1787652.1591033936</v>
-      </c>
-      <c r="I17" s="9">
-        <v>865256.84089660645</v>
-      </c>
-      <c r="J17" s="9">
-        <v>865256.84089660645</v>
-      </c>
-      <c r="K17" s="9">
-        <v>748669400718.37537</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0.32615398451157068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>42</v>
-      </c>
-      <c r="B18" s="6">
-        <v>44348</v>
-      </c>
-      <c r="C18" s="38">
-        <v>4053647</v>
-      </c>
-      <c r="D18" s="28">
-        <v>3929893.3571285331</v>
-      </c>
-      <c r="E18" s="28">
-        <v>4017985.6628241939</v>
-      </c>
-      <c r="F18" s="28">
-        <v>3841801.0514328722</v>
-      </c>
-      <c r="G18" s="28">
-        <v>-88092.305695660878</v>
-      </c>
-      <c r="H18" s="18">
-        <v>3206263.2057314888</v>
-      </c>
-      <c r="I18" s="9">
-        <v>847383.79426851124</v>
-      </c>
-      <c r="J18" s="9">
-        <v>847383.79426851124</v>
-      </c>
-      <c r="K18" s="9">
-        <v>718059294788.89856</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.20904232516262794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6">
-        <v>43221</v>
-      </c>
-      <c r="C19" s="38">
-        <v>2733224</v>
-      </c>
-      <c r="D19" s="28">
-        <v>3022876.75</v>
-      </c>
-      <c r="E19" s="28">
-        <v>3101610.5625</v>
-      </c>
-      <c r="F19" s="28">
-        <v>2944142.9375</v>
-      </c>
-      <c r="G19" s="28">
-        <v>-78733.8125</v>
-      </c>
-      <c r="H19" s="18">
-        <v>3576899.75</v>
-      </c>
-      <c r="I19" s="9">
-        <v>-843675.75</v>
-      </c>
-      <c r="J19" s="9">
-        <v>843675.75</v>
-      </c>
-      <c r="K19" s="9">
-        <v>711788771138.0625</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0.30867420672436652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>73</v>
-      </c>
-      <c r="B20" s="6">
-        <v>45292</v>
-      </c>
-      <c r="C20" s="38">
-        <v>2847896</v>
-      </c>
-      <c r="D20" s="28">
-        <v>2592763.5091984216</v>
-      </c>
-      <c r="E20" s="28">
-        <v>2546570.7544600102</v>
-      </c>
-      <c r="F20" s="28">
-        <v>2638956.263936833</v>
-      </c>
-      <c r="G20" s="28">
-        <v>46192.7547384114</v>
-      </c>
-      <c r="H20" s="18">
-        <v>2012137.0557473307</v>
-      </c>
-      <c r="I20" s="9">
-        <v>835758.94425266935</v>
-      </c>
-      <c r="J20" s="9">
-        <v>835758.94425266935</v>
-      </c>
-      <c r="K20" s="9">
-        <v>698493012898.33643</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0.2934654019151926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>76</v>
-      </c>
-      <c r="B21" s="6">
-        <v>45383</v>
-      </c>
-      <c r="C21" s="38">
-        <v>2020844</v>
-      </c>
-      <c r="D21" s="28">
-        <v>2367310.8136498025</v>
-      </c>
-      <c r="E21" s="28">
-        <v>2513145.689782205</v>
-      </c>
-      <c r="F21" s="28">
-        <v>2221475.9375173999</v>
-      </c>
-      <c r="G21" s="28">
-        <v>-145834.87613240257</v>
-      </c>
-      <c r="H21" s="18">
-        <v>2823371.750069601</v>
-      </c>
-      <c r="I21" s="9">
-        <v>-802527.750069601</v>
-      </c>
-      <c r="J21" s="9">
-        <v>802527.750069601</v>
-      </c>
-      <c r="K21" s="9">
-        <v>644050789631.776</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.39712503788991182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>64</v>
-      </c>
-      <c r="B22" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C22" s="38">
-        <v>2020844</v>
-      </c>
-      <c r="D22" s="28">
-        <v>2395274.7095917123</v>
-      </c>
-      <c r="E22" s="28">
-        <v>2588962.0903624515</v>
-      </c>
-      <c r="F22" s="28">
-        <v>2201587.3288209732</v>
-      </c>
-      <c r="G22" s="28">
-        <v>-193687.38077073917</v>
-      </c>
-      <c r="H22" s="18">
-        <v>2743817.3152838927</v>
-      </c>
-      <c r="I22" s="9">
-        <v>-722973.31528389268</v>
-      </c>
-      <c r="J22" s="9">
-        <v>722973.31528389268</v>
-      </c>
-      <c r="K22" s="9">
-        <v>522690414612.58289</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.35775810269565222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>65</v>
-      </c>
-      <c r="B23" s="6">
-        <v>45047</v>
-      </c>
-      <c r="C23" s="38">
-        <v>2682804</v>
-      </c>
-      <c r="D23" s="28">
-        <v>2539039.3547958564</v>
-      </c>
-      <c r="E23" s="28">
-        <v>2564000.7225791542</v>
-      </c>
-      <c r="F23" s="28">
-        <v>2514077.9870125586</v>
-      </c>
-      <c r="G23" s="28">
-        <v>-24961.367783297785</v>
-      </c>
-      <c r="H23" s="18">
-        <v>2007899.948050234</v>
-      </c>
-      <c r="I23" s="9">
-        <v>674904.051949766</v>
-      </c>
-      <c r="J23" s="9">
-        <v>674904.051949766</v>
-      </c>
-      <c r="K23" s="9">
-        <v>455495479338.21246</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0.25156666381508525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>79</v>
-      </c>
-      <c r="B24" s="6">
-        <v>45474</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="27">
-        <v>295913.85170622531</v>
-      </c>
-      <c r="E24" s="27">
-        <v>758013.98878211365</v>
-      </c>
-      <c r="F24" s="27">
-        <v>-166186.28536966303</v>
-      </c>
-      <c r="G24" s="27">
-        <v>-462100.13707588834</v>
-      </c>
-      <c r="H24" s="25">
-        <v>-664745.1414786519</v>
-      </c>
-      <c r="I24" s="25">
-        <v>664745.1414786519</v>
-      </c>
-      <c r="J24" s="25">
-        <v>664745.1414786519</v>
-      </c>
-      <c r="K24" s="25">
-        <v>441886103119.47296</v>
-      </c>
-      <c r="L24" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>80</v>
-      </c>
-      <c r="B25" s="6">
-        <v>45505</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="27">
-        <v>147956.92585311265</v>
-      </c>
-      <c r="E25" s="27">
-        <v>452985.45731761318</v>
-      </c>
-      <c r="F25" s="27">
-        <v>-157071.60561138787</v>
-      </c>
-      <c r="G25" s="27">
-        <v>-305028.53146450053</v>
-      </c>
-      <c r="H25" s="25">
-        <v>-628286.42244555138</v>
-      </c>
-      <c r="I25" s="25">
-        <v>628286.42244555138</v>
-      </c>
-      <c r="J25" s="25">
-        <v>628286.42244555138</v>
-      </c>
-      <c r="K25" s="25">
-        <v>394743828629.42987</v>
-      </c>
-      <c r="L25" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>72</v>
-      </c>
-      <c r="B26" s="6">
-        <v>45261</v>
-      </c>
-      <c r="C26" s="38">
-        <v>2022755</v>
-      </c>
-      <c r="D26" s="28">
-        <v>2337631.0183968428</v>
-      </c>
-      <c r="E26" s="28">
-        <v>2500377.9997215988</v>
-      </c>
-      <c r="F26" s="28">
-        <v>2174884.0370720867</v>
-      </c>
-      <c r="G26" s="28">
-        <v>-162746.98132475605</v>
-      </c>
-      <c r="H26" s="18">
-        <v>2631271.1482883459</v>
-      </c>
-      <c r="I26" s="9">
-        <v>-608516.1482883459</v>
-      </c>
-      <c r="J26" s="9">
-        <v>608516.1482883459</v>
-      </c>
-      <c r="K26" s="9">
-        <v>370291902727.68414</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0.30083532028760079</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>43</v>
-      </c>
-      <c r="B27" s="6">
-        <v>44378</v>
-      </c>
-      <c r="C27" s="38">
-        <v>4343760</v>
-      </c>
-      <c r="D27" s="28">
-        <v>4136826.6785642663</v>
-      </c>
-      <c r="E27" s="28">
-        <v>4077406.1706942301</v>
-      </c>
-      <c r="F27" s="28">
-        <v>4196247.1864343025</v>
-      </c>
-      <c r="G27" s="28">
-        <v>59420.507870036177</v>
-      </c>
-      <c r="H27" s="18">
-        <v>3753708.7457372113</v>
-      </c>
-      <c r="I27" s="9">
-        <v>590051.25426278869</v>
-      </c>
-      <c r="J27" s="9">
-        <v>590051.25426278869</v>
-      </c>
-      <c r="K27" s="9">
-        <v>348160482657.09009</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0.1358388249495342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6">
-        <v>43770</v>
-      </c>
-      <c r="C28" s="38">
-        <v>2364790</v>
-      </c>
-      <c r="D28" s="28">
-        <v>2576451.2042798996</v>
-      </c>
-      <c r="E28" s="28">
-        <v>2658468.8302586079</v>
-      </c>
-      <c r="F28" s="28">
-        <v>2494433.5783011913</v>
-      </c>
-      <c r="G28" s="28">
-        <v>-82017.625978708267</v>
-      </c>
-      <c r="H28" s="18">
-        <v>2883364.3132047653</v>
-      </c>
-      <c r="I28" s="9">
-        <v>-518574.31320476532</v>
-      </c>
-      <c r="J28" s="9">
-        <v>518574.31320476532</v>
-      </c>
-      <c r="K28" s="9">
-        <v>268919318315.79404</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0.21928979452922473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>51</v>
-      </c>
-      <c r="B29" s="6">
-        <v>44621</v>
-      </c>
-      <c r="C29" s="38">
-        <v>2891190</v>
-      </c>
-      <c r="D29" s="28">
-        <v>2797746.9753068918</v>
-      </c>
-      <c r="E29" s="28">
-        <v>2831599.9097068412</v>
-      </c>
-      <c r="F29" s="28">
-        <v>2763894.0409069424</v>
-      </c>
-      <c r="G29" s="28">
-        <v>-33852.934399949387</v>
-      </c>
-      <c r="H29" s="18">
-        <v>2382006.1636277693</v>
-      </c>
-      <c r="I29" s="9">
-        <v>509183.83637223067</v>
-      </c>
-      <c r="J29" s="9">
-        <v>509183.83637223067</v>
-      </c>
-      <c r="K29" s="9">
-        <v>259268179222.74258</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0.17611566046238078</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6">
-        <v>43282</v>
-      </c>
-      <c r="C30" s="38">
-        <v>2919192</v>
-      </c>
-      <c r="D30" s="28">
-        <v>2845865.6875</v>
-      </c>
-      <c r="E30" s="28">
-        <v>2891470.328125</v>
-      </c>
-      <c r="F30" s="28">
-        <v>2800261.046875</v>
-      </c>
-      <c r="G30" s="28">
-        <v>-45604.640625</v>
-      </c>
-      <c r="H30" s="18">
-        <v>2443468.1875</v>
-      </c>
-      <c r="I30" s="9">
-        <v>475723.8125</v>
-      </c>
-      <c r="J30" s="9">
-        <v>475723.8125</v>
-      </c>
-      <c r="K30" s="9">
-        <v>226313145779.53516</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0.16296420807538525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>59</v>
-      </c>
-      <c r="B31" s="6">
-        <v>44866</v>
-      </c>
-      <c r="C31" s="38">
-        <v>2624100</v>
-      </c>
-      <c r="D31" s="28">
-        <v>2796648.7069347925</v>
-      </c>
-      <c r="E31" s="28">
-        <v>2852138.1242614621</v>
-      </c>
-      <c r="F31" s="28">
-        <v>2741159.2896081228</v>
-      </c>
-      <c r="G31" s="28">
-        <v>-55489.417326669674</v>
-      </c>
-      <c r="H31" s="18">
-        <v>3092337.1584324902</v>
-      </c>
-      <c r="I31" s="9">
-        <v>-468237.15843249019</v>
-      </c>
-      <c r="J31" s="9">
-        <v>468237.15843249019</v>
-      </c>
-      <c r="K31" s="9">
-        <v>219246036536.93292</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0.17843723883712137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>81</v>
-      </c>
-      <c r="B32" s="6">
-        <v>45536</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="27">
-        <v>73978.462926556327</v>
-      </c>
-      <c r="E32" s="27">
-        <v>263481.96012208477</v>
-      </c>
-      <c r="F32" s="27">
-        <v>-115525.03426897211</v>
-      </c>
-      <c r="G32" s="27">
-        <v>-189503.49719552844</v>
-      </c>
-      <c r="H32" s="25">
-        <v>-462100.1370758884</v>
-      </c>
-      <c r="I32" s="25">
-        <v>462100.1370758884</v>
-      </c>
-      <c r="J32" s="25">
-        <v>462100.1370758884</v>
-      </c>
-      <c r="K32" s="25">
-        <v>213536536685.55484</v>
-      </c>
-      <c r="L32" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>53</v>
-      </c>
-      <c r="B33" s="6">
-        <v>44682</v>
-      </c>
-      <c r="C33" s="38">
-        <v>2490700</v>
-      </c>
-      <c r="D33" s="28">
-        <v>2683111.2438267227</v>
-      </c>
-      <c r="E33" s="28">
-        <v>2768336.2212534333</v>
-      </c>
-      <c r="F33" s="28">
-        <v>2597886.2664000122</v>
-      </c>
-      <c r="G33" s="28">
-        <v>-85224.977426710539</v>
-      </c>
-      <c r="H33" s="18">
-        <v>2919445.0656000501</v>
-      </c>
-      <c r="I33" s="9">
-        <v>-428745.06560005015</v>
-      </c>
-      <c r="J33" s="9">
-        <v>428745.06560005015</v>
-      </c>
-      <c r="K33" s="9">
-        <v>183822331276.3913</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0.17213838101740481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>20</v>
-      </c>
-      <c r="B34" s="6">
-        <v>43678</v>
-      </c>
-      <c r="C34" s="38">
-        <v>2803490</v>
-      </c>
-      <c r="D34" s="28">
-        <v>2646596.6342391968</v>
-      </c>
-      <c r="E34" s="28">
-        <v>2594704.1907100677</v>
-      </c>
-      <c r="F34" s="28">
-        <v>2698489.0777683258</v>
-      </c>
-      <c r="G34" s="28">
-        <v>51892.443529129028</v>
-      </c>
-      <c r="H34" s="18">
-        <v>2383486.3110733032</v>
-      </c>
-      <c r="I34" s="9">
-        <v>420003.68892669678</v>
-      </c>
-      <c r="J34" s="9">
-        <v>420003.68892669678</v>
-      </c>
-      <c r="K34" s="9">
-        <v>176403098712.03348</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0.14981458429553762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>12</v>
-      </c>
-      <c r="B35" s="6">
-        <v>43435</v>
-      </c>
-      <c r="C35" s="38">
-        <v>2560882</v>
-      </c>
-      <c r="D35" s="28">
-        <v>2745272.365234375</v>
-      </c>
-      <c r="E35" s="28">
-        <v>2827004.3608398438</v>
-      </c>
-      <c r="F35" s="28">
-        <v>2663540.3696289063</v>
-      </c>
-      <c r="G35" s="28">
-        <v>-81731.99560546875</v>
-      </c>
-      <c r="H35" s="18">
-        <v>2971515.478515625</v>
-      </c>
-      <c r="I35" s="9">
-        <v>-410633.478515625</v>
-      </c>
-      <c r="J35" s="9">
-        <v>410633.478515625</v>
-      </c>
-      <c r="K35" s="9">
-        <v>168619853677.84225</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0.16034845749067117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>44136</v>
-      </c>
-      <c r="C36" s="38">
-        <v>3007725</v>
-      </c>
-      <c r="D36" s="28">
-        <v>2978736.712452217</v>
-      </c>
-      <c r="E36" s="28">
-        <v>2854226.8479140475</v>
-      </c>
-      <c r="F36" s="28">
-        <v>3103246.5769903865</v>
-      </c>
-      <c r="G36" s="28">
-        <v>124509.86453816947</v>
-      </c>
-      <c r="H36" s="18">
-        <v>3389811.3079615445</v>
-      </c>
-      <c r="I36" s="9">
-        <v>-382086.30796154449</v>
-      </c>
-      <c r="J36" s="9">
-        <v>382086.30796154449</v>
-      </c>
-      <c r="K36" s="9">
-        <v>145989946731.6842</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0.12703498756087889</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6">
-        <v>43191</v>
-      </c>
-      <c r="C37" s="38">
-        <v>3350350</v>
-      </c>
-      <c r="D37" s="28">
-        <v>3312529.5</v>
-      </c>
-      <c r="E37" s="28">
-        <v>3180344.375</v>
-      </c>
-      <c r="F37" s="28">
-        <v>3444714.625</v>
-      </c>
-      <c r="G37" s="28">
-        <v>132185.125</v>
-      </c>
-      <c r="H37" s="18">
-        <v>3727808.5</v>
-      </c>
-      <c r="I37" s="9">
-        <v>-377458.5</v>
-      </c>
-      <c r="J37" s="9">
-        <v>377458.5</v>
-      </c>
-      <c r="K37" s="9">
-        <v>142474919222.25</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0.11266240840509201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>49</v>
-      </c>
-      <c r="B38" s="6">
-        <v>44562</v>
-      </c>
-      <c r="C38" s="38">
-        <v>2880606</v>
-      </c>
-      <c r="D38" s="28">
-        <v>2910082.9012275664</v>
-      </c>
-      <c r="E38" s="28">
-        <v>3026601.7375997971</v>
-      </c>
-      <c r="F38" s="28">
-        <v>2793564.0648553357</v>
-      </c>
-      <c r="G38" s="28">
-        <v>-116518.83637223067</v>
-      </c>
-      <c r="H38" s="18">
-        <v>2532438.2594213444</v>
-      </c>
-      <c r="I38" s="9">
-        <v>348167.74057865562</v>
-      </c>
-      <c r="J38" s="9">
-        <v>348167.74057865562</v>
-      </c>
-      <c r="K38" s="9">
-        <v>121220775579.64604</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0.1208661443386064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6">
-        <v>43252</v>
-      </c>
-      <c r="C39" s="38">
-        <v>2522202</v>
-      </c>
-      <c r="D39" s="28">
-        <v>2772539.375</v>
-      </c>
-      <c r="E39" s="28">
-        <v>2937074.96875</v>
-      </c>
-      <c r="F39" s="28">
-        <v>2608003.78125</v>
-      </c>
-      <c r="G39" s="28">
-        <v>-164535.59375</v>
-      </c>
-      <c r="H39" s="18">
-        <v>2865409.125</v>
-      </c>
-      <c r="I39" s="9">
-        <v>-343207.125</v>
-      </c>
-      <c r="J39" s="9">
-        <v>343207.125</v>
-      </c>
-      <c r="K39" s="9">
-        <v>117791130650.76563</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0.13607440046435615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>40</v>
-      </c>
-      <c r="B40" s="6">
-        <v>44287</v>
-      </c>
-      <c r="C40" s="38">
-        <v>4902821</v>
-      </c>
-      <c r="D40" s="28">
-        <v>4696086.4285141323</v>
-      </c>
-      <c r="E40" s="28">
-        <v>4406016.2227826435</v>
-      </c>
-      <c r="F40" s="28">
-        <v>4986156.634245621</v>
-      </c>
-      <c r="G40" s="28">
-        <v>290070.20573148876</v>
-      </c>
-      <c r="H40" s="18">
-        <v>5236163.5369824804</v>
-      </c>
-      <c r="I40" s="9">
-        <v>-333342.53698248044</v>
-      </c>
-      <c r="J40" s="9">
-        <v>333342.53698248044</v>
-      </c>
-      <c r="K40" s="9">
-        <v>111117246961.91634</v>
-      </c>
-      <c r="L40" s="9">
-        <v>6.7989946396672538E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>34</v>
-      </c>
-      <c r="B41" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C41" s="38">
-        <v>3092285</v>
-      </c>
-      <c r="D41" s="28">
-        <v>2949748.4249044335</v>
-      </c>
-      <c r="E41" s="28">
-        <v>2729716.9833758781</v>
-      </c>
-      <c r="F41" s="28">
-        <v>3169779.866432989</v>
-      </c>
-      <c r="G41" s="28">
-        <v>220031.44152855547</v>
-      </c>
-      <c r="H41" s="18">
-        <v>3402264.465731957</v>
-      </c>
-      <c r="I41" s="9">
-        <v>-309979.465731957</v>
-      </c>
-      <c r="J41" s="9">
-        <v>309979.465731957</v>
-      </c>
-      <c r="K41" s="9">
-        <v>96087269175.469498</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0.10024285139693043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>82</v>
-      </c>
-      <c r="B42" s="6">
-        <v>45566</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="27">
-        <v>36989.231463278164</v>
-      </c>
-      <c r="E42" s="27">
-        <v>150235.59579268147</v>
-      </c>
-      <c r="F42" s="27">
-        <v>-76257.132866125146</v>
-      </c>
-      <c r="G42" s="27">
-        <v>-113246.36432940331</v>
-      </c>
-      <c r="H42" s="25">
-        <v>-305028.53146450059</v>
-      </c>
-      <c r="I42" s="25">
-        <v>305028.53146450059</v>
-      </c>
-      <c r="J42" s="25">
-        <v>305028.53146450059</v>
-      </c>
-      <c r="K42" s="25">
-        <v>93042405007.389816</v>
-      </c>
-      <c r="L42" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>13</v>
-      </c>
-      <c r="B43" s="6">
-        <v>43466</v>
-      </c>
-      <c r="C43" s="38">
-        <v>2886252</v>
-      </c>
-      <c r="D43" s="28">
-        <v>2815762.1826171875</v>
-      </c>
-      <c r="E43" s="28">
-        <v>2821383.2717285156</v>
-      </c>
-      <c r="F43" s="28">
-        <v>2810141.0935058594</v>
-      </c>
-      <c r="G43" s="28">
-        <v>-5621.089111328125</v>
-      </c>
-      <c r="H43" s="18">
-        <v>2581808.3740234375</v>
-      </c>
-      <c r="I43" s="9">
-        <v>304443.6259765625</v>
-      </c>
-      <c r="J43" s="9">
-        <v>304443.6259765625</v>
-      </c>
-      <c r="K43" s="9">
-        <v>92685921397.75708</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0.10548061152545325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>9</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43344</v>
-      </c>
-      <c r="C44" s="38">
-        <v>2895828</v>
-      </c>
-      <c r="D44" s="28">
-        <v>2834503.921875</v>
-      </c>
-      <c r="E44" s="28">
-        <v>2833414.50390625</v>
-      </c>
-      <c r="F44" s="28">
-        <v>2835593.33984375</v>
-      </c>
-      <c r="G44" s="28">
-        <v>1089.41796875</v>
-      </c>
-      <c r="H44" s="18">
-        <v>2654889.359375</v>
-      </c>
-      <c r="I44" s="9">
-        <v>240938.640625</v>
-      </c>
-      <c r="J44" s="9">
-        <v>240938.640625</v>
-      </c>
-      <c r="K44" s="9">
-        <v>58051428546.2229</v>
-      </c>
-      <c r="L44" s="9">
-        <v>8.3201985969125244E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>38</v>
-      </c>
-      <c r="B45" s="6">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="38">
-        <v>4387205</v>
-      </c>
-      <c r="D45" s="28">
-        <v>4094213.7140565272</v>
-      </c>
-      <c r="E45" s="28">
-        <v>3742540.1770740468</v>
-      </c>
-      <c r="F45" s="28">
-        <v>4445887.2510390077</v>
-      </c>
-      <c r="G45" s="28">
-        <v>351673.53698248044</v>
-      </c>
-      <c r="H45" s="18">
-        <v>4621934.0041560307</v>
-      </c>
-      <c r="I45" s="9">
-        <v>-234729.00415603071</v>
-      </c>
-      <c r="J45" s="9">
-        <v>234729.00415603071</v>
-      </c>
-      <c r="K45" s="9">
-        <v>55097705392.081886</v>
-      </c>
-      <c r="L45" s="9">
-        <v>5.3503085485184919E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>48</v>
-      </c>
-      <c r="B46" s="6">
-        <v>44531</v>
-      </c>
-      <c r="C46" s="38">
-        <v>2794340</v>
-      </c>
-      <c r="D46" s="28">
-        <v>2939559.8024551333</v>
-      </c>
-      <c r="E46" s="28">
-        <v>3143120.5739720277</v>
-      </c>
-      <c r="F46" s="28">
-        <v>2735999.0309382388</v>
-      </c>
-      <c r="G46" s="28">
-        <v>-203560.77151689446</v>
-      </c>
-      <c r="H46" s="18">
-        <v>2560976.1237529544</v>
-      </c>
-      <c r="I46" s="9">
-        <v>233363.87624704558</v>
-      </c>
-      <c r="J46" s="9">
-        <v>233363.87624704558</v>
-      </c>
-      <c r="K46" s="9">
-        <v>54458698737.04641</v>
-      </c>
-      <c r="L46" s="9">
-        <v>8.3513057196706764E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>14</v>
-      </c>
-      <c r="B47" s="6">
-        <v>43497</v>
-      </c>
-      <c r="C47" s="38">
-        <v>3029509</v>
-      </c>
-      <c r="D47" s="28">
-        <v>2922635.5913085938</v>
-      </c>
-      <c r="E47" s="28">
-        <v>2872009.4315185547</v>
-      </c>
-      <c r="F47" s="28">
-        <v>2973261.7510986328</v>
-      </c>
-      <c r="G47" s="28">
-        <v>50626.159790039063</v>
-      </c>
-      <c r="H47" s="18">
-        <v>2804520.0043945313</v>
-      </c>
-      <c r="I47" s="9">
-        <v>224988.99560546875</v>
-      </c>
-      <c r="J47" s="9">
-        <v>224988.99560546875</v>
-      </c>
-      <c r="K47" s="9">
-        <v>50620048143.55764</v>
-      </c>
-      <c r="L47" s="9">
-        <v>7.4265828424826846E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>52</v>
-      </c>
-      <c r="B48" s="6">
-        <v>44652</v>
-      </c>
-      <c r="C48" s="38">
-        <v>2953298</v>
-      </c>
-      <c r="D48" s="28">
-        <v>2875522.4876534459</v>
-      </c>
-      <c r="E48" s="28">
-        <v>2853561.1986801438</v>
-      </c>
-      <c r="F48" s="28">
-        <v>2897483.776626748</v>
-      </c>
-      <c r="G48" s="28">
-        <v>21961.288973302115</v>
-      </c>
-      <c r="H48" s="18">
-        <v>2730041.1065069931</v>
-      </c>
-      <c r="I48" s="9">
-        <v>223256.89349300694</v>
-      </c>
-      <c r="J48" s="9">
-        <v>223256.89349300694</v>
-      </c>
-      <c r="K48" s="9">
-        <v>49843640492.147842</v>
-      </c>
-      <c r="L48" s="9">
-        <v>7.5595789349062276E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>55</v>
-      </c>
-      <c r="B49" s="6">
-        <v>44743</v>
-      </c>
-      <c r="C49" s="38">
-        <v>2843112</v>
-      </c>
-      <c r="D49" s="28">
-        <v>2768961.3109566807</v>
-      </c>
-      <c r="E49" s="28">
-        <v>2750267.3662700392</v>
-      </c>
-      <c r="F49" s="28">
-        <v>2787655.2556433221</v>
-      </c>
-      <c r="G49" s="28">
-        <v>18693.944686641451</v>
-      </c>
-      <c r="H49" s="18">
-        <v>2621285.0225732895</v>
-      </c>
-      <c r="I49" s="9">
-        <v>221826.97742671054</v>
-      </c>
-      <c r="J49" s="9">
-        <v>221826.97742671054</v>
-      </c>
-      <c r="K49" s="9">
-        <v>49207207914.270348</v>
-      </c>
-      <c r="L49" s="9">
-        <v>7.8022595461139252E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>10</v>
-      </c>
-      <c r="B50" s="6">
-        <v>43374</v>
-      </c>
-      <c r="C50" s="38">
-        <v>3049907</v>
-      </c>
-      <c r="D50" s="28">
-        <v>2942205.4609375</v>
-      </c>
-      <c r="E50" s="28">
-        <v>2887809.982421875</v>
-      </c>
-      <c r="F50" s="28">
-        <v>2996600.939453125</v>
-      </c>
-      <c r="G50" s="28">
-        <v>54395.478515625</v>
-      </c>
-      <c r="H50" s="18">
-        <v>2836682.7578125</v>
-      </c>
-      <c r="I50" s="9">
-        <v>213224.2421875</v>
-      </c>
-      <c r="J50" s="9">
-        <v>213224.2421875</v>
-      </c>
-      <c r="K50" s="9">
-        <v>45464577456.433655</v>
-      </c>
-      <c r="L50" s="9">
-        <v>6.9911719336851905E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>66</v>
-      </c>
-      <c r="B51" s="6">
-        <v>45078</v>
-      </c>
-      <c r="C51" s="38">
-        <v>2697165</v>
-      </c>
-      <c r="D51" s="28">
-        <v>2618102.1773979282</v>
-      </c>
-      <c r="E51" s="28">
-        <v>2591051.4499885412</v>
-      </c>
-      <c r="F51" s="28">
-        <v>2645152.9048073152</v>
-      </c>
-      <c r="G51" s="28">
-        <v>27050.727409387007</v>
-      </c>
-      <c r="H51" s="18">
-        <v>2489116.6192292608</v>
-      </c>
-      <c r="I51" s="9">
-        <v>208048.38077073917</v>
-      </c>
-      <c r="J51" s="9">
-        <v>208048.38077073917</v>
-      </c>
-      <c r="K51" s="9">
-        <v>43284128741.326469</v>
-      </c>
-      <c r="L51" s="9">
-        <v>7.7135948587030892E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>15</v>
-      </c>
-      <c r="B52" s="6">
-        <v>43525</v>
-      </c>
-      <c r="C52" s="38">
-        <v>2816647</v>
-      </c>
-      <c r="D52" s="28">
-        <v>2869641.2956542969</v>
-      </c>
-      <c r="E52" s="28">
-        <v>2870825.3635864258</v>
-      </c>
-      <c r="F52" s="28">
-        <v>2868457.227722168</v>
-      </c>
-      <c r="G52" s="28">
-        <v>-1184.0679321289063</v>
-      </c>
-      <c r="H52" s="18">
-        <v>3023887.9108886719</v>
-      </c>
-      <c r="I52" s="9">
-        <v>-207240.91088867188</v>
-      </c>
-      <c r="J52" s="9">
-        <v>207240.91088867188</v>
-      </c>
-      <c r="K52" s="9">
-        <v>42948795145.966438</v>
-      </c>
-      <c r="L52" s="9">
-        <v>7.3577168487450453E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>22</v>
-      </c>
-      <c r="B53" s="6">
-        <v>43739</v>
-      </c>
-      <c r="C53" s="38">
-        <v>2785208</v>
-      </c>
-      <c r="D53" s="28">
-        <v>2788112.4085597992</v>
-      </c>
-      <c r="E53" s="28">
-        <v>2740486.4562373161</v>
-      </c>
-      <c r="F53" s="28">
-        <v>2835738.3608822823</v>
-      </c>
-      <c r="G53" s="28">
-        <v>47625.952322483063</v>
-      </c>
-      <c r="H53" s="18">
-        <v>2987329.443529129</v>
-      </c>
-      <c r="I53" s="9">
-        <v>-202121.44352912903</v>
-      </c>
-      <c r="J53" s="9">
-        <v>202121.44352912903</v>
-      </c>
-      <c r="K53" s="9">
-        <v>40853077934.298897</v>
-      </c>
-      <c r="L53" s="9">
-        <v>7.2569604686303149E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>54</v>
-      </c>
-      <c r="B54" s="6">
-        <v>44713</v>
-      </c>
-      <c r="C54" s="38">
-        <v>2706510</v>
-      </c>
-      <c r="D54" s="28">
-        <v>2694810.6219133614</v>
-      </c>
-      <c r="E54" s="28">
-        <v>2731573.4215833973</v>
-      </c>
-      <c r="F54" s="28">
-        <v>2658047.8222433254</v>
-      </c>
-      <c r="G54" s="28">
-        <v>-36762.799670035951</v>
-      </c>
-      <c r="H54" s="18">
-        <v>2512661.2889733016</v>
-      </c>
-      <c r="I54" s="9">
-        <v>193848.71102669835</v>
-      </c>
-      <c r="J54" s="9">
-        <v>193848.71102669835</v>
-      </c>
-      <c r="K54" s="9">
-        <v>37577322766.712402</v>
-      </c>
-      <c r="L54" s="9">
-        <v>7.1623127580056359E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>83</v>
-      </c>
-      <c r="B55" s="6">
-        <v>45597</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="27">
-        <v>18494.615731639082</v>
-      </c>
-      <c r="E55" s="27">
-        <v>84365.105762160281</v>
-      </c>
-      <c r="F55" s="27">
-        <v>-47375.874298882118</v>
-      </c>
-      <c r="G55" s="27">
-        <v>-65870.490030521207</v>
-      </c>
-      <c r="H55" s="25">
-        <v>-189503.49719552847</v>
-      </c>
-      <c r="I55" s="25">
-        <v>189503.49719552847</v>
-      </c>
-      <c r="J55" s="25">
-        <v>189503.49719552847</v>
-      </c>
-      <c r="K55" s="25">
-        <v>35911575449.33567</v>
-      </c>
-      <c r="L55" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>21</v>
-      </c>
-      <c r="B56" s="6">
-        <v>43709</v>
-      </c>
-      <c r="C56" s="38">
-        <v>2935437</v>
-      </c>
-      <c r="D56" s="28">
-        <v>2791016.8171195984</v>
-      </c>
-      <c r="E56" s="28">
-        <v>2692860.5039148331</v>
-      </c>
-      <c r="F56" s="28">
-        <v>2889173.1303243637</v>
-      </c>
-      <c r="G56" s="28">
-        <v>98156.31320476532</v>
-      </c>
-      <c r="H56" s="18">
-        <v>2750381.5212974548</v>
-      </c>
-      <c r="I56" s="9">
-        <v>185055.47870254517</v>
-      </c>
-      <c r="J56" s="9">
-        <v>185055.47870254517</v>
-      </c>
-      <c r="K56" s="9">
-        <v>34245530197.828148</v>
-      </c>
-      <c r="L56" s="9">
-        <v>6.3041883952047059E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <v>50</v>
-      </c>
-      <c r="B57" s="6">
-        <v>44593</v>
-      </c>
-      <c r="C57" s="38">
-        <v>2498525</v>
-      </c>
-      <c r="D57" s="28">
-        <v>2704303.9506137832</v>
-      </c>
-      <c r="E57" s="28">
-        <v>2865452.8441067901</v>
-      </c>
-      <c r="F57" s="28">
-        <v>2543155.0571207763</v>
-      </c>
-      <c r="G57" s="28">
-        <v>-161148.89349300694</v>
-      </c>
-      <c r="H57" s="18">
-        <v>2677045.2284831051</v>
-      </c>
-      <c r="I57" s="9">
-        <v>-178520.22848310508</v>
-      </c>
-      <c r="J57" s="9">
-        <v>178520.22848310508</v>
-      </c>
-      <c r="K57" s="9">
-        <v>31869471977.660042</v>
-      </c>
-      <c r="L57" s="9">
-        <v>7.1450247038995038E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <v>78</v>
-      </c>
-      <c r="B58" s="6">
-        <v>45444</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="27">
-        <v>591827.70341245062</v>
-      </c>
-      <c r="E58" s="27">
-        <v>1220114.1258580019</v>
-      </c>
-      <c r="F58" s="27">
-        <v>-36458.719033100642</v>
-      </c>
-      <c r="G58" s="27">
-        <v>-628286.42244555126</v>
-      </c>
-      <c r="H58" s="25">
-        <v>-145834.87613240257</v>
-      </c>
-      <c r="I58" s="25">
-        <v>145834.87613240257</v>
-      </c>
-      <c r="J58" s="25">
-        <v>145834.87613240257</v>
-      </c>
-      <c r="K58" s="25">
-        <v>21267811096.5532</v>
-      </c>
-      <c r="L58" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>11</v>
-      </c>
-      <c r="B59" s="6">
-        <v>43405</v>
-      </c>
-      <c r="C59" s="38">
-        <v>2917120</v>
-      </c>
-      <c r="D59" s="28">
-        <v>2929662.73046875</v>
-      </c>
-      <c r="E59" s="28">
-        <v>2908736.3564453125</v>
-      </c>
-      <c r="F59" s="28">
-        <v>2950589.1044921875</v>
-      </c>
-      <c r="G59" s="28">
-        <v>20926.3740234375</v>
-      </c>
-      <c r="H59" s="18">
-        <v>3050996.41796875</v>
-      </c>
-      <c r="I59" s="9">
-        <v>-133876.41796875</v>
-      </c>
-      <c r="J59" s="9">
-        <v>133876.41796875</v>
-      </c>
-      <c r="K59" s="9">
-        <v>17922895288.143448</v>
-      </c>
-      <c r="L59" s="9">
-        <v>4.5893353022415942E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>57</v>
-      </c>
-      <c r="B60" s="6">
-        <v>44805</v>
-      </c>
-      <c r="C60" s="38">
-        <v>3008420</v>
-      </c>
-      <c r="D60" s="28">
-        <v>2910595.8277391703</v>
-      </c>
-      <c r="E60" s="28">
-        <v>2846057.6693066801</v>
-      </c>
-      <c r="F60" s="28">
-        <v>2975133.9861716605</v>
-      </c>
-      <c r="G60" s="28">
-        <v>64538.158432490192</v>
-      </c>
-      <c r="H60" s="18">
-        <v>2875275.9446866419</v>
-      </c>
-      <c r="I60" s="9">
-        <v>133144.05531335808</v>
-      </c>
-      <c r="J60" s="9">
-        <v>133144.05531335808</v>
-      </c>
-      <c r="K60" s="9">
-        <v>17727339465.286556</v>
-      </c>
-      <c r="L60" s="9">
-        <v>4.4257136740667224E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
-        <v>61</v>
-      </c>
-      <c r="B61" s="6">
-        <v>44927</v>
-      </c>
-      <c r="C61" s="38">
-        <v>2847896</v>
-      </c>
-      <c r="D61" s="28">
-        <v>2816474.6767336982</v>
-      </c>
-      <c r="E61" s="28">
-        <v>2817535.207799064</v>
-      </c>
-      <c r="F61" s="28">
-        <v>2815414.1456683325</v>
-      </c>
-      <c r="G61" s="28">
-        <v>-1060.5310653657652</v>
-      </c>
-      <c r="H61" s="18">
-        <v>2717968.5826733308</v>
-      </c>
-      <c r="I61" s="9">
-        <v>129927.41732666921</v>
-      </c>
-      <c r="J61" s="9">
-        <v>129927.41732666921</v>
-      </c>
-      <c r="K61" s="9">
-        <v>16881133773.178463</v>
-      </c>
-      <c r="L61" s="9">
-        <v>4.562224790746193E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>84</v>
-      </c>
-      <c r="B62" s="6">
-        <v>45627</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="27">
-        <v>9247.3078658195409</v>
-      </c>
-      <c r="E62" s="27">
-        <v>46806.206813989913</v>
-      </c>
-      <c r="F62" s="27">
-        <v>-28311.591082350831</v>
-      </c>
-      <c r="G62" s="27">
-        <v>-37558.898948170376</v>
-      </c>
-      <c r="H62" s="25">
-        <v>-113246.36432940332</v>
-      </c>
-      <c r="I62" s="25">
-        <v>113246.36432940332</v>
-      </c>
-      <c r="J62" s="25">
-        <v>113246.36432940332</v>
-      </c>
-      <c r="K62" s="25">
-        <v>12824739033.827953</v>
-      </c>
-      <c r="L62" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <v>69</v>
-      </c>
-      <c r="B63" s="6">
-        <v>45170</v>
-      </c>
-      <c r="C63" s="38">
-        <v>2641946</v>
-      </c>
-      <c r="D63" s="28">
-        <v>2663418.1471747411</v>
-      </c>
-      <c r="E63" s="28">
-        <v>2657064.7770106792</v>
-      </c>
-      <c r="F63" s="28">
-        <v>2669771.517338803</v>
-      </c>
-      <c r="G63" s="28">
-        <v>6353.3701640618965</v>
-      </c>
-      <c r="H63" s="18">
-        <v>2753248.0693552122</v>
-      </c>
-      <c r="I63" s="9">
-        <v>-111302.06935521215</v>
-      </c>
-      <c r="J63" s="9">
-        <v>111302.06935521215</v>
-      </c>
-      <c r="K63" s="9">
-        <v>12388150642.752457</v>
-      </c>
-      <c r="L63" s="9">
-        <v>4.2128820708376383E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <v>71</v>
-      </c>
-      <c r="B64" s="6">
-        <v>45231</v>
-      </c>
-      <c r="C64" s="38">
-        <v>2614593</v>
-      </c>
-      <c r="D64" s="28">
-        <v>2652507.0367936855</v>
-      </c>
-      <c r="E64" s="28">
-        <v>2663124.9810463553</v>
-      </c>
-      <c r="F64" s="28">
-        <v>2641889.0925410157</v>
-      </c>
-      <c r="G64" s="28">
-        <v>-10617.944252669811</v>
-      </c>
-      <c r="H64" s="18">
-        <v>2723777.3701640614</v>
-      </c>
-      <c r="I64" s="9">
-        <v>-109184.37016406143</v>
-      </c>
-      <c r="J64" s="9">
-        <v>109184.37016406143</v>
-      </c>
-      <c r="K64" s="9">
-        <v>11921226688.122787</v>
-      </c>
-      <c r="L64" s="9">
-        <v>4.1759604712496907E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
-        <v>30</v>
-      </c>
-      <c r="B65" s="6">
-        <v>43983</v>
-      </c>
-      <c r="C65" s="38">
-        <v>703866</v>
-      </c>
-      <c r="D65" s="28">
-        <v>1979984.7984709367</v>
-      </c>
-      <c r="E65" s="28">
-        <v>3229746.1370721739</v>
-      </c>
-      <c r="F65" s="28">
-        <v>730223.45986969955</v>
-      </c>
-      <c r="G65" s="28">
-        <v>-1249761.3386012372</v>
-      </c>
-      <c r="H65" s="18">
-        <v>809295.83947879821</v>
-      </c>
-      <c r="I65" s="9">
-        <v>-105429.83947879821</v>
-      </c>
-      <c r="J65" s="9">
-        <v>105429.83947879821</v>
-      </c>
-      <c r="K65" s="9">
-        <v>11115451052.525158</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0.14978680527088709</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>46</v>
-      </c>
-      <c r="B66" s="6">
-        <v>44470</v>
-      </c>
-      <c r="C66" s="38">
-        <v>3040344</v>
-      </c>
-      <c r="D66" s="28">
-        <v>3336919.2098205332</v>
-      </c>
-      <c r="E66" s="28">
-        <v>3608583.0860675788</v>
-      </c>
-      <c r="F66" s="28">
-        <v>3065255.3335734876</v>
-      </c>
-      <c r="G66" s="28">
-        <v>-271663.87624704558</v>
-      </c>
-      <c r="H66" s="18">
-        <v>3139989.3342939513</v>
-      </c>
-      <c r="I66" s="9">
-        <v>-99645.33429395128</v>
-      </c>
-      <c r="J66" s="9">
-        <v>99645.33429395128</v>
-      </c>
-      <c r="K66" s="9">
-        <v>9929192646.5533028</v>
-      </c>
-      <c r="L66" s="9">
-        <v>3.2774361813647165E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
-        <v>2</v>
-      </c>
-      <c r="B67" s="6">
-        <v>43132</v>
-      </c>
-      <c r="C67" s="38">
-        <v>2751060</v>
-      </c>
-      <c r="D67" s="32">
-        <v>2798093</v>
-      </c>
-      <c r="E67" s="32">
-        <v>2821609.5</v>
-      </c>
-      <c r="F67" s="32">
-        <v>2774576.5</v>
-      </c>
-      <c r="G67" s="32">
-        <v>-23516.5</v>
-      </c>
-      <c r="H67" s="18">
-        <v>2845126</v>
-      </c>
-      <c r="I67" s="9">
-        <v>-94066</v>
-      </c>
-      <c r="J67" s="9">
-        <v>94066</v>
-      </c>
-      <c r="K67" s="9">
-        <v>8848412356</v>
-      </c>
-      <c r="L67" s="9">
-        <v>3.4192638473897335E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
-        <v>60</v>
-      </c>
-      <c r="B68" s="6">
-        <v>44896</v>
-      </c>
-      <c r="C68" s="38">
-        <v>2773458</v>
-      </c>
-      <c r="D68" s="28">
-        <v>2785053.3534673965</v>
-      </c>
-      <c r="E68" s="28">
-        <v>2818595.7388644293</v>
-      </c>
-      <c r="F68" s="28">
-        <v>2751510.9680703636</v>
-      </c>
-      <c r="G68" s="28">
-        <v>-33542.385397032835</v>
-      </c>
-      <c r="H68" s="18">
-        <v>2685669.8722814531</v>
-      </c>
-      <c r="I68" s="9">
-        <v>87788.127718546893</v>
-      </c>
-      <c r="J68" s="9">
-        <v>87788.127718546893</v>
-      </c>
-      <c r="K68" s="9">
-        <v>7706755368.3279018</v>
-      </c>
-      <c r="L68" s="9">
-        <v>3.1652950114458879E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
-        <v>39</v>
-      </c>
-      <c r="B69" s="6">
-        <v>44256</v>
-      </c>
-      <c r="C69" s="38">
-        <v>4884490</v>
-      </c>
-      <c r="D69" s="28">
-        <v>4489351.8570282636</v>
-      </c>
-      <c r="E69" s="28">
-        <v>4115946.0170511552</v>
-      </c>
-      <c r="F69" s="28">
-        <v>4862757.6970053725</v>
-      </c>
-      <c r="G69" s="28">
-        <v>373405.83997710841</v>
-      </c>
-      <c r="H69" s="18">
-        <v>4797560.7880214881</v>
-      </c>
-      <c r="I69" s="9">
-        <v>86929.211978511885</v>
-      </c>
-      <c r="J69" s="9">
-        <v>86929.211978511885</v>
-      </c>
-      <c r="K69" s="9">
-        <v>7556687895.2050543</v>
-      </c>
-      <c r="L69" s="9">
-        <v>1.7796988422232801E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
-        <v>62</v>
-      </c>
-      <c r="B70" s="6">
-        <v>44958</v>
-      </c>
-      <c r="C70" s="38">
-        <v>2730829</v>
-      </c>
-      <c r="D70" s="28">
-        <v>2773651.8383668493</v>
-      </c>
-      <c r="E70" s="28">
-        <v>2795593.5230829567</v>
-      </c>
-      <c r="F70" s="28">
-        <v>2751710.153650742</v>
-      </c>
-      <c r="G70" s="28">
-        <v>-21941.684716107324</v>
-      </c>
-      <c r="H70" s="18">
-        <v>2814353.6146029667</v>
-      </c>
-      <c r="I70" s="9">
-        <v>-83524.6146029667</v>
-      </c>
-      <c r="J70" s="9">
-        <v>83524.6146029667</v>
-      </c>
-      <c r="K70" s="9">
-        <v>6976361244.5741177</v>
-      </c>
-      <c r="L70" s="9">
-        <v>3.0585809145489043E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
-        <v>85</v>
-      </c>
-      <c r="B71" s="6">
-        <v>45658</v>
-      </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="27">
-        <v>4623.6539329097704</v>
-      </c>
-      <c r="E71" s="27">
-        <v>25714.930373449843</v>
-      </c>
-      <c r="F71" s="27">
-        <v>-16467.622507630302</v>
-      </c>
-      <c r="G71" s="27">
-        <v>-21091.276440540074</v>
-      </c>
-      <c r="H71" s="25">
-        <v>-65870.490030521207</v>
-      </c>
-      <c r="I71" s="25">
-        <v>65870.490030521207</v>
-      </c>
-      <c r="J71" s="25">
-        <v>65870.490030521207</v>
-      </c>
-      <c r="K71" s="25">
-        <v>4338921456.8609934</v>
-      </c>
-      <c r="L71" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
-        <v>8</v>
-      </c>
-      <c r="B72" s="6">
-        <v>43313</v>
-      </c>
-      <c r="C72" s="38">
-        <v>2700494</v>
-      </c>
-      <c r="D72" s="28">
-        <v>2773179.84375</v>
-      </c>
-      <c r="E72" s="28">
-        <v>2832325.0859375</v>
-      </c>
-      <c r="F72" s="28">
-        <v>2714034.6015625</v>
-      </c>
-      <c r="G72" s="28">
-        <v>-59145.2421875</v>
-      </c>
-      <c r="H72" s="18">
-        <v>2754656.40625</v>
-      </c>
-      <c r="I72" s="9">
-        <v>-54162.40625</v>
-      </c>
-      <c r="J72" s="9">
-        <v>54162.40625</v>
-      </c>
-      <c r="K72" s="9">
-        <v>2933566250.7900391</v>
-      </c>
-      <c r="L72" s="9">
-        <v>2.0056480869796414E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
-        <v>56</v>
-      </c>
-      <c r="B73" s="6">
-        <v>44774</v>
-      </c>
-      <c r="C73" s="38">
-        <v>2856582</v>
-      </c>
-      <c r="D73" s="28">
-        <v>2812771.6554783406</v>
-      </c>
-      <c r="E73" s="28">
-        <v>2781519.5108741899</v>
-      </c>
-      <c r="F73" s="28">
-        <v>2844023.8000824912</v>
-      </c>
-      <c r="G73" s="28">
-        <v>31252.144604150672</v>
-      </c>
-      <c r="H73" s="18">
-        <v>2806349.2003299636</v>
-      </c>
-      <c r="I73" s="9">
-        <v>50232.799670036417</v>
-      </c>
-      <c r="J73" s="9">
-        <v>50232.799670036417</v>
-      </c>
-      <c r="K73" s="9">
-        <v>2523334162.6900105</v>
-      </c>
-      <c r="L73" s="9">
-        <v>1.7584931806626385E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
-        <v>74</v>
-      </c>
-      <c r="B74" s="6">
-        <v>45323</v>
-      </c>
-      <c r="C74" s="38">
-        <v>2730829</v>
-      </c>
-      <c r="D74" s="28">
-        <v>2661796.2545992108</v>
-      </c>
-      <c r="E74" s="28">
-        <v>2604183.5045296103</v>
-      </c>
-      <c r="F74" s="28">
-        <v>2719409.0046688113</v>
-      </c>
-      <c r="G74" s="28">
-        <v>57612.75006960053</v>
-      </c>
-      <c r="H74" s="18">
-        <v>2685149.0186752444</v>
-      </c>
-      <c r="I74" s="9">
-        <v>45679.981324755587</v>
-      </c>
-      <c r="J74" s="9">
-        <v>45679.981324755587</v>
-      </c>
-      <c r="K74" s="9">
-        <v>2086660693.8300192</v>
-      </c>
-      <c r="L74" s="9">
-        <v>1.6727514364596095E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
-        <v>70</v>
-      </c>
-      <c r="B75" s="6">
-        <v>45200</v>
-      </c>
-      <c r="C75" s="38">
-        <v>2717424</v>
-      </c>
-      <c r="D75" s="28">
-        <v>2690421.0735873706</v>
-      </c>
-      <c r="E75" s="28">
-        <v>2673742.9252990251</v>
-      </c>
-      <c r="F75" s="28">
-        <v>2707099.221875716</v>
-      </c>
-      <c r="G75" s="28">
-        <v>16678.14828834543</v>
-      </c>
-      <c r="H75" s="18">
-        <v>2676124.8875028649</v>
-      </c>
-      <c r="I75" s="9">
-        <v>41299.112497135065</v>
-      </c>
-      <c r="J75" s="9">
-        <v>41299.112497135065</v>
-      </c>
-      <c r="K75" s="9">
-        <v>1705616693.0510178</v>
-      </c>
-      <c r="L75" s="9">
-        <v>1.5197890537926752E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
-        <v>44</v>
-      </c>
-      <c r="B76" s="6">
-        <v>44409</v>
-      </c>
-      <c r="C76" s="38">
-        <v>4216359</v>
-      </c>
-      <c r="D76" s="28">
-        <v>4176592.8392821332</v>
-      </c>
-      <c r="E76" s="28">
-        <v>4126999.5049881814</v>
-      </c>
-      <c r="F76" s="28">
-        <v>4226186.1735760849</v>
-      </c>
-      <c r="G76" s="28">
-        <v>49593.334293951746</v>
-      </c>
-      <c r="H76" s="18">
-        <v>4255667.6943043387</v>
-      </c>
-      <c r="I76" s="9">
-        <v>-39308.694304338656</v>
-      </c>
-      <c r="J76" s="9">
-        <v>39308.694304338656</v>
-      </c>
-      <c r="K76" s="9">
-        <v>1545173447.9119463</v>
-      </c>
-      <c r="L76" s="9">
-        <v>9.3229002331961432E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
-        <v>47</v>
-      </c>
-      <c r="B77" s="6">
-        <v>44501</v>
-      </c>
-      <c r="C77" s="38">
-        <v>2832640</v>
-      </c>
-      <c r="D77" s="28">
-        <v>3084779.6049102666</v>
-      </c>
-      <c r="E77" s="28">
-        <v>3346681.3454889227</v>
-      </c>
-      <c r="F77" s="28">
-        <v>2822877.8643316105</v>
-      </c>
-      <c r="G77" s="28">
-        <v>-261901.74057865608</v>
-      </c>
-      <c r="H77" s="18">
-        <v>2793591.457326442</v>
-      </c>
-      <c r="I77" s="9">
-        <v>39048.542673557997</v>
-      </c>
-      <c r="J77" s="9">
-        <v>39048.542673557997</v>
-      </c>
-      <c r="K77" s="9">
-        <v>1524788684.9286799</v>
-      </c>
-      <c r="L77" s="9">
-        <v>1.3785211913112149E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="15">
-        <v>86</v>
-      </c>
-      <c r="B78" s="6">
-        <v>45689</v>
-      </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="27">
-        <v>2311.8269664548852</v>
-      </c>
-      <c r="E78" s="27">
-        <v>14013.378669952364</v>
-      </c>
-      <c r="F78" s="27">
-        <v>-9389.7247370425939</v>
-      </c>
-      <c r="G78" s="27">
-        <v>-11701.55170349748</v>
-      </c>
-      <c r="H78" s="25">
-        <v>-37558.898948170376</v>
-      </c>
-      <c r="I78" s="25">
-        <v>37558.898948170376</v>
-      </c>
-      <c r="J78" s="25">
-        <v>37558.898948170376</v>
-      </c>
-      <c r="K78" s="25">
-        <v>1410670890.1988738</v>
-      </c>
-      <c r="L78" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
-        <v>63</v>
-      </c>
-      <c r="B79" s="6">
-        <v>44986</v>
-      </c>
-      <c r="C79" s="38">
-        <v>2765759</v>
-      </c>
-      <c r="D79" s="28">
-        <v>2769705.4191834247</v>
-      </c>
-      <c r="E79" s="28">
-        <v>2782649.4711331907</v>
-      </c>
-      <c r="F79" s="28">
-        <v>2756761.3672336587</v>
-      </c>
-      <c r="G79" s="28">
-        <v>-12944.051949765999</v>
-      </c>
-      <c r="H79" s="18">
-        <v>2729768.4689346347</v>
-      </c>
-      <c r="I79" s="9">
-        <v>35990.5310653653</v>
-      </c>
-      <c r="J79" s="9">
-        <v>35990.5310653653</v>
-      </c>
-      <c r="K79" s="9">
-        <v>1295318326.3670247</v>
-      </c>
-      <c r="L79" s="9">
-        <v>1.3012894856480734E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
-        <v>68</v>
-      </c>
-      <c r="B80" s="6">
-        <v>45139</v>
-      </c>
-      <c r="C80" s="38">
-        <v>2727767</v>
-      </c>
-      <c r="D80" s="28">
-        <v>2684890.2943494823</v>
-      </c>
-      <c r="E80" s="28">
-        <v>2650711.4068466173</v>
-      </c>
-      <c r="F80" s="28">
-        <v>2719069.1818523472</v>
-      </c>
-      <c r="G80" s="28">
-        <v>34178.887502864935</v>
-      </c>
-      <c r="H80" s="18">
-        <v>2692975.7274093875</v>
-      </c>
-      <c r="I80" s="9">
-        <v>34791.272590612527</v>
-      </c>
-      <c r="J80" s="9">
-        <v>34791.272590612527</v>
-      </c>
-      <c r="K80" s="9">
-        <v>1210432648.4743066</v>
-      </c>
-      <c r="L80" s="9">
-        <v>1.2754488411441493E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
-        <v>87</v>
-      </c>
-      <c r="B81" s="6">
-        <v>45717</v>
-      </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="27">
-        <v>1155.9134832274426</v>
-      </c>
-      <c r="E81" s="27">
-        <v>7584.6460765899037</v>
-      </c>
-      <c r="F81" s="27">
-        <v>-5272.8191101350185</v>
-      </c>
-      <c r="G81" s="27">
-        <v>-6428.7325933624616</v>
-      </c>
-      <c r="H81" s="25">
-        <v>-21091.276440540074</v>
-      </c>
-      <c r="I81" s="25">
-        <v>21091.276440540074</v>
-      </c>
-      <c r="J81" s="25">
-        <v>21091.276440540074</v>
-      </c>
-      <c r="K81" s="25">
-        <v>444841941.89128077</v>
-      </c>
-      <c r="L81" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
-        <v>17</v>
-      </c>
-      <c r="B82" s="6">
-        <v>43586</v>
-      </c>
-      <c r="C82" s="38">
-        <v>2866466</v>
-      </c>
-      <c r="D82" s="28">
-        <v>2864253.0739135742</v>
-      </c>
-      <c r="E82" s="28">
-        <v>2865342.9148101807</v>
-      </c>
-      <c r="F82" s="28">
-        <v>2863163.2330169678</v>
-      </c>
-      <c r="G82" s="28">
-        <v>-1089.8408966064453</v>
-      </c>
-      <c r="H82" s="18">
-        <v>2853254.9320678711</v>
-      </c>
-      <c r="I82" s="9">
-        <v>13211.067932128906</v>
-      </c>
-      <c r="J82" s="9">
-        <v>13211.067932128906</v>
-      </c>
-      <c r="K82" s="9">
-        <v>174532315.90732473</v>
-      </c>
-      <c r="L82" s="9">
-        <v>4.6088346877754373E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
-        <v>16</v>
-      </c>
-      <c r="B83" s="6">
-        <v>43556</v>
-      </c>
-      <c r="C83" s="38">
-        <v>2854439</v>
-      </c>
-      <c r="D83" s="28">
-        <v>2862040.1478271484</v>
-      </c>
-      <c r="E83" s="28">
-        <v>2866432.7557067871</v>
-      </c>
-      <c r="F83" s="28">
-        <v>2857647.5399475098</v>
-      </c>
-      <c r="G83" s="28">
-        <v>-4392.6078796386719</v>
-      </c>
-      <c r="H83" s="18">
-        <v>2867273.1597900391</v>
-      </c>
-      <c r="I83" s="9">
-        <v>-12834.159790039063</v>
-      </c>
-      <c r="J83" s="9">
-        <v>12834.159790039063</v>
-      </c>
-      <c r="K83" s="9">
-        <v>164715657.5162555</v>
-      </c>
-      <c r="L83" s="9">
-        <v>4.4962109157137579E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="15">
-        <v>58</v>
-      </c>
-      <c r="B84" s="6">
-        <v>44835</v>
-      </c>
-      <c r="C84" s="38">
-        <v>3027799</v>
-      </c>
-      <c r="D84" s="28">
-        <v>2969197.4138695849</v>
-      </c>
-      <c r="E84" s="28">
-        <v>2907627.5415881323</v>
-      </c>
-      <c r="F84" s="28">
-        <v>3030767.2861510376</v>
-      </c>
-      <c r="G84" s="28">
-        <v>61569.872281452641</v>
-      </c>
-      <c r="H84" s="18">
-        <v>3039672.1446041507</v>
-      </c>
-      <c r="I84" s="9">
-        <v>-11873.144604150672</v>
-      </c>
-      <c r="J84" s="9">
-        <v>11873.144604150672</v>
-      </c>
-      <c r="K84" s="9">
-        <v>140971562.79107222</v>
-      </c>
-      <c r="L84" s="9">
-        <v>3.9213780717117196E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
-        <v>88</v>
-      </c>
-      <c r="B85" s="6">
-        <v>45748</v>
-      </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="27">
-        <v>577.95674161372131</v>
-      </c>
-      <c r="E85" s="27">
-        <v>4081.3014091018126</v>
-      </c>
-      <c r="F85" s="27">
-        <v>-2925.38792587437</v>
-      </c>
-      <c r="G85" s="27">
-        <v>-3503.3446674880915</v>
-      </c>
-      <c r="H85" s="25">
-        <v>-11701.55170349748</v>
-      </c>
-      <c r="I85" s="25">
-        <v>11701.55170349748</v>
-      </c>
-      <c r="J85" s="25">
-        <v>11701.55170349748</v>
-      </c>
-      <c r="K85" s="25">
-        <v>136926312.26962477</v>
-      </c>
-      <c r="L85" s="26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="15">
-        <v>75</v>
-      </c>
-      <c r="B86" s="6">
-        <v>45352</v>
-      </c>
-      <c r="C86" s="38">
-        <v>2765759</v>
-      </c>
-      <c r="D86" s="28">
-        <v>2713777.6272996054</v>
-      </c>
-      <c r="E86" s="28">
-        <v>2658980.5659146076</v>
-      </c>
-      <c r="F86" s="28">
-        <v>2768574.6886846032</v>
-      </c>
-      <c r="G86" s="28">
-        <v>54797.061384997796</v>
-      </c>
-      <c r="H86" s="18">
-        <v>2777021.7547384119</v>
-      </c>
-      <c r="I86" s="9">
-        <v>-11262.754738411866</v>
-      </c>
-      <c r="J86" s="9">
-        <v>11262.754738411866</v>
-      </c>
-      <c r="K86" s="9">
-        <v>126849644.29761894</v>
-      </c>
-      <c r="L86" s="9">
-        <v>4.0722111863007102E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
-        <v>36</v>
-      </c>
-      <c r="B87" s="6">
-        <v>44166</v>
-      </c>
-      <c r="C87" s="38">
-        <v>3234853</v>
-      </c>
-      <c r="D87" s="28">
-        <v>3106794.8562261085</v>
-      </c>
-      <c r="E87" s="28">
-        <v>2980510.8520700783</v>
-      </c>
-      <c r="F87" s="28">
-        <v>3233078.8603821388</v>
-      </c>
-      <c r="G87" s="28">
-        <v>126284.00415603025</v>
-      </c>
-      <c r="H87" s="18">
-        <v>3227756.4415285559</v>
-      </c>
-      <c r="I87" s="9">
-        <v>7096.5584714440629</v>
-      </c>
-      <c r="J87" s="9">
-        <v>7096.5584714440629</v>
-      </c>
-      <c r="K87" s="9">
-        <v>50361142.138624497</v>
-      </c>
-      <c r="L87" s="9">
-        <v>2.1937808213987045E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
-        <v>67</v>
-      </c>
-      <c r="B88" s="6">
-        <v>45108</v>
-      </c>
-      <c r="C88" s="38">
-        <v>2665925</v>
-      </c>
-      <c r="D88" s="28">
-        <v>2642013.5886989641</v>
-      </c>
-      <c r="E88" s="28">
-        <v>2616532.5193437524</v>
-      </c>
-      <c r="F88" s="28">
-        <v>2667494.6580541758</v>
-      </c>
-      <c r="G88" s="28">
-        <v>25481.069355211686</v>
-      </c>
-      <c r="H88" s="18">
-        <v>2672203.6322167022</v>
-      </c>
-      <c r="I88" s="9">
-        <v>-6278.6322167022154</v>
-      </c>
-      <c r="J88" s="9">
-        <v>6278.6322167022154</v>
-      </c>
-      <c r="K88" s="9">
-        <v>39421222.512610972</v>
-      </c>
-      <c r="L88" s="9">
-        <v>2.3551421051613286E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
-        <v>1</v>
-      </c>
-      <c r="B89" s="6">
-        <v>43101</v>
-      </c>
-      <c r="C89" s="38">
-        <v>2845126</v>
-      </c>
-      <c r="D89" s="11">
-        <v>2845126</v>
-      </c>
-      <c r="E89" s="11">
-        <v>2845126</v>
-      </c>
-      <c r="F89" s="11">
-        <v>2845126</v>
-      </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="31"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F93" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G93" s="46">
-        <v>234173695</v>
-      </c>
-      <c r="H93" s="46">
-        <v>233554052.87888601</v>
-      </c>
-      <c r="I93" s="46">
-        <v>-2225483.87888595</v>
-      </c>
-      <c r="J93" s="46">
-        <v>46216549.221911557</v>
-      </c>
-      <c r="K93" s="46">
-        <v>101103240170542.31</v>
-      </c>
-      <c r="L93" s="43">
-        <v>23.437708908464629</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F94" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G94" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H94" s="47">
-        <v>231956186.47359115</v>
-      </c>
-      <c r="I94" s="47">
-        <v>-627617.47359111952</v>
-      </c>
-      <c r="J94" s="47">
-        <v>47612614.936109833</v>
-      </c>
-      <c r="K94" s="47">
-        <v>102297308967305.44</v>
-      </c>
-      <c r="L94" s="42">
-        <v>24.130256357379171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F95" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G95" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H95" s="47">
-        <v>231831239.22523117</v>
-      </c>
-      <c r="I95" s="47">
-        <v>-502670.22523114504</v>
-      </c>
-      <c r="J95" s="47">
-        <v>45613221.980450429</v>
-      </c>
-      <c r="K95" s="47">
-        <v>99259483026370.063</v>
-      </c>
-      <c r="L95" s="42">
-        <v>21.422132711337188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F96" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G96" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H96" s="47">
-        <v>231856642.24401185</v>
-      </c>
-      <c r="I96" s="47">
-        <v>-528073.24401188991</v>
-      </c>
-      <c r="J96" s="47">
-        <v>45399930.591654703</v>
-      </c>
-      <c r="K96" s="47">
-        <v>95303388336921.344</v>
-      </c>
-      <c r="L96" s="42">
-        <v>18.954786162613686</v>
-      </c>
-    </row>
-    <row r="97" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F97" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G97" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H97" s="47">
-        <v>231911908.50452968</v>
-      </c>
-      <c r="I97" s="47">
-        <v>-583339.50452961447</v>
-      </c>
-      <c r="J97" s="47">
-        <v>46709783.224530645</v>
-      </c>
-      <c r="K97" s="47">
-        <v>92451205248322.063</v>
-      </c>
-      <c r="L97" s="42">
-        <v>18.274621389364487</v>
-      </c>
-    </row>
-    <row r="98" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F98" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G98" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H98" s="47">
-        <v>231971060.0800865</v>
-      </c>
-      <c r="I98" s="47">
-        <v>-642491.08008653461</v>
-      </c>
-      <c r="J98" s="47">
-        <v>49551004.092338897</v>
-      </c>
-      <c r="K98" s="47">
-        <v>91661551502995.406</v>
-      </c>
-      <c r="L98" s="42">
-        <v>20.009509845734204</v>
-      </c>
-    </row>
-    <row r="99" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F99" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G99" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H99" s="47">
-        <v>232020212.32580766</v>
-      </c>
-      <c r="I99" s="47">
-        <v>-691643.3258077458</v>
-      </c>
-      <c r="J99" s="47">
-        <v>51061974.280647486</v>
-      </c>
-      <c r="K99" s="47">
-        <v>93702304076370.109</v>
-      </c>
-      <c r="L99" s="42">
-        <v>21.010917156706959</v>
-      </c>
-    </row>
-    <row r="100" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F100" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G100" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H100" s="47">
-        <v>232052061.23720196</v>
-      </c>
-      <c r="I100" s="47">
-        <v>-723492.23720192676</v>
-      </c>
-      <c r="J100" s="47">
-        <v>53240489.030860931</v>
-      </c>
-      <c r="K100" s="47">
-        <v>99554642807666.453</v>
-      </c>
-      <c r="L100" s="42">
-        <v>21.843774302726533</v>
-      </c>
-    </row>
-    <row r="101" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F101" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G101" s="47">
-        <v>234173695</v>
-      </c>
-      <c r="H101" s="47">
-        <v>232067011.06983179</v>
-      </c>
-      <c r="I101" s="47">
-        <v>-738442.06983183837</v>
-      </c>
-      <c r="J101" s="47">
-        <v>56526043.806480713</v>
-      </c>
-      <c r="K101" s="47">
-        <v>110596342313258.27</v>
-      </c>
-      <c r="L101" s="42">
-        <v>22.522497445676596</v>
-      </c>
-    </row>
-    <row r="102" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-    </row>
-    <row r="103" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-    </row>
-    <row r="104" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F105" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G105" s="46">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H105" s="46">
-        <v>3114054.0383851468</v>
-      </c>
-      <c r="I105" s="46">
-        <v>-29673.118385146001</v>
-      </c>
-      <c r="J105" s="46">
-        <v>616220.6562921541</v>
-      </c>
-      <c r="K105" s="46">
-        <v>1348043202273.8975</v>
-      </c>
-      <c r="L105" s="44">
-        <v>0.31250278544619503</v>
-      </c>
-    </row>
-    <row r="106" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F106" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G106" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H106" s="47">
-        <v>3092749.1529812152</v>
-      </c>
-      <c r="I106" s="47">
-        <v>-8368.2329812149273</v>
-      </c>
-      <c r="J106" s="47">
-        <v>634834.86581479781</v>
-      </c>
-      <c r="K106" s="47">
-        <v>1363964119564.0725</v>
-      </c>
-      <c r="L106" s="45">
-        <v>0.32173675143172226</v>
-      </c>
-    </row>
-    <row r="107" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F107" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G107" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H107" s="47">
-        <v>3091083.1896697488</v>
-      </c>
-      <c r="I107" s="47">
-        <v>-6702.2696697486008</v>
-      </c>
-      <c r="J107" s="47">
-        <v>608176.29307267244</v>
-      </c>
-      <c r="K107" s="47">
-        <v>1323459773684.9341</v>
-      </c>
-      <c r="L107" s="45">
-        <v>0.28562843615116251</v>
-      </c>
-    </row>
-    <row r="108" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F108" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G108" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H108" s="47">
-        <v>3091421.8965868247</v>
-      </c>
-      <c r="I108" s="47">
-        <v>-7040.9765868251989</v>
-      </c>
-      <c r="J108" s="47">
-        <v>605332.40788872936</v>
-      </c>
-      <c r="K108" s="47">
-        <v>1270711844492.2847</v>
-      </c>
-      <c r="L108" s="45">
-        <v>0.2527304821681825</v>
-      </c>
-    </row>
-    <row r="109" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F109" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G109" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H109" s="47">
-        <v>3092158.7800603956</v>
-      </c>
-      <c r="I109" s="47">
-        <v>-7777.8600603948598</v>
-      </c>
-      <c r="J109" s="47">
-        <v>622797.10966040858</v>
-      </c>
-      <c r="K109" s="47">
-        <v>1232682736644.2942</v>
-      </c>
-      <c r="L109" s="45">
-        <v>0.24366161852485982</v>
-      </c>
-    </row>
-    <row r="110" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F110" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G110" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H110" s="47">
-        <v>3092947.4677344868</v>
-      </c>
-      <c r="I110" s="47">
-        <v>-8566.5477344871288</v>
-      </c>
-      <c r="J110" s="47">
-        <v>660680.05456451862</v>
-      </c>
-      <c r="K110" s="47">
-        <v>1222154020039.9387</v>
-      </c>
-      <c r="L110" s="45">
-        <v>0.26679346460978937</v>
-      </c>
-    </row>
-    <row r="111" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F111" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G111" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H111" s="47">
-        <v>3093602.8310107687</v>
-      </c>
-      <c r="I111" s="47">
-        <v>-9221.9110107699435</v>
-      </c>
-      <c r="J111" s="47">
-        <v>680826.32374196651</v>
-      </c>
-      <c r="K111" s="47">
-        <v>1249364054351.6016</v>
-      </c>
-      <c r="L111" s="45">
-        <v>0.28014556208942615</v>
-      </c>
-    </row>
-    <row r="112" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F112" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G112" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H112" s="47">
-        <v>3094027.4831626927</v>
-      </c>
-      <c r="I112" s="47">
-        <v>-9646.5631626923569</v>
-      </c>
-      <c r="J112" s="47">
-        <v>709873.1870781458</v>
-      </c>
-      <c r="K112" s="47">
-        <v>1327395237435.5527</v>
-      </c>
-      <c r="L112" s="45">
-        <v>0.29125032403635376</v>
-      </c>
-    </row>
-    <row r="113" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F113" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G113" s="47">
-        <v>3081232.8289473685</v>
-      </c>
-      <c r="H113" s="47">
-        <v>3094226.8142644237</v>
-      </c>
-      <c r="I113" s="47">
-        <v>-9845.8942644245108</v>
-      </c>
-      <c r="J113" s="47">
-        <v>753680.58408640954</v>
-      </c>
-      <c r="K113" s="47">
-        <v>1474617897510.1101</v>
-      </c>
-      <c r="L113" s="45">
-        <v>0.30029996594235459</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{572A8C30-01E8-4A21-A370-EDCF44CC1EC5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L89">
-      <sortCondition descending="1" ref="K1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>